--- a/docs/sample revenue calculations.xlsx
+++ b/docs/sample revenue calculations.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/64e43aabd8ba585a/Documents/GFP/www/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/64e43aabd8ba585a/Documents/GFP/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="152" documentId="8_{BEB41B1F-5E96-4CF4-9E33-48C8A22801C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1FE987BD-1198-46B0-9D15-3EA84947AECD}"/>
+  <xr:revisionPtr revIDLastSave="301" documentId="8_{BEB41B1F-5E96-4CF4-9E33-48C8A22801C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09C3AEED-3A8B-4D6D-89FD-6FBE74CDA132}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F2DD8997-54F2-4B84-81BB-33A9A304589B}"/>
   </bookViews>
@@ -33,8 +33,53 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={FAD3E937-135A-4066-B205-0F6C7426DB34}</author>
+    <author>tc={104C708A-5FFD-4082-ABC7-C3CEB45D9586}</author>
+    <author>tc={5F684635-B8E9-4E7C-B914-665D4CBC0673}</author>
+    <author>tc={5E002E3B-98E4-4E52-BB38-00DA0163E0A8}</author>
+  </authors>
+  <commentList>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{FAD3E937-135A-4066-B205-0F6C7426DB34}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    This table will be in the background</t>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="1" shapeId="0" xr:uid="{104C708A-5FFD-4082-ABC7-C3CEB45D9586}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Can throw in a broken eggs parameter here</t>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="2" shapeId="0" xr:uid="{5F684635-B8E9-4E7C-B914-665D4CBC0673}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    I propose taking the last row for each year (which is annoying to do in Excel but not in R so I won't bother here)</t>
+      </text>
+    </comment>
+    <comment ref="A13" authorId="3" shapeId="0" xr:uid="{5E002E3B-98E4-4E52-BB38-00DA0163E0A8}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    assumption that the likelihood of a pullet dying is smoothed out over the months of the year</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>Month</t>
   </si>
@@ -51,25 +96,10 @@
     <t>mortality rate of pullets</t>
   </si>
   <si>
-    <t>breeding span of pullets in months</t>
-  </si>
-  <si>
-    <t>Pullets</t>
-  </si>
-  <si>
-    <t>Spent Hens</t>
-  </si>
-  <si>
-    <t>delay between departure &amp; arrival of hens in months</t>
-  </si>
-  <si>
     <t>Period</t>
   </si>
   <si>
     <t>Period Rank</t>
-  </si>
-  <si>
-    <t>new pullets purchased at end of cycle</t>
   </si>
   <si>
     <t># eggs laid per pullet per day</t>
@@ -84,25 +114,56 @@
     <t>Spent Hen Revenue</t>
   </si>
   <si>
-    <t>Total</t>
+    <t>manure revenue per spent hen</t>
   </si>
   <si>
-    <t>price per pent hen</t>
+    <t># Pullets</t>
   </si>
   <si>
-    <t>manure revenue per spent hen</t>
+    <t>Total Revenue</t>
+  </si>
+  <si>
+    <t>monthly survival rate</t>
+  </si>
+  <si>
+    <t>Transition Month</t>
+  </si>
+  <si>
+    <t>price per spent hen</t>
+  </si>
+  <si>
+    <t># Eggs</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>new pullets purchased at end of each period</t>
+  </si>
+  <si>
+    <t>breeding period of pullets (months)</t>
+  </si>
+  <si>
+    <t>transition delay for pullets (months)</t>
+  </si>
+  <si>
+    <t>effective price per spent hen</t>
+  </si>
+  <si>
+    <t>% eggs that break</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="yyyy/mm"/>
-    <numFmt numFmtId="168" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="170" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="yyyy/mm"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -160,33 +221,39 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -199,6 +266,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Tim Hister" id="{1BDA1660-A4F2-4018-AE27-D722207924CD}" userId="64e43aabd8ba585a" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -496,70 +569,93 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="D1" dT="2021-10-17T02:55:38.14" personId="{1BDA1660-A4F2-4018-AE27-D722207924CD}" id="{FAD3E937-135A-4066-B205-0F6C7426DB34}">
+    <text>This table will be in the background</text>
+  </threadedComment>
+  <threadedComment ref="J1" dT="2021-10-17T03:01:10.51" personId="{1BDA1660-A4F2-4018-AE27-D722207924CD}" id="{104C708A-5FFD-4082-ABC7-C3CEB45D9586}">
+    <text>Can throw in a broken eggs parameter here</text>
+  </threadedComment>
+  <threadedComment ref="N1" dT="2021-10-17T03:00:15.57" personId="{1BDA1660-A4F2-4018-AE27-D722207924CD}" id="{5F684635-B8E9-4E7C-B914-665D4CBC0673}">
+    <text>I propose taking the last row for each year (which is annoying to do in Excel but not in R so I won't bother here)</text>
+  </threadedComment>
+  <threadedComment ref="A13" dT="2021-10-16T21:02:53.98" personId="{1BDA1660-A4F2-4018-AE27-D722207924CD}" id="{5E002E3B-98E4-4E52-BB38-00DA0163E0A8}">
+    <text>assumption that the likelihood of a pullet dying is smoothed out over the months of the year</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D42935F-F50F-4627-A322-C796C5D503F3}">
-  <dimension ref="A1:P133"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D42935F-F50F-4627-A322-C796C5D503F3}">
+  <dimension ref="A1:R133"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="D1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="5" t="s">
+      <c r="B1" s="15"/>
+      <c r="D1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="Q1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R1" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
@@ -578,47 +674,53 @@
         <v>1</v>
       </c>
       <c r="G2" s="5">
-        <f>MOD(D2-1,$B$4)+1</f>
-        <v>1</v>
-      </c>
-      <c r="H2" s="9">
+        <f>MOD(D2-1,$B$4+$B$5)+1</f>
+        <v>1</v>
+      </c>
+      <c r="H2" s="5" t="b">
+        <f>G2&gt;$B$4</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="9">
         <f>B2</f>
         <v>10000</v>
       </c>
-      <c r="I2" s="5">
-        <v>0</v>
-      </c>
-      <c r="J2" s="13">
-        <f>H2*$B$7*$B$8</f>
-        <v>20000</v>
-      </c>
-      <c r="K2" s="14">
-        <f>I2*($B$9+$B$10)</f>
-        <v>0</v>
+      <c r="J2" s="9">
+        <f>I2*$B$7*30.5*(1-$B$11)</f>
+        <v>579500</v>
+      </c>
+      <c r="K2" s="12">
+        <f>J2*$B$8</f>
+        <v>289750</v>
       </c>
       <c r="L2" s="3"/>
       <c r="M2" s="5">
         <v>1</v>
       </c>
-      <c r="N2" s="15">
+      <c r="N2" s="9"/>
+      <c r="O2" s="9">
         <f>SUMIF($E:$E,$M2,J:J)</f>
-        <v>215283.27626519999</v>
-      </c>
-      <c r="O2" s="15">
+        <v>6849208.6135758115</v>
+      </c>
+      <c r="P2" s="13">
         <f>SUMIF($E:$E,$M2,K:K)</f>
-        <v>0</v>
-      </c>
-      <c r="P2" s="13">
-        <f>O2+N2</f>
-        <v>215283.27626519999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+        <v>3424604.3067879057</v>
+      </c>
+      <c r="Q2" s="13">
+        <f>B2*(1-$B$3)*($B$14)*(12/14)</f>
+        <v>74828.57142857142</v>
+      </c>
+      <c r="R2" s="12">
+        <f>Q2+P2</f>
+        <v>3499432.8782164771</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="8">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="D3" s="5">
         <v>2</v>
@@ -632,43 +734,49 @@
         <v>1</v>
       </c>
       <c r="G3" s="5">
-        <f t="shared" ref="G3:G66" si="2">MOD(D3-1,$B$4)+1</f>
+        <f t="shared" ref="G3:G66" si="2">MOD(D3-1,$B$4+$B$5)+1</f>
         <v>2</v>
       </c>
-      <c r="H3" s="9">
-        <f>H2*(1-$B$3)</f>
-        <v>9800</v>
-      </c>
-      <c r="I3" s="5">
-        <v>0</v>
-      </c>
-      <c r="J3" s="13">
-        <f t="shared" ref="J3:J66" si="3">H3*$B$7*$B$8</f>
-        <v>19600</v>
-      </c>
-      <c r="K3" s="14">
-        <f t="shared" ref="K3:K66" si="4">I3*($B$9+$B$10)</f>
-        <v>0</v>
+      <c r="H3" s="5" t="b">
+        <f t="shared" ref="H3:H66" si="3">G3&gt;$B$4</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="9">
+        <f>IF(G3=1,$B$6,IF(H3,0,I2*$B$13))</f>
+        <v>9972.3481133437235</v>
+      </c>
+      <c r="J3" s="9">
+        <f t="shared" ref="J3:J66" si="4">I3*$B$7*30.5*(1-$B$11)</f>
+        <v>577897.57316826866</v>
+      </c>
+      <c r="K3" s="12">
+        <f t="shared" ref="K3:K66" si="5">J3*$B$8</f>
+        <v>288948.78658413433</v>
       </c>
       <c r="M3" s="5">
         <v>2</v>
       </c>
-      <c r="N3" s="15">
-        <f t="shared" ref="N3:N12" si="5">SUMIF($E:$E,$M3,J:J)</f>
-        <v>150464.36419446958</v>
-      </c>
-      <c r="O3" s="15">
-        <f t="shared" ref="O3:O12" si="6">SUMIF($E:$E,$M3,K:K)</f>
-        <v>69212.015033409349</v>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9">
+        <f t="shared" ref="O3:O12" si="6">SUMIF($E:$E,$M3,J:J)</f>
+        <v>3415260.9008147693</v>
       </c>
       <c r="P3" s="13">
-        <f t="shared" ref="P3:P12" si="7">O3+N3</f>
-        <v>219676.37922787893</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" ref="P3:P12" si="7">SUMIF($E:$E,$M3,K:K)</f>
+        <v>1707630.4504073847</v>
+      </c>
+      <c r="Q3" s="13">
+        <f>$B$6*(1-$B$3)*($B$14)*(12/14)</f>
+        <v>37414.28571428571</v>
+      </c>
+      <c r="R3" s="12">
+        <f t="shared" ref="R3:R12" si="8">Q3+P3</f>
+        <v>1745044.7361216703</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B4" s="5">
         <v>14</v>
@@ -688,40 +796,46 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="H4" s="9">
-        <f t="shared" ref="H4:H15" si="8">H3*(1-$B$3)</f>
-        <v>9604</v>
-      </c>
-      <c r="I4" s="5">
-        <v>0</v>
-      </c>
-      <c r="J4" s="13">
-        <f t="shared" si="3"/>
-        <v>19208</v>
-      </c>
-      <c r="K4" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="H4" s="5" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I4" s="9">
+        <f>IF(G4=1,$B$6,IF(H4,0,I3*$B$13))</f>
+        <v>9944.7726893710114</v>
+      </c>
+      <c r="J4" s="9">
+        <f t="shared" si="4"/>
+        <v>576299.57734905009</v>
+      </c>
+      <c r="K4" s="12">
+        <f t="shared" si="5"/>
+        <v>288149.78867452504</v>
       </c>
       <c r="M4" s="5">
         <v>3</v>
       </c>
-      <c r="N4" s="15">
-        <f t="shared" si="5"/>
-        <v>144163.13438638844</v>
-      </c>
-      <c r="O4" s="15">
+      <c r="N4" s="9"/>
+      <c r="O4" s="9">
         <f t="shared" si="6"/>
-        <v>57652.657253985293</v>
+        <v>2842901.8353793737</v>
       </c>
       <c r="P4" s="13">
         <f t="shared" si="7"/>
-        <v>201815.79164037373</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1421450.9176896869</v>
+      </c>
+      <c r="Q4" s="13">
+        <f>$B$6*(1-$B$3)*($B$14)*(12/14)</f>
+        <v>37414.28571428571</v>
+      </c>
+      <c r="R4" s="12">
+        <f t="shared" si="8"/>
+        <v>1458865.2034039726</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B5" s="5">
         <v>2</v>
@@ -741,43 +855,49 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="H5" s="9">
-        <f t="shared" si="8"/>
-        <v>9411.92</v>
-      </c>
-      <c r="I5" s="5">
-        <v>0</v>
-      </c>
-      <c r="J5" s="13">
-        <f t="shared" si="3"/>
-        <v>18823.84</v>
-      </c>
-      <c r="K5" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="H5" s="5" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="9">
+        <f>IF(G5=1,$B$6,IF(H5,0,I4*$B$13))</f>
+        <v>9917.2735166481198</v>
+      </c>
+      <c r="J5" s="9">
+        <f t="shared" si="4"/>
+        <v>574706.00028975843</v>
+      </c>
+      <c r="K5" s="12">
+        <f t="shared" si="5"/>
+        <v>287353.00014487922</v>
       </c>
       <c r="M5" s="5">
         <v>4</v>
       </c>
-      <c r="N5" s="15">
-        <f t="shared" si="5"/>
-        <v>143005.99770335996</v>
-      </c>
-      <c r="O5" s="15">
+      <c r="N5" s="9"/>
+      <c r="O5" s="9">
         <f t="shared" si="6"/>
-        <v>57652.657253985293</v>
+        <v>2830188.3493852662</v>
       </c>
       <c r="P5" s="13">
         <f t="shared" si="7"/>
-        <v>200658.65495734525</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1415094.1746926331</v>
+      </c>
+      <c r="Q5" s="13">
+        <f>$B$6*(1-$B$3)*($B$14)*(12/14)</f>
+        <v>37414.28571428571</v>
+      </c>
+      <c r="R5" s="12">
+        <f t="shared" si="8"/>
+        <v>1452508.4604069188</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B6" s="7">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="D6" s="5">
         <v>5</v>
@@ -794,43 +914,49 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="H6" s="9">
-        <f t="shared" si="8"/>
-        <v>9223.6815999999999</v>
-      </c>
-      <c r="I6" s="5">
-        <v>0</v>
-      </c>
-      <c r="J6" s="13">
-        <f t="shared" si="3"/>
-        <v>18447.3632</v>
-      </c>
-      <c r="K6" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="H6" s="5" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="9">
+        <f>IF(G6=1,$B$6,IF(H6,0,I5*$B$13))</f>
+        <v>9889.850384325955</v>
+      </c>
+      <c r="J6" s="9">
+        <f t="shared" si="4"/>
+        <v>573116.82977168902</v>
+      </c>
+      <c r="K6" s="12">
+        <f t="shared" si="5"/>
+        <v>286558.41488584451</v>
       </c>
       <c r="M6" s="5">
         <v>5</v>
       </c>
-      <c r="N6" s="15">
-        <f t="shared" si="5"/>
-        <v>141801.14901215996</v>
-      </c>
-      <c r="O6" s="15">
+      <c r="N6" s="9"/>
+      <c r="O6" s="9">
         <f t="shared" si="6"/>
-        <v>57652.657253985293</v>
+        <v>3424604.3067879057</v>
       </c>
       <c r="P6" s="13">
         <f t="shared" si="7"/>
-        <v>199453.80626614526</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1712302.1533939529</v>
+      </c>
+      <c r="Q6" s="13">
+        <f>$B$6*(1-$B$3)*($B$14)*(12/14)</f>
+        <v>37414.28571428571</v>
+      </c>
+      <c r="R6" s="12">
+        <f t="shared" si="8"/>
+        <v>1749716.4391082386</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B7" s="9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" s="5">
         <v>6</v>
@@ -847,40 +973,46 @@
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="H7" s="9">
-        <f t="shared" si="8"/>
-        <v>9039.2079680000006</v>
-      </c>
-      <c r="I7" s="5">
-        <v>0</v>
-      </c>
-      <c r="J7" s="13">
-        <f t="shared" si="3"/>
-        <v>18078.415936000001</v>
-      </c>
-      <c r="K7" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="H7" s="5" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="9">
+        <f>IF(G7=1,$B$6,IF(H7,0,I6*$B$13))</f>
+        <v>9862.5030821384626</v>
+      </c>
+      <c r="J7" s="9">
+        <f t="shared" si="4"/>
+        <v>571532.05360992393</v>
+      </c>
+      <c r="K7" s="12">
+        <f t="shared" si="5"/>
+        <v>285766.02680496196</v>
       </c>
       <c r="M7" s="5">
         <v>6</v>
       </c>
-      <c r="N7" s="15">
-        <f t="shared" si="5"/>
-        <v>140546.62101215997</v>
-      </c>
-      <c r="O7" s="15">
+      <c r="N7" s="9"/>
+      <c r="O7" s="9">
         <f t="shared" si="6"/>
-        <v>57652.657253985293</v>
+        <v>2855475.282813869</v>
       </c>
       <c r="P7" s="13">
         <f t="shared" si="7"/>
-        <v>198199.27826614527</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1427737.6414069345</v>
+      </c>
+      <c r="Q7" s="13">
+        <f>$B$6*(1-$B$3)*($B$14)*(12/14)</f>
+        <v>37414.28571428571</v>
+      </c>
+      <c r="R7" s="12">
+        <f t="shared" si="8"/>
+        <v>1465151.9271212202</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B8" s="10">
         <v>0.5</v>
@@ -900,40 +1032,46 @@
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="H8" s="9">
-        <f t="shared" si="8"/>
-        <v>8858.4238086400001</v>
-      </c>
-      <c r="I8" s="5">
-        <v>0</v>
-      </c>
-      <c r="J8" s="13">
-        <f t="shared" si="3"/>
-        <v>17716.84761728</v>
-      </c>
-      <c r="K8" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="H8" s="5" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="9">
+        <f>IF(G8=1,$B$6,IF(H8,0,I7*$B$13))</f>
+        <v>9835.231400401015</v>
+      </c>
+      <c r="J8" s="9">
+        <f t="shared" si="4"/>
+        <v>569951.65965323872</v>
+      </c>
+      <c r="K8" s="12">
+        <f t="shared" si="5"/>
+        <v>284975.82982661936</v>
       </c>
       <c r="M8" s="5">
         <v>7</v>
       </c>
-      <c r="N8" s="15">
-        <f t="shared" si="5"/>
-        <v>172226.62101215997</v>
-      </c>
-      <c r="O8" s="15">
+      <c r="N8" s="9"/>
+      <c r="O8" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2842901.8353793737</v>
       </c>
       <c r="P8" s="13">
         <f t="shared" si="7"/>
-        <v>172226.62101215997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1421450.9176896869</v>
+      </c>
+      <c r="Q8" s="13">
+        <f>$B$6*(1-$B$3)*($B$14)*(12/14)</f>
+        <v>37414.28571428571</v>
+      </c>
+      <c r="R8" s="12">
+        <f t="shared" si="8"/>
+        <v>1458865.2034039726</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="10">
         <v>5</v>
@@ -953,40 +1091,46 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="H9" s="9">
-        <f t="shared" si="8"/>
-        <v>8681.2553324672008</v>
-      </c>
-      <c r="I9" s="5">
-        <v>0</v>
-      </c>
-      <c r="J9" s="13">
-        <f t="shared" si="3"/>
-        <v>17362.510664934402</v>
-      </c>
-      <c r="K9" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="H9" s="5" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="9">
+        <f>IF(G9=1,$B$6,IF(H9,0,I8*$B$13))</f>
+        <v>9808.0351300088005</v>
+      </c>
+      <c r="J9" s="9">
+        <f t="shared" si="4"/>
+        <v>568375.63578401005</v>
+      </c>
+      <c r="K9" s="12">
+        <f t="shared" si="5"/>
+        <v>284187.81789200503</v>
       </c>
       <c r="M9" s="5">
         <v>8</v>
       </c>
-      <c r="N9" s="15">
-        <f t="shared" si="5"/>
-        <v>146341.75448996248</v>
-      </c>
-      <c r="O9" s="15">
+      <c r="N9" s="9"/>
+      <c r="O9" s="9">
         <f t="shared" si="6"/>
-        <v>57652.657253985293</v>
+        <v>2830188.3493852662</v>
       </c>
       <c r="P9" s="13">
         <f t="shared" si="7"/>
-        <v>203994.41174394777</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1415094.1746926331</v>
+      </c>
+      <c r="Q9" s="13">
+        <f>$B$6*(1-$B$3)*($B$14)*(12/14)</f>
+        <v>37414.28571428571</v>
+      </c>
+      <c r="R9" s="12">
+        <f t="shared" si="8"/>
+        <v>1452508.4604069188</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B10" s="10">
         <v>4</v>
@@ -1006,38 +1150,50 @@
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="H10" s="9">
-        <f t="shared" si="8"/>
-        <v>8507.6302258178566</v>
-      </c>
-      <c r="I10" s="5">
-        <v>0</v>
-      </c>
-      <c r="J10" s="13">
-        <f t="shared" si="3"/>
-        <v>17015.260451635713</v>
-      </c>
-      <c r="K10" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="H10" s="5" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="9">
+        <f>IF(G10=1,$B$6,IF(H10,0,I9*$B$13))</f>
+        <v>9780.9140624352221</v>
+      </c>
+      <c r="J10" s="9">
+        <f t="shared" si="4"/>
+        <v>566803.96991812112</v>
+      </c>
+      <c r="K10" s="12">
+        <f t="shared" si="5"/>
+        <v>283401.98495906056</v>
       </c>
       <c r="M10" s="5">
         <v>9</v>
       </c>
-      <c r="N10" s="15">
-        <f t="shared" si="5"/>
-        <v>145274.44845676899</v>
-      </c>
-      <c r="O10" s="15">
+      <c r="N10" s="9"/>
+      <c r="O10" s="9">
         <f t="shared" si="6"/>
-        <v>57652.657253985293</v>
+        <v>3424604.3067879057</v>
       </c>
       <c r="P10" s="13">
         <f t="shared" si="7"/>
-        <v>202927.10571075429</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1712302.1533939529</v>
+      </c>
+      <c r="Q10" s="13">
+        <f>$B$6*(1-$B$3)*($B$14)*(12/14)</f>
+        <v>37414.28571428571</v>
+      </c>
+      <c r="R10" s="12">
+        <f t="shared" si="8"/>
+        <v>1749716.4391082386</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="8">
+        <v>0.05</v>
+      </c>
       <c r="D11" s="5">
         <v>10</v>
       </c>
@@ -1053,38 +1209,44 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="H11" s="9">
-        <f t="shared" si="8"/>
-        <v>8337.4776213014993</v>
-      </c>
-      <c r="I11" s="5">
-        <v>0</v>
-      </c>
-      <c r="J11" s="13">
-        <f t="shared" si="3"/>
-        <v>16674.955242602999</v>
-      </c>
-      <c r="K11" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="H11" s="5" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="9">
+        <f>IF(G11=1,$B$6,IF(H11,0,I10*$B$13))</f>
+        <v>9753.8679897302973</v>
+      </c>
+      <c r="J11" s="9">
+        <f t="shared" si="4"/>
+        <v>565236.65000487072</v>
+      </c>
+      <c r="K11" s="12">
+        <f t="shared" si="5"/>
+        <v>282618.32500243536</v>
       </c>
       <c r="M11" s="5">
         <v>10</v>
       </c>
-      <c r="N11" s="15">
-        <f t="shared" si="5"/>
-        <v>144163.13438638844</v>
-      </c>
-      <c r="O11" s="15">
+      <c r="N11" s="9"/>
+      <c r="O11" s="9">
         <f t="shared" si="6"/>
-        <v>57652.657253985293</v>
+        <v>2855475.282813869</v>
       </c>
       <c r="P11" s="13">
         <f t="shared" si="7"/>
-        <v>201815.79164037373</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1427737.6414069345</v>
+      </c>
+      <c r="Q11" s="13">
+        <f>$B$6*(1-$B$3)*($B$14)*(12/14)</f>
+        <v>37414.28571428571</v>
+      </c>
+      <c r="R11" s="12">
+        <f t="shared" si="8"/>
+        <v>1465151.9271212202</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D12" s="5">
         <v>11</v>
       </c>
@@ -1100,38 +1262,51 @@
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="H12" s="9">
-        <f t="shared" si="8"/>
-        <v>8170.728068875469</v>
-      </c>
-      <c r="I12" s="5">
-        <v>0</v>
-      </c>
-      <c r="J12" s="13">
-        <f t="shared" si="3"/>
-        <v>16341.456137750938</v>
-      </c>
-      <c r="K12" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="H12" s="5" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="9">
+        <f>IF(G12=1,$B$6,IF(H12,0,I11*$B$13))</f>
+        <v>9726.8967045190657</v>
+      </c>
+      <c r="J12" s="9">
+        <f t="shared" si="4"/>
+        <v>563673.66402687982</v>
+      </c>
+      <c r="K12" s="12">
+        <f t="shared" si="5"/>
+        <v>281836.83201343991</v>
       </c>
       <c r="M12" s="5">
         <v>11</v>
       </c>
-      <c r="N12" s="15">
-        <f t="shared" si="5"/>
-        <v>143005.99770335996</v>
-      </c>
-      <c r="O12" s="15">
+      <c r="N12" s="9"/>
+      <c r="O12" s="9">
         <f t="shared" si="6"/>
-        <v>57652.657253985293</v>
+        <v>2842901.8353793737</v>
       </c>
       <c r="P12" s="13">
         <f t="shared" si="7"/>
-        <v>200658.65495734525</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1421450.9176896869</v>
+      </c>
+      <c r="Q12" s="13">
+        <f>$B$6*(1-$B$3)*($B$14)*(12/14)</f>
+        <v>37414.28571428571</v>
+      </c>
+      <c r="R12" s="12">
+        <f t="shared" si="8"/>
+        <v>1458865.2034039726</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="14">
+        <f>(1-$B$3)^(1/11)</f>
+        <v>0.99723481133437231</v>
+      </c>
       <c r="D13" s="5">
         <v>12</v>
       </c>
@@ -1147,27 +1322,35 @@
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="H13" s="9">
-        <f t="shared" si="8"/>
-        <v>8007.3135074979591</v>
-      </c>
-      <c r="I13" s="5">
-        <v>0</v>
-      </c>
-      <c r="J13" s="13">
-        <f t="shared" si="3"/>
-        <v>16014.627014995918</v>
-      </c>
-      <c r="K13" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P13" s="11" t="b">
-        <f>SUM(P2:P12)=SUM(J:K)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H13" s="5" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="9">
+        <f>IF(G13=1,$B$6,IF(H13,0,I12*$B$13))</f>
+        <v>9699.9999999999982</v>
+      </c>
+      <c r="J13" s="9">
+        <f t="shared" si="4"/>
+        <v>562114.99999999988</v>
+      </c>
+      <c r="K13" s="12">
+        <f t="shared" si="5"/>
+        <v>281057.49999999994</v>
+      </c>
+      <c r="R13" s="11" t="b">
+        <f>SUM(R2:R12)=SUM(K:K)+SUM(Q:Q)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="19">
+        <f>B10+B9</f>
+        <v>9</v>
+      </c>
       <c r="D14" s="5">
         <v>13</v>
       </c>
@@ -1183,23 +1366,25 @@
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="H14" s="9">
-        <f t="shared" si="8"/>
-        <v>7847.1672373479996</v>
-      </c>
-      <c r="I14" s="5">
-        <v>0</v>
-      </c>
-      <c r="J14" s="13">
-        <f t="shared" si="3"/>
-        <v>15694.334474695999</v>
-      </c>
-      <c r="K14" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H14" s="5" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="9">
+        <f>IF(G14=1,$B$6,IF(H14,0,I13*$B$13))</f>
+        <v>9673.1776699434104</v>
+      </c>
+      <c r="J14" s="9">
+        <f t="shared" si="4"/>
+        <v>560560.64597322058</v>
+      </c>
+      <c r="K14" s="12">
+        <f t="shared" si="5"/>
+        <v>280280.32298661029</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15"/>
       <c r="D15" s="5">
         <v>14</v>
       </c>
@@ -1215,23 +1400,24 @@
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="H15" s="9">
-        <f t="shared" si="8"/>
-        <v>7690.2238926010396</v>
-      </c>
-      <c r="I15" s="5">
-        <v>0</v>
-      </c>
-      <c r="J15" s="13">
-        <f t="shared" si="3"/>
-        <v>15380.447785202079</v>
-      </c>
-      <c r="K15" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H15" s="5" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="9">
+        <f>IF(G15=1,$B$6,IF(H15,0,I14*$B$13))</f>
+        <v>9646.4295086898801</v>
+      </c>
+      <c r="J15" s="9">
+        <f t="shared" si="4"/>
+        <v>559010.59002857853</v>
+      </c>
+      <c r="K15" s="12">
+        <f t="shared" si="5"/>
+        <v>279505.29501428927</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D16" s="5">
         <v>15</v>
       </c>
@@ -1245,23 +1431,23 @@
       </c>
       <c r="G16" s="5">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H16" s="9">
-        <f>IF(G16=$B$5+1,$B$6,IF(G16&gt;$B$5+1,H15*(1-$B$3),0))</f>
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="H16" s="5" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="I16" s="9">
-        <f>IF(G16=1,H15,0)</f>
-        <v>7690.2238926010396</v>
-      </c>
-      <c r="J16" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K16" s="14">
-        <f t="shared" si="4"/>
-        <v>69212.015033409349</v>
+        <f>IF(G16=1,$B$6,IF(H16,0,I15*$B$13))</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="12">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="4:11" x14ac:dyDescent="0.25">
@@ -1278,22 +1464,22 @@
       </c>
       <c r="G17" s="5">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="H17" s="9">
-        <f>IF(G17=$B$5+1,$B$6,IF(G17&gt;$B$5+1,H16*(1-$B$3),0))</f>
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="H17" s="5" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="I17" s="9">
-        <f>IF(G17=1,H16,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J17" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K17" s="14">
-        <f t="shared" si="4"/>
+        <f>IF(G17=1,$B$6,IF(H17,0,I16*$B$13))</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="12">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -1311,23 +1497,23 @@
       </c>
       <c r="G18" s="5">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="H18" s="9">
-        <f>IF(G18=$B$5+1,$B$6,IF(G18&gt;$B$5+1,H17*(1-$B$3),0))</f>
-        <v>8000</v>
+        <v>1</v>
+      </c>
+      <c r="H18" s="5" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="I18" s="9">
-        <f>IF(G18=1,H17,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J18" s="13">
-        <f t="shared" si="3"/>
-        <v>16000</v>
-      </c>
-      <c r="K18" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>IF(G18=1,$B$6,IF(H18,0,I17*$B$13))</f>
+        <v>5000</v>
+      </c>
+      <c r="J18" s="9">
+        <f t="shared" si="4"/>
+        <v>289750</v>
+      </c>
+      <c r="K18" s="12">
+        <f t="shared" si="5"/>
+        <v>144875</v>
       </c>
     </row>
     <row r="19" spans="4:11" x14ac:dyDescent="0.25">
@@ -1344,23 +1530,23 @@
       </c>
       <c r="G19" s="5">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="H19" s="9">
-        <f>IF(G19=$B$5+1,$B$6,IF(G19&gt;$B$5+1,H18*(1-$B$3),0))</f>
-        <v>7840</v>
+        <v>2</v>
+      </c>
+      <c r="H19" s="5" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="I19" s="9">
-        <f>IF(G19=1,H18,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J19" s="13">
-        <f t="shared" si="3"/>
-        <v>15680</v>
-      </c>
-      <c r="K19" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>IF(G19=1,$B$6,IF(H19,0,I18*$B$13))</f>
+        <v>4986.1740566718618</v>
+      </c>
+      <c r="J19" s="9">
+        <f t="shared" si="4"/>
+        <v>288948.78658413433</v>
+      </c>
+      <c r="K19" s="12">
+        <f t="shared" si="5"/>
+        <v>144474.39329206717</v>
       </c>
     </row>
     <row r="20" spans="4:11" x14ac:dyDescent="0.25">
@@ -1377,23 +1563,23 @@
       </c>
       <c r="G20" s="5">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="H20" s="9">
-        <f>IF(G20=$B$5+1,$B$6,IF(G20&gt;$B$5+1,H19*(1-$B$3),0))</f>
-        <v>7683.2</v>
+        <v>3</v>
+      </c>
+      <c r="H20" s="5" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="I20" s="9">
-        <f>IF(G20=1,H19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J20" s="13">
-        <f t="shared" si="3"/>
-        <v>15366.4</v>
-      </c>
-      <c r="K20" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>IF(G20=1,$B$6,IF(H20,0,I19*$B$13))</f>
+        <v>4972.3863446855057</v>
+      </c>
+      <c r="J20" s="9">
+        <f t="shared" si="4"/>
+        <v>288149.78867452504</v>
+      </c>
+      <c r="K20" s="12">
+        <f t="shared" si="5"/>
+        <v>144074.89433726252</v>
       </c>
     </row>
     <row r="21" spans="4:11" x14ac:dyDescent="0.25">
@@ -1410,23 +1596,23 @@
       </c>
       <c r="G21" s="5">
         <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="H21" s="9">
-        <f>IF(G21=$B$5+1,$B$6,IF(G21&gt;$B$5+1,H20*(1-$B$3),0))</f>
-        <v>7529.5360000000001</v>
+        <v>4</v>
+      </c>
+      <c r="H21" s="5" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="I21" s="9">
-        <f>IF(G21=1,H20,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J21" s="13">
-        <f t="shared" si="3"/>
-        <v>15059.072</v>
-      </c>
-      <c r="K21" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>IF(G21=1,$B$6,IF(H21,0,I20*$B$13))</f>
+        <v>4958.6367583240599</v>
+      </c>
+      <c r="J21" s="9">
+        <f t="shared" si="4"/>
+        <v>287353.00014487922</v>
+      </c>
+      <c r="K21" s="12">
+        <f t="shared" si="5"/>
+        <v>143676.50007243961</v>
       </c>
     </row>
     <row r="22" spans="4:11" x14ac:dyDescent="0.25">
@@ -1443,23 +1629,23 @@
       </c>
       <c r="G22" s="5">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="H22" s="9">
-        <f>IF(G22=$B$5+1,$B$6,IF(G22&gt;$B$5+1,H21*(1-$B$3),0))</f>
-        <v>7378.9452799999999</v>
+        <v>5</v>
+      </c>
+      <c r="H22" s="5" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="I22" s="9">
-        <f>IF(G22=1,H21,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J22" s="13">
-        <f t="shared" si="3"/>
-        <v>14757.89056</v>
-      </c>
-      <c r="K22" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>IF(G22=1,$B$6,IF(H22,0,I21*$B$13))</f>
+        <v>4944.9251921629775</v>
+      </c>
+      <c r="J22" s="9">
+        <f t="shared" si="4"/>
+        <v>286558.41488584451</v>
+      </c>
+      <c r="K22" s="12">
+        <f t="shared" si="5"/>
+        <v>143279.20744292226</v>
       </c>
     </row>
     <row r="23" spans="4:11" x14ac:dyDescent="0.25">
@@ -1476,23 +1662,23 @@
       </c>
       <c r="G23" s="5">
         <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="H23" s="9">
-        <f>IF(G23=$B$5+1,$B$6,IF(G23&gt;$B$5+1,H22*(1-$B$3),0))</f>
-        <v>7231.3663743999996</v>
+        <v>6</v>
+      </c>
+      <c r="H23" s="5" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="I23" s="9">
-        <f>IF(G23=1,H22,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J23" s="13">
-        <f t="shared" si="3"/>
-        <v>14462.732748799999</v>
-      </c>
-      <c r="K23" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>IF(G23=1,$B$6,IF(H23,0,I22*$B$13))</f>
+        <v>4931.2515410692313</v>
+      </c>
+      <c r="J23" s="9">
+        <f t="shared" si="4"/>
+        <v>285766.02680496196</v>
+      </c>
+      <c r="K23" s="12">
+        <f t="shared" si="5"/>
+        <v>142883.01340248098</v>
       </c>
     </row>
     <row r="24" spans="4:11" x14ac:dyDescent="0.25">
@@ -1509,23 +1695,23 @@
       </c>
       <c r="G24" s="5">
         <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="H24" s="9">
-        <f>IF(G24=$B$5+1,$B$6,IF(G24&gt;$B$5+1,H23*(1-$B$3),0))</f>
-        <v>7086.7390469119991</v>
+        <v>7</v>
+      </c>
+      <c r="H24" s="5" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="I24" s="9">
-        <f>IF(G24=1,H23,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J24" s="13">
-        <f t="shared" si="3"/>
-        <v>14173.478093823998</v>
-      </c>
-      <c r="K24" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>IF(G24=1,$B$6,IF(H24,0,I23*$B$13))</f>
+        <v>4917.6157002005075</v>
+      </c>
+      <c r="J24" s="9">
+        <f t="shared" si="4"/>
+        <v>284975.82982661936</v>
+      </c>
+      <c r="K24" s="12">
+        <f t="shared" si="5"/>
+        <v>142487.91491330968</v>
       </c>
     </row>
     <row r="25" spans="4:11" x14ac:dyDescent="0.25">
@@ -1542,23 +1728,23 @@
       </c>
       <c r="G25" s="5">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="H25" s="9">
-        <f>IF(G25=$B$5+1,$B$6,IF(G25&gt;$B$5+1,H24*(1-$B$3),0))</f>
-        <v>6945.0042659737592</v>
+        <v>8</v>
+      </c>
+      <c r="H25" s="5" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="I25" s="9">
-        <f>IF(G25=1,H24,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J25" s="13">
-        <f t="shared" si="3"/>
-        <v>13890.008531947518</v>
-      </c>
-      <c r="K25" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>IF(G25=1,$B$6,IF(H25,0,I24*$B$13))</f>
+        <v>4904.0175650044002</v>
+      </c>
+      <c r="J25" s="9">
+        <f t="shared" si="4"/>
+        <v>284187.81789200503</v>
+      </c>
+      <c r="K25" s="12">
+        <f t="shared" si="5"/>
+        <v>142093.90894600251</v>
       </c>
     </row>
     <row r="26" spans="4:11" x14ac:dyDescent="0.25">
@@ -1575,23 +1761,23 @@
       </c>
       <c r="G26" s="5">
         <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="H26" s="9">
-        <f>IF(G26=$B$5+1,$B$6,IF(G26&gt;$B$5+1,H25*(1-$B$3),0))</f>
-        <v>6806.1041806542835</v>
+        <v>9</v>
+      </c>
+      <c r="H26" s="5" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="I26" s="9">
-        <f>IF(G26=1,H25,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J26" s="13">
-        <f t="shared" si="3"/>
-        <v>13612.208361308567</v>
-      </c>
-      <c r="K26" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>IF(G26=1,$B$6,IF(H26,0,I25*$B$13))</f>
+        <v>4890.4570312176111</v>
+      </c>
+      <c r="J26" s="9">
+        <f t="shared" si="4"/>
+        <v>283401.98495906056</v>
+      </c>
+      <c r="K26" s="12">
+        <f t="shared" si="5"/>
+        <v>141700.99247953028</v>
       </c>
     </row>
     <row r="27" spans="4:11" x14ac:dyDescent="0.25">
@@ -1608,23 +1794,23 @@
       </c>
       <c r="G27" s="5">
         <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="H27" s="9">
-        <f>IF(G27=$B$5+1,$B$6,IF(G27&gt;$B$5+1,H26*(1-$B$3),0))</f>
-        <v>6669.9820970411974</v>
+        <v>10</v>
+      </c>
+      <c r="H27" s="5" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="I27" s="9">
-        <f>IF(G27=1,H26,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J27" s="13">
-        <f t="shared" si="3"/>
-        <v>13339.964194082395</v>
-      </c>
-      <c r="K27" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>IF(G27=1,$B$6,IF(H27,0,I26*$B$13))</f>
+        <v>4876.9339948651486</v>
+      </c>
+      <c r="J27" s="9">
+        <f t="shared" si="4"/>
+        <v>282618.32500243536</v>
+      </c>
+      <c r="K27" s="12">
+        <f t="shared" si="5"/>
+        <v>141309.16250121768</v>
       </c>
     </row>
     <row r="28" spans="4:11" x14ac:dyDescent="0.25">
@@ -1641,23 +1827,23 @@
       </c>
       <c r="G28" s="5">
         <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="H28" s="9">
-        <f>IF(G28=$B$5+1,$B$6,IF(G28&gt;$B$5+1,H27*(1-$B$3),0))</f>
-        <v>6536.5824551003734</v>
+        <v>11</v>
+      </c>
+      <c r="H28" s="5" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="I28" s="9">
-        <f>IF(G28=1,H27,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J28" s="13">
-        <f t="shared" si="3"/>
-        <v>13073.164910200747</v>
-      </c>
-      <c r="K28" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>IF(G28=1,$B$6,IF(H28,0,I27*$B$13))</f>
+        <v>4863.4483522595328</v>
+      </c>
+      <c r="J28" s="9">
+        <f t="shared" si="4"/>
+        <v>281836.83201343991</v>
+      </c>
+      <c r="K28" s="12">
+        <f t="shared" si="5"/>
+        <v>140918.41600671996</v>
       </c>
     </row>
     <row r="29" spans="4:11" x14ac:dyDescent="0.25">
@@ -1674,23 +1860,23 @@
       </c>
       <c r="G29" s="5">
         <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="H29" s="9">
-        <f>IF(G29=$B$5+1,$B$6,IF(G29&gt;$B$5+1,H28*(1-$B$3),0))</f>
-        <v>6405.850805998366</v>
+        <v>12</v>
+      </c>
+      <c r="H29" s="5" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="I29" s="9">
-        <f>IF(G29=1,H28,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J29" s="13">
-        <f t="shared" si="3"/>
-        <v>12811.701611996732</v>
-      </c>
-      <c r="K29" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>IF(G29=1,$B$6,IF(H29,0,I28*$B$13))</f>
+        <v>4849.9999999999991</v>
+      </c>
+      <c r="J29" s="9">
+        <f t="shared" si="4"/>
+        <v>281057.49999999994</v>
+      </c>
+      <c r="K29" s="12">
+        <f t="shared" si="5"/>
+        <v>140528.74999999997</v>
       </c>
     </row>
     <row r="30" spans="4:11" x14ac:dyDescent="0.25">
@@ -1707,23 +1893,23 @@
       </c>
       <c r="G30" s="5">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H30" s="9">
-        <f>IF(G30=$B$5+1,$B$6,IF(G30&gt;$B$5+1,H29*(1-$B$3),0))</f>
+        <v>13</v>
+      </c>
+      <c r="H30" s="5" t="b">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I30" s="9">
-        <f>IF(G30=1,H29,0)</f>
-        <v>6405.850805998366</v>
-      </c>
-      <c r="J30" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K30" s="14">
-        <f t="shared" si="4"/>
-        <v>57652.657253985293</v>
+        <f>IF(G30=1,$B$6,IF(H30,0,I29*$B$13))</f>
+        <v>4836.5888349717052</v>
+      </c>
+      <c r="J30" s="9">
+        <f t="shared" si="4"/>
+        <v>280280.32298661029</v>
+      </c>
+      <c r="K30" s="12">
+        <f t="shared" si="5"/>
+        <v>140140.16149330515</v>
       </c>
     </row>
     <row r="31" spans="4:11" x14ac:dyDescent="0.25">
@@ -1740,23 +1926,23 @@
       </c>
       <c r="G31" s="5">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="H31" s="9">
-        <f>IF(G31=$B$5+1,$B$6,IF(G31&gt;$B$5+1,H30*(1-$B$3),0))</f>
+        <v>14</v>
+      </c>
+      <c r="H31" s="5" t="b">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I31" s="9">
-        <f>IF(G31=1,H30,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J31" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K31" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>IF(G31=1,$B$6,IF(H31,0,I30*$B$13))</f>
+        <v>4823.21475434494</v>
+      </c>
+      <c r="J31" s="9">
+        <f t="shared" si="4"/>
+        <v>279505.29501428927</v>
+      </c>
+      <c r="K31" s="12">
+        <f t="shared" si="5"/>
+        <v>139752.64750714463</v>
       </c>
     </row>
     <row r="32" spans="4:11" x14ac:dyDescent="0.25">
@@ -1773,22 +1959,22 @@
       </c>
       <c r="G32" s="5">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="H32" s="9">
-        <f>IF(G32=$B$5+1,$B$6,IF(G32&gt;$B$5+1,H31*(1-$B$3),0))</f>
-        <v>8000</v>
+        <v>15</v>
+      </c>
+      <c r="H32" s="5" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="I32" s="9">
-        <f>IF(G32=1,H31,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J32" s="13">
-        <f t="shared" si="3"/>
-        <v>16000</v>
-      </c>
-      <c r="K32" s="14">
-        <f t="shared" si="4"/>
+        <f>IF(G32=1,$B$6,IF(H32,0,I31*$B$13))</f>
+        <v>0</v>
+      </c>
+      <c r="J32" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K32" s="12">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -1806,22 +1992,22 @@
       </c>
       <c r="G33" s="5">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="H33" s="9">
-        <f>IF(G33=$B$5+1,$B$6,IF(G33&gt;$B$5+1,H32*(1-$B$3),0))</f>
-        <v>7840</v>
+        <v>16</v>
+      </c>
+      <c r="H33" s="5" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="I33" s="9">
-        <f>IF(G33=1,H32,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J33" s="13">
-        <f t="shared" si="3"/>
-        <v>15680</v>
-      </c>
-      <c r="K33" s="14">
-        <f t="shared" si="4"/>
+        <f>IF(G33=1,$B$6,IF(H33,0,I32*$B$13))</f>
+        <v>0</v>
+      </c>
+      <c r="J33" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K33" s="12">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -1839,23 +2025,23 @@
       </c>
       <c r="G34" s="5">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="H34" s="9">
-        <f>IF(G34=$B$5+1,$B$6,IF(G34&gt;$B$5+1,H33*(1-$B$3),0))</f>
-        <v>7683.2</v>
+        <v>1</v>
+      </c>
+      <c r="H34" s="5" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="I34" s="9">
-        <f>IF(G34=1,H33,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J34" s="13">
-        <f t="shared" si="3"/>
-        <v>15366.4</v>
-      </c>
-      <c r="K34" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>IF(G34=1,$B$6,IF(H34,0,I33*$B$13))</f>
+        <v>5000</v>
+      </c>
+      <c r="J34" s="9">
+        <f t="shared" si="4"/>
+        <v>289750</v>
+      </c>
+      <c r="K34" s="12">
+        <f t="shared" si="5"/>
+        <v>144875</v>
       </c>
     </row>
     <row r="35" spans="4:11" x14ac:dyDescent="0.25">
@@ -1872,23 +2058,23 @@
       </c>
       <c r="G35" s="5">
         <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="H35" s="9">
-        <f>IF(G35=$B$5+1,$B$6,IF(G35&gt;$B$5+1,H34*(1-$B$3),0))</f>
-        <v>7529.5360000000001</v>
+        <v>2</v>
+      </c>
+      <c r="H35" s="5" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="I35" s="9">
-        <f>IF(G35=1,H34,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J35" s="13">
-        <f t="shared" si="3"/>
-        <v>15059.072</v>
-      </c>
-      <c r="K35" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>IF(G35=1,$B$6,IF(H35,0,I34*$B$13))</f>
+        <v>4986.1740566718618</v>
+      </c>
+      <c r="J35" s="9">
+        <f t="shared" si="4"/>
+        <v>288948.78658413433</v>
+      </c>
+      <c r="K35" s="12">
+        <f t="shared" si="5"/>
+        <v>144474.39329206717</v>
       </c>
     </row>
     <row r="36" spans="4:11" x14ac:dyDescent="0.25">
@@ -1905,23 +2091,23 @@
       </c>
       <c r="G36" s="5">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="H36" s="9">
-        <f>IF(G36=$B$5+1,$B$6,IF(G36&gt;$B$5+1,H35*(1-$B$3),0))</f>
-        <v>7378.9452799999999</v>
+        <v>3</v>
+      </c>
+      <c r="H36" s="5" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="I36" s="9">
-        <f>IF(G36=1,H35,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J36" s="13">
-        <f t="shared" si="3"/>
-        <v>14757.89056</v>
-      </c>
-      <c r="K36" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>IF(G36=1,$B$6,IF(H36,0,I35*$B$13))</f>
+        <v>4972.3863446855057</v>
+      </c>
+      <c r="J36" s="9">
+        <f t="shared" si="4"/>
+        <v>288149.78867452504</v>
+      </c>
+      <c r="K36" s="12">
+        <f t="shared" si="5"/>
+        <v>144074.89433726252</v>
       </c>
     </row>
     <row r="37" spans="4:11" x14ac:dyDescent="0.25">
@@ -1938,23 +2124,23 @@
       </c>
       <c r="G37" s="5">
         <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="H37" s="9">
-        <f>IF(G37=$B$5+1,$B$6,IF(G37&gt;$B$5+1,H36*(1-$B$3),0))</f>
-        <v>7231.3663743999996</v>
+        <v>4</v>
+      </c>
+      <c r="H37" s="5" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="I37" s="9">
-        <f>IF(G37=1,H36,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J37" s="13">
-        <f t="shared" si="3"/>
-        <v>14462.732748799999</v>
-      </c>
-      <c r="K37" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>IF(G37=1,$B$6,IF(H37,0,I36*$B$13))</f>
+        <v>4958.6367583240599</v>
+      </c>
+      <c r="J37" s="9">
+        <f t="shared" si="4"/>
+        <v>287353.00014487922</v>
+      </c>
+      <c r="K37" s="12">
+        <f t="shared" si="5"/>
+        <v>143676.50007243961</v>
       </c>
     </row>
     <row r="38" spans="4:11" x14ac:dyDescent="0.25">
@@ -1971,23 +2157,23 @@
       </c>
       <c r="G38" s="5">
         <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="H38" s="9">
-        <f>IF(G38=$B$5+1,$B$6,IF(G38&gt;$B$5+1,H37*(1-$B$3),0))</f>
-        <v>7086.7390469119991</v>
+        <v>5</v>
+      </c>
+      <c r="H38" s="5" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="I38" s="9">
-        <f>IF(G38=1,H37,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J38" s="13">
-        <f t="shared" si="3"/>
-        <v>14173.478093823998</v>
-      </c>
-      <c r="K38" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>IF(G38=1,$B$6,IF(H38,0,I37*$B$13))</f>
+        <v>4944.9251921629775</v>
+      </c>
+      <c r="J38" s="9">
+        <f t="shared" si="4"/>
+        <v>286558.41488584451</v>
+      </c>
+      <c r="K38" s="12">
+        <f t="shared" si="5"/>
+        <v>143279.20744292226</v>
       </c>
     </row>
     <row r="39" spans="4:11" x14ac:dyDescent="0.25">
@@ -2004,23 +2190,23 @@
       </c>
       <c r="G39" s="5">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="H39" s="9">
-        <f>IF(G39=$B$5+1,$B$6,IF(G39&gt;$B$5+1,H38*(1-$B$3),0))</f>
-        <v>6945.0042659737592</v>
+        <v>6</v>
+      </c>
+      <c r="H39" s="5" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="I39" s="9">
-        <f>IF(G39=1,H38,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J39" s="13">
-        <f t="shared" si="3"/>
-        <v>13890.008531947518</v>
-      </c>
-      <c r="K39" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>IF(G39=1,$B$6,IF(H39,0,I38*$B$13))</f>
+        <v>4931.2515410692313</v>
+      </c>
+      <c r="J39" s="9">
+        <f t="shared" si="4"/>
+        <v>285766.02680496196</v>
+      </c>
+      <c r="K39" s="12">
+        <f t="shared" si="5"/>
+        <v>142883.01340248098</v>
       </c>
     </row>
     <row r="40" spans="4:11" x14ac:dyDescent="0.25">
@@ -2037,23 +2223,23 @@
       </c>
       <c r="G40" s="5">
         <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="H40" s="9">
-        <f>IF(G40=$B$5+1,$B$6,IF(G40&gt;$B$5+1,H39*(1-$B$3),0))</f>
-        <v>6806.1041806542835</v>
+        <v>7</v>
+      </c>
+      <c r="H40" s="5" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="I40" s="9">
-        <f>IF(G40=1,H39,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J40" s="13">
-        <f t="shared" si="3"/>
-        <v>13612.208361308567</v>
-      </c>
-      <c r="K40" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>IF(G40=1,$B$6,IF(H40,0,I39*$B$13))</f>
+        <v>4917.6157002005075</v>
+      </c>
+      <c r="J40" s="9">
+        <f t="shared" si="4"/>
+        <v>284975.82982661936</v>
+      </c>
+      <c r="K40" s="12">
+        <f t="shared" si="5"/>
+        <v>142487.91491330968</v>
       </c>
     </row>
     <row r="41" spans="4:11" x14ac:dyDescent="0.25">
@@ -2070,23 +2256,23 @@
       </c>
       <c r="G41" s="5">
         <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="H41" s="9">
-        <f>IF(G41=$B$5+1,$B$6,IF(G41&gt;$B$5+1,H40*(1-$B$3),0))</f>
-        <v>6669.9820970411974</v>
+        <v>8</v>
+      </c>
+      <c r="H41" s="5" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="I41" s="9">
-        <f>IF(G41=1,H40,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J41" s="13">
-        <f t="shared" si="3"/>
-        <v>13339.964194082395</v>
-      </c>
-      <c r="K41" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>IF(G41=1,$B$6,IF(H41,0,I40*$B$13))</f>
+        <v>4904.0175650044002</v>
+      </c>
+      <c r="J41" s="9">
+        <f t="shared" si="4"/>
+        <v>284187.81789200503</v>
+      </c>
+      <c r="K41" s="12">
+        <f t="shared" si="5"/>
+        <v>142093.90894600251</v>
       </c>
     </row>
     <row r="42" spans="4:11" x14ac:dyDescent="0.25">
@@ -2103,23 +2289,23 @@
       </c>
       <c r="G42" s="5">
         <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="H42" s="9">
-        <f>IF(G42=$B$5+1,$B$6,IF(G42&gt;$B$5+1,H41*(1-$B$3),0))</f>
-        <v>6536.5824551003734</v>
+        <v>9</v>
+      </c>
+      <c r="H42" s="5" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="I42" s="9">
-        <f>IF(G42=1,H41,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J42" s="13">
-        <f t="shared" si="3"/>
-        <v>13073.164910200747</v>
-      </c>
-      <c r="K42" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>IF(G42=1,$B$6,IF(H42,0,I41*$B$13))</f>
+        <v>4890.4570312176111</v>
+      </c>
+      <c r="J42" s="9">
+        <f t="shared" si="4"/>
+        <v>283401.98495906056</v>
+      </c>
+      <c r="K42" s="12">
+        <f t="shared" si="5"/>
+        <v>141700.99247953028</v>
       </c>
     </row>
     <row r="43" spans="4:11" x14ac:dyDescent="0.25">
@@ -2136,23 +2322,23 @@
       </c>
       <c r="G43" s="5">
         <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="H43" s="9">
-        <f>IF(G43=$B$5+1,$B$6,IF(G43&gt;$B$5+1,H42*(1-$B$3),0))</f>
-        <v>6405.850805998366</v>
+        <v>10</v>
+      </c>
+      <c r="H43" s="5" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="I43" s="9">
-        <f>IF(G43=1,H42,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J43" s="13">
-        <f t="shared" si="3"/>
-        <v>12811.701611996732</v>
-      </c>
-      <c r="K43" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>IF(G43=1,$B$6,IF(H43,0,I42*$B$13))</f>
+        <v>4876.9339948651486</v>
+      </c>
+      <c r="J43" s="9">
+        <f t="shared" si="4"/>
+        <v>282618.32500243536</v>
+      </c>
+      <c r="K43" s="12">
+        <f t="shared" si="5"/>
+        <v>141309.16250121768</v>
       </c>
     </row>
     <row r="44" spans="4:11" x14ac:dyDescent="0.25">
@@ -2169,23 +2355,23 @@
       </c>
       <c r="G44" s="5">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H44" s="9">
-        <f>IF(G44=$B$5+1,$B$6,IF(G44&gt;$B$5+1,H43*(1-$B$3),0))</f>
+        <v>11</v>
+      </c>
+      <c r="H44" s="5" t="b">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I44" s="9">
-        <f>IF(G44=1,H43,0)</f>
-        <v>6405.850805998366</v>
-      </c>
-      <c r="J44" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K44" s="14">
-        <f t="shared" si="4"/>
-        <v>57652.657253985293</v>
+        <f>IF(G44=1,$B$6,IF(H44,0,I43*$B$13))</f>
+        <v>4863.4483522595328</v>
+      </c>
+      <c r="J44" s="9">
+        <f t="shared" si="4"/>
+        <v>281836.83201343991</v>
+      </c>
+      <c r="K44" s="12">
+        <f t="shared" si="5"/>
+        <v>140918.41600671996</v>
       </c>
     </row>
     <row r="45" spans="4:11" x14ac:dyDescent="0.25">
@@ -2202,23 +2388,23 @@
       </c>
       <c r="G45" s="5">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="H45" s="9">
-        <f>IF(G45=$B$5+1,$B$6,IF(G45&gt;$B$5+1,H44*(1-$B$3),0))</f>
+        <v>12</v>
+      </c>
+      <c r="H45" s="5" t="b">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I45" s="9">
-        <f>IF(G45=1,H44,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J45" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K45" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>IF(G45=1,$B$6,IF(H45,0,I44*$B$13))</f>
+        <v>4849.9999999999991</v>
+      </c>
+      <c r="J45" s="9">
+        <f t="shared" si="4"/>
+        <v>281057.49999999994</v>
+      </c>
+      <c r="K45" s="12">
+        <f t="shared" si="5"/>
+        <v>140528.74999999997</v>
       </c>
     </row>
     <row r="46" spans="4:11" x14ac:dyDescent="0.25">
@@ -2235,23 +2421,23 @@
       </c>
       <c r="G46" s="5">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="H46" s="9">
-        <f>IF(G46=$B$5+1,$B$6,IF(G46&gt;$B$5+1,H45*(1-$B$3),0))</f>
-        <v>8000</v>
+        <v>13</v>
+      </c>
+      <c r="H46" s="5" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="I46" s="9">
-        <f>IF(G46=1,H45,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J46" s="13">
-        <f t="shared" si="3"/>
-        <v>16000</v>
-      </c>
-      <c r="K46" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>IF(G46=1,$B$6,IF(H46,0,I45*$B$13))</f>
+        <v>4836.5888349717052</v>
+      </c>
+      <c r="J46" s="9">
+        <f t="shared" si="4"/>
+        <v>280280.32298661029</v>
+      </c>
+      <c r="K46" s="12">
+        <f t="shared" si="5"/>
+        <v>140140.16149330515</v>
       </c>
     </row>
     <row r="47" spans="4:11" x14ac:dyDescent="0.25">
@@ -2268,23 +2454,23 @@
       </c>
       <c r="G47" s="5">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="H47" s="9">
-        <f>IF(G47=$B$5+1,$B$6,IF(G47&gt;$B$5+1,H46*(1-$B$3),0))</f>
-        <v>7840</v>
+        <v>14</v>
+      </c>
+      <c r="H47" s="5" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="I47" s="9">
-        <f>IF(G47=1,H46,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J47" s="13">
-        <f t="shared" si="3"/>
-        <v>15680</v>
-      </c>
-      <c r="K47" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>IF(G47=1,$B$6,IF(H47,0,I46*$B$13))</f>
+        <v>4823.21475434494</v>
+      </c>
+      <c r="J47" s="9">
+        <f t="shared" si="4"/>
+        <v>279505.29501428927</v>
+      </c>
+      <c r="K47" s="12">
+        <f t="shared" si="5"/>
+        <v>139752.64750714463</v>
       </c>
     </row>
     <row r="48" spans="4:11" x14ac:dyDescent="0.25">
@@ -2301,22 +2487,22 @@
       </c>
       <c r="G48" s="5">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="H48" s="9">
-        <f>IF(G48=$B$5+1,$B$6,IF(G48&gt;$B$5+1,H47*(1-$B$3),0))</f>
-        <v>7683.2</v>
+        <v>15</v>
+      </c>
+      <c r="H48" s="5" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="I48" s="9">
-        <f>IF(G48=1,H47,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J48" s="13">
-        <f t="shared" si="3"/>
-        <v>15366.4</v>
-      </c>
-      <c r="K48" s="14">
-        <f t="shared" si="4"/>
+        <f>IF(G48=1,$B$6,IF(H48,0,I47*$B$13))</f>
+        <v>0</v>
+      </c>
+      <c r="J48" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K48" s="12">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2334,22 +2520,22 @@
       </c>
       <c r="G49" s="5">
         <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="H49" s="9">
-        <f>IF(G49=$B$5+1,$B$6,IF(G49&gt;$B$5+1,H48*(1-$B$3),0))</f>
-        <v>7529.5360000000001</v>
+        <v>16</v>
+      </c>
+      <c r="H49" s="5" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="I49" s="9">
-        <f>IF(G49=1,H48,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J49" s="13">
-        <f t="shared" si="3"/>
-        <v>15059.072</v>
-      </c>
-      <c r="K49" s="14">
-        <f t="shared" si="4"/>
+        <f>IF(G49=1,$B$6,IF(H49,0,I48*$B$13))</f>
+        <v>0</v>
+      </c>
+      <c r="J49" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K49" s="12">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2367,23 +2553,23 @@
       </c>
       <c r="G50" s="5">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="H50" s="9">
-        <f>IF(G50=$B$5+1,$B$6,IF(G50&gt;$B$5+1,H49*(1-$B$3),0))</f>
-        <v>7378.9452799999999</v>
+        <v>1</v>
+      </c>
+      <c r="H50" s="5" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="I50" s="9">
-        <f>IF(G50=1,H49,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J50" s="13">
-        <f t="shared" si="3"/>
-        <v>14757.89056</v>
-      </c>
-      <c r="K50" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>IF(G50=1,$B$6,IF(H50,0,I49*$B$13))</f>
+        <v>5000</v>
+      </c>
+      <c r="J50" s="9">
+        <f t="shared" si="4"/>
+        <v>289750</v>
+      </c>
+      <c r="K50" s="12">
+        <f t="shared" si="5"/>
+        <v>144875</v>
       </c>
     </row>
     <row r="51" spans="4:11" x14ac:dyDescent="0.25">
@@ -2400,23 +2586,23 @@
       </c>
       <c r="G51" s="5">
         <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="H51" s="9">
-        <f>IF(G51=$B$5+1,$B$6,IF(G51&gt;$B$5+1,H50*(1-$B$3),0))</f>
-        <v>7231.3663743999996</v>
+        <v>2</v>
+      </c>
+      <c r="H51" s="5" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="I51" s="9">
-        <f>IF(G51=1,H50,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J51" s="13">
-        <f t="shared" si="3"/>
-        <v>14462.732748799999</v>
-      </c>
-      <c r="K51" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>IF(G51=1,$B$6,IF(H51,0,I50*$B$13))</f>
+        <v>4986.1740566718618</v>
+      </c>
+      <c r="J51" s="9">
+        <f t="shared" si="4"/>
+        <v>288948.78658413433</v>
+      </c>
+      <c r="K51" s="12">
+        <f t="shared" si="5"/>
+        <v>144474.39329206717</v>
       </c>
     </row>
     <row r="52" spans="4:11" x14ac:dyDescent="0.25">
@@ -2433,23 +2619,23 @@
       </c>
       <c r="G52" s="5">
         <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="H52" s="9">
-        <f>IF(G52=$B$5+1,$B$6,IF(G52&gt;$B$5+1,H51*(1-$B$3),0))</f>
-        <v>7086.7390469119991</v>
+        <v>3</v>
+      </c>
+      <c r="H52" s="5" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="I52" s="9">
-        <f>IF(G52=1,H51,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J52" s="13">
-        <f t="shared" si="3"/>
-        <v>14173.478093823998</v>
-      </c>
-      <c r="K52" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>IF(G52=1,$B$6,IF(H52,0,I51*$B$13))</f>
+        <v>4972.3863446855057</v>
+      </c>
+      <c r="J52" s="9">
+        <f t="shared" si="4"/>
+        <v>288149.78867452504</v>
+      </c>
+      <c r="K52" s="12">
+        <f t="shared" si="5"/>
+        <v>144074.89433726252</v>
       </c>
     </row>
     <row r="53" spans="4:11" x14ac:dyDescent="0.25">
@@ -2466,23 +2652,23 @@
       </c>
       <c r="G53" s="5">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="H53" s="9">
-        <f>IF(G53=$B$5+1,$B$6,IF(G53&gt;$B$5+1,H52*(1-$B$3),0))</f>
-        <v>6945.0042659737592</v>
+        <v>4</v>
+      </c>
+      <c r="H53" s="5" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="I53" s="9">
-        <f>IF(G53=1,H52,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J53" s="13">
-        <f t="shared" si="3"/>
-        <v>13890.008531947518</v>
-      </c>
-      <c r="K53" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>IF(G53=1,$B$6,IF(H53,0,I52*$B$13))</f>
+        <v>4958.6367583240599</v>
+      </c>
+      <c r="J53" s="9">
+        <f t="shared" si="4"/>
+        <v>287353.00014487922</v>
+      </c>
+      <c r="K53" s="12">
+        <f t="shared" si="5"/>
+        <v>143676.50007243961</v>
       </c>
     </row>
     <row r="54" spans="4:11" x14ac:dyDescent="0.25">
@@ -2499,23 +2685,23 @@
       </c>
       <c r="G54" s="5">
         <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="H54" s="9">
-        <f>IF(G54=$B$5+1,$B$6,IF(G54&gt;$B$5+1,H53*(1-$B$3),0))</f>
-        <v>6806.1041806542835</v>
+        <v>5</v>
+      </c>
+      <c r="H54" s="5" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="I54" s="9">
-        <f>IF(G54=1,H53,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J54" s="13">
-        <f t="shared" si="3"/>
-        <v>13612.208361308567</v>
-      </c>
-      <c r="K54" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>IF(G54=1,$B$6,IF(H54,0,I53*$B$13))</f>
+        <v>4944.9251921629775</v>
+      </c>
+      <c r="J54" s="9">
+        <f t="shared" si="4"/>
+        <v>286558.41488584451</v>
+      </c>
+      <c r="K54" s="12">
+        <f t="shared" si="5"/>
+        <v>143279.20744292226</v>
       </c>
     </row>
     <row r="55" spans="4:11" x14ac:dyDescent="0.25">
@@ -2532,23 +2718,23 @@
       </c>
       <c r="G55" s="5">
         <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="H55" s="9">
-        <f>IF(G55=$B$5+1,$B$6,IF(G55&gt;$B$5+1,H54*(1-$B$3),0))</f>
-        <v>6669.9820970411974</v>
+        <v>6</v>
+      </c>
+      <c r="H55" s="5" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="I55" s="9">
-        <f>IF(G55=1,H54,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J55" s="13">
-        <f t="shared" si="3"/>
-        <v>13339.964194082395</v>
-      </c>
-      <c r="K55" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>IF(G55=1,$B$6,IF(H55,0,I54*$B$13))</f>
+        <v>4931.2515410692313</v>
+      </c>
+      <c r="J55" s="9">
+        <f t="shared" si="4"/>
+        <v>285766.02680496196</v>
+      </c>
+      <c r="K55" s="12">
+        <f t="shared" si="5"/>
+        <v>142883.01340248098</v>
       </c>
     </row>
     <row r="56" spans="4:11" x14ac:dyDescent="0.25">
@@ -2565,23 +2751,23 @@
       </c>
       <c r="G56" s="5">
         <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="H56" s="9">
-        <f>IF(G56=$B$5+1,$B$6,IF(G56&gt;$B$5+1,H55*(1-$B$3),0))</f>
-        <v>6536.5824551003734</v>
+        <v>7</v>
+      </c>
+      <c r="H56" s="5" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="I56" s="9">
-        <f>IF(G56=1,H55,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J56" s="13">
-        <f t="shared" si="3"/>
-        <v>13073.164910200747</v>
-      </c>
-      <c r="K56" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>IF(G56=1,$B$6,IF(H56,0,I55*$B$13))</f>
+        <v>4917.6157002005075</v>
+      </c>
+      <c r="J56" s="9">
+        <f t="shared" si="4"/>
+        <v>284975.82982661936</v>
+      </c>
+      <c r="K56" s="12">
+        <f t="shared" si="5"/>
+        <v>142487.91491330968</v>
       </c>
     </row>
     <row r="57" spans="4:11" x14ac:dyDescent="0.25">
@@ -2598,23 +2784,23 @@
       </c>
       <c r="G57" s="5">
         <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="H57" s="9">
-        <f>IF(G57=$B$5+1,$B$6,IF(G57&gt;$B$5+1,H56*(1-$B$3),0))</f>
-        <v>6405.850805998366</v>
+        <v>8</v>
+      </c>
+      <c r="H57" s="5" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="I57" s="9">
-        <f>IF(G57=1,H56,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J57" s="13">
-        <f t="shared" si="3"/>
-        <v>12811.701611996732</v>
-      </c>
-      <c r="K57" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>IF(G57=1,$B$6,IF(H57,0,I56*$B$13))</f>
+        <v>4904.0175650044002</v>
+      </c>
+      <c r="J57" s="9">
+        <f t="shared" si="4"/>
+        <v>284187.81789200503</v>
+      </c>
+      <c r="K57" s="12">
+        <f t="shared" si="5"/>
+        <v>142093.90894600251</v>
       </c>
     </row>
     <row r="58" spans="4:11" x14ac:dyDescent="0.25">
@@ -2631,23 +2817,23 @@
       </c>
       <c r="G58" s="5">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H58" s="9">
-        <f>IF(G58=$B$5+1,$B$6,IF(G58&gt;$B$5+1,H57*(1-$B$3),0))</f>
+        <v>9</v>
+      </c>
+      <c r="H58" s="5" t="b">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I58" s="9">
-        <f>IF(G58=1,H57,0)</f>
-        <v>6405.850805998366</v>
-      </c>
-      <c r="J58" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K58" s="14">
-        <f t="shared" si="4"/>
-        <v>57652.657253985293</v>
+        <f>IF(G58=1,$B$6,IF(H58,0,I57*$B$13))</f>
+        <v>4890.4570312176111</v>
+      </c>
+      <c r="J58" s="9">
+        <f t="shared" si="4"/>
+        <v>283401.98495906056</v>
+      </c>
+      <c r="K58" s="12">
+        <f t="shared" si="5"/>
+        <v>141700.99247953028</v>
       </c>
     </row>
     <row r="59" spans="4:11" x14ac:dyDescent="0.25">
@@ -2664,23 +2850,23 @@
       </c>
       <c r="G59" s="5">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="H59" s="9">
-        <f>IF(G59=$B$5+1,$B$6,IF(G59&gt;$B$5+1,H58*(1-$B$3),0))</f>
+        <v>10</v>
+      </c>
+      <c r="H59" s="5" t="b">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I59" s="9">
-        <f>IF(G59=1,H58,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J59" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K59" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>IF(G59=1,$B$6,IF(H59,0,I58*$B$13))</f>
+        <v>4876.9339948651486</v>
+      </c>
+      <c r="J59" s="9">
+        <f t="shared" si="4"/>
+        <v>282618.32500243536</v>
+      </c>
+      <c r="K59" s="12">
+        <f t="shared" si="5"/>
+        <v>141309.16250121768</v>
       </c>
     </row>
     <row r="60" spans="4:11" x14ac:dyDescent="0.25">
@@ -2697,23 +2883,23 @@
       </c>
       <c r="G60" s="5">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="H60" s="9">
-        <f>IF(G60=$B$5+1,$B$6,IF(G60&gt;$B$5+1,H59*(1-$B$3),0))</f>
-        <v>8000</v>
+        <v>11</v>
+      </c>
+      <c r="H60" s="5" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="I60" s="9">
-        <f>IF(G60=1,H59,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J60" s="13">
-        <f t="shared" si="3"/>
-        <v>16000</v>
-      </c>
-      <c r="K60" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>IF(G60=1,$B$6,IF(H60,0,I59*$B$13))</f>
+        <v>4863.4483522595328</v>
+      </c>
+      <c r="J60" s="9">
+        <f t="shared" si="4"/>
+        <v>281836.83201343991</v>
+      </c>
+      <c r="K60" s="12">
+        <f t="shared" si="5"/>
+        <v>140918.41600671996</v>
       </c>
     </row>
     <row r="61" spans="4:11" x14ac:dyDescent="0.25">
@@ -2730,23 +2916,23 @@
       </c>
       <c r="G61" s="5">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="H61" s="9">
-        <f>IF(G61=$B$5+1,$B$6,IF(G61&gt;$B$5+1,H60*(1-$B$3),0))</f>
-        <v>7840</v>
+        <v>12</v>
+      </c>
+      <c r="H61" s="5" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="I61" s="9">
-        <f>IF(G61=1,H60,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J61" s="13">
-        <f t="shared" si="3"/>
-        <v>15680</v>
-      </c>
-      <c r="K61" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>IF(G61=1,$B$6,IF(H61,0,I60*$B$13))</f>
+        <v>4849.9999999999991</v>
+      </c>
+      <c r="J61" s="9">
+        <f t="shared" si="4"/>
+        <v>281057.49999999994</v>
+      </c>
+      <c r="K61" s="12">
+        <f t="shared" si="5"/>
+        <v>140528.74999999997</v>
       </c>
     </row>
     <row r="62" spans="4:11" x14ac:dyDescent="0.25">
@@ -2763,23 +2949,23 @@
       </c>
       <c r="G62" s="5">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="H62" s="9">
-        <f>IF(G62=$B$5+1,$B$6,IF(G62&gt;$B$5+1,H61*(1-$B$3),0))</f>
-        <v>7683.2</v>
+        <v>13</v>
+      </c>
+      <c r="H62" s="5" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="I62" s="9">
-        <f>IF(G62=1,H61,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J62" s="13">
-        <f t="shared" si="3"/>
-        <v>15366.4</v>
-      </c>
-      <c r="K62" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>IF(G62=1,$B$6,IF(H62,0,I61*$B$13))</f>
+        <v>4836.5888349717052</v>
+      </c>
+      <c r="J62" s="9">
+        <f t="shared" si="4"/>
+        <v>280280.32298661029</v>
+      </c>
+      <c r="K62" s="12">
+        <f t="shared" si="5"/>
+        <v>140140.16149330515</v>
       </c>
     </row>
     <row r="63" spans="4:11" x14ac:dyDescent="0.25">
@@ -2796,23 +2982,23 @@
       </c>
       <c r="G63" s="5">
         <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="H63" s="9">
-        <f>IF(G63=$B$5+1,$B$6,IF(G63&gt;$B$5+1,H62*(1-$B$3),0))</f>
-        <v>7529.5360000000001</v>
+        <v>14</v>
+      </c>
+      <c r="H63" s="5" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="I63" s="9">
-        <f>IF(G63=1,H62,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J63" s="13">
-        <f t="shared" si="3"/>
-        <v>15059.072</v>
-      </c>
-      <c r="K63" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>IF(G63=1,$B$6,IF(H63,0,I62*$B$13))</f>
+        <v>4823.21475434494</v>
+      </c>
+      <c r="J63" s="9">
+        <f t="shared" si="4"/>
+        <v>279505.29501428927</v>
+      </c>
+      <c r="K63" s="12">
+        <f t="shared" si="5"/>
+        <v>139752.64750714463</v>
       </c>
     </row>
     <row r="64" spans="4:11" x14ac:dyDescent="0.25">
@@ -2829,22 +3015,22 @@
       </c>
       <c r="G64" s="5">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="H64" s="9">
-        <f>IF(G64=$B$5+1,$B$6,IF(G64&gt;$B$5+1,H63*(1-$B$3),0))</f>
-        <v>7378.9452799999999</v>
+        <v>15</v>
+      </c>
+      <c r="H64" s="5" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="I64" s="9">
-        <f>IF(G64=1,H63,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J64" s="13">
-        <f t="shared" si="3"/>
-        <v>14757.89056</v>
-      </c>
-      <c r="K64" s="14">
-        <f t="shared" si="4"/>
+        <f>IF(G64=1,$B$6,IF(H64,0,I63*$B$13))</f>
+        <v>0</v>
+      </c>
+      <c r="J64" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K64" s="12">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2862,22 +3048,22 @@
       </c>
       <c r="G65" s="5">
         <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="H65" s="9">
-        <f>IF(G65=$B$5+1,$B$6,IF(G65&gt;$B$5+1,H64*(1-$B$3),0))</f>
-        <v>7231.3663743999996</v>
+        <v>16</v>
+      </c>
+      <c r="H65" s="5" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="I65" s="9">
-        <f>IF(G65=1,H64,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J65" s="13">
-        <f t="shared" si="3"/>
-        <v>14462.732748799999</v>
-      </c>
-      <c r="K65" s="14">
-        <f t="shared" si="4"/>
+        <f>IF(G65=1,$B$6,IF(H65,0,I64*$B$13))</f>
+        <v>0</v>
+      </c>
+      <c r="J65" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K65" s="12">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2895,23 +3081,23 @@
       </c>
       <c r="G66" s="5">
         <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="H66" s="9">
-        <f>IF(G66=$B$5+1,$B$6,IF(G66&gt;$B$5+1,H65*(1-$B$3),0))</f>
-        <v>7086.7390469119991</v>
+        <v>1</v>
+      </c>
+      <c r="H66" s="5" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="I66" s="9">
-        <f>IF(G66=1,H65,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J66" s="13">
-        <f t="shared" si="3"/>
-        <v>14173.478093823998</v>
-      </c>
-      <c r="K66" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>IF(G66=1,$B$6,IF(H66,0,I65*$B$13))</f>
+        <v>5000</v>
+      </c>
+      <c r="J66" s="9">
+        <f t="shared" si="4"/>
+        <v>289750</v>
+      </c>
+      <c r="K66" s="12">
+        <f t="shared" si="5"/>
+        <v>144875</v>
       </c>
     </row>
     <row r="67" spans="4:11" x14ac:dyDescent="0.25">
@@ -2927,24 +3113,24 @@
         <v>5</v>
       </c>
       <c r="G67" s="5">
-        <f t="shared" ref="G67:G130" si="11">MOD(D67-1,$B$4)+1</f>
-        <v>10</v>
-      </c>
-      <c r="H67" s="9">
-        <f>IF(G67=$B$5+1,$B$6,IF(G67&gt;$B$5+1,H66*(1-$B$3),0))</f>
-        <v>6945.0042659737592</v>
+        <f t="shared" ref="G67:G130" si="11">MOD(D67-1,$B$4+$B$5)+1</f>
+        <v>2</v>
+      </c>
+      <c r="H67" s="5" t="b">
+        <f t="shared" ref="H67:H130" si="12">G67&gt;$B$4</f>
+        <v>0</v>
       </c>
       <c r="I67" s="9">
-        <f>IF(G67=1,H66,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J67" s="13">
-        <f t="shared" ref="J67:J130" si="12">H67*$B$7*$B$8</f>
-        <v>13890.008531947518</v>
-      </c>
-      <c r="K67" s="14">
-        <f t="shared" ref="K67:K130" si="13">I67*($B$9+$B$10)</f>
-        <v>0</v>
+        <f>IF(G67=1,$B$6,IF(H67,0,I66*$B$13))</f>
+        <v>4986.1740566718618</v>
+      </c>
+      <c r="J67" s="9">
+        <f t="shared" ref="J67:J130" si="13">I67*$B$7*30.5*(1-$B$11)</f>
+        <v>288948.78658413433</v>
+      </c>
+      <c r="K67" s="12">
+        <f t="shared" ref="K67:K130" si="14">J67*$B$8</f>
+        <v>144474.39329206717</v>
       </c>
     </row>
     <row r="68" spans="4:11" x14ac:dyDescent="0.25">
@@ -2961,23 +3147,23 @@
       </c>
       <c r="G68" s="5">
         <f t="shared" si="11"/>
-        <v>11</v>
-      </c>
-      <c r="H68" s="9">
-        <f>IF(G68=$B$5+1,$B$6,IF(G68&gt;$B$5+1,H67*(1-$B$3),0))</f>
-        <v>6806.1041806542835</v>
+        <v>3</v>
+      </c>
+      <c r="H68" s="5" t="b">
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="I68" s="9">
-        <f>IF(G68=1,H67,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J68" s="13">
-        <f t="shared" si="12"/>
-        <v>13612.208361308567</v>
-      </c>
-      <c r="K68" s="14">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f>IF(G68=1,$B$6,IF(H68,0,I67*$B$13))</f>
+        <v>4972.3863446855057</v>
+      </c>
+      <c r="J68" s="9">
+        <f t="shared" si="13"/>
+        <v>288149.78867452504</v>
+      </c>
+      <c r="K68" s="12">
+        <f t="shared" si="14"/>
+        <v>144074.89433726252</v>
       </c>
     </row>
     <row r="69" spans="4:11" x14ac:dyDescent="0.25">
@@ -2994,23 +3180,23 @@
       </c>
       <c r="G69" s="5">
         <f t="shared" si="11"/>
-        <v>12</v>
-      </c>
-      <c r="H69" s="9">
-        <f>IF(G69=$B$5+1,$B$6,IF(G69&gt;$B$5+1,H68*(1-$B$3),0))</f>
-        <v>6669.9820970411974</v>
+        <v>4</v>
+      </c>
+      <c r="H69" s="5" t="b">
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="I69" s="9">
-        <f>IF(G69=1,H68,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J69" s="13">
-        <f t="shared" si="12"/>
-        <v>13339.964194082395</v>
-      </c>
-      <c r="K69" s="14">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f>IF(G69=1,$B$6,IF(H69,0,I68*$B$13))</f>
+        <v>4958.6367583240599</v>
+      </c>
+      <c r="J69" s="9">
+        <f t="shared" si="13"/>
+        <v>287353.00014487922</v>
+      </c>
+      <c r="K69" s="12">
+        <f t="shared" si="14"/>
+        <v>143676.50007243961</v>
       </c>
     </row>
     <row r="70" spans="4:11" x14ac:dyDescent="0.25">
@@ -3027,23 +3213,23 @@
       </c>
       <c r="G70" s="5">
         <f t="shared" si="11"/>
-        <v>13</v>
-      </c>
-      <c r="H70" s="9">
-        <f>IF(G70=$B$5+1,$B$6,IF(G70&gt;$B$5+1,H69*(1-$B$3),0))</f>
-        <v>6536.5824551003734</v>
+        <v>5</v>
+      </c>
+      <c r="H70" s="5" t="b">
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="I70" s="9">
-        <f>IF(G70=1,H69,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J70" s="13">
-        <f t="shared" si="12"/>
-        <v>13073.164910200747</v>
-      </c>
-      <c r="K70" s="14">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f>IF(G70=1,$B$6,IF(H70,0,I69*$B$13))</f>
+        <v>4944.9251921629775</v>
+      </c>
+      <c r="J70" s="9">
+        <f t="shared" si="13"/>
+        <v>286558.41488584451</v>
+      </c>
+      <c r="K70" s="12">
+        <f t="shared" si="14"/>
+        <v>143279.20744292226</v>
       </c>
     </row>
     <row r="71" spans="4:11" x14ac:dyDescent="0.25">
@@ -3060,23 +3246,23 @@
       </c>
       <c r="G71" s="5">
         <f t="shared" si="11"/>
-        <v>14</v>
-      </c>
-      <c r="H71" s="9">
-        <f>IF(G71=$B$5+1,$B$6,IF(G71&gt;$B$5+1,H70*(1-$B$3),0))</f>
-        <v>6405.850805998366</v>
+        <v>6</v>
+      </c>
+      <c r="H71" s="5" t="b">
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="I71" s="9">
-        <f>IF(G71=1,H70,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J71" s="13">
-        <f t="shared" si="12"/>
-        <v>12811.701611996732</v>
-      </c>
-      <c r="K71" s="14">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f>IF(G71=1,$B$6,IF(H71,0,I70*$B$13))</f>
+        <v>4931.2515410692313</v>
+      </c>
+      <c r="J71" s="9">
+        <f t="shared" si="13"/>
+        <v>285766.02680496196</v>
+      </c>
+      <c r="K71" s="12">
+        <f t="shared" si="14"/>
+        <v>142883.01340248098</v>
       </c>
     </row>
     <row r="72" spans="4:11" x14ac:dyDescent="0.25">
@@ -3093,23 +3279,23 @@
       </c>
       <c r="G72" s="5">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="H72" s="9">
-        <f>IF(G72=$B$5+1,$B$6,IF(G72&gt;$B$5+1,H71*(1-$B$3),0))</f>
+        <v>7</v>
+      </c>
+      <c r="H72" s="5" t="b">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I72" s="9">
-        <f>IF(G72=1,H71,0)</f>
-        <v>6405.850805998366</v>
-      </c>
-      <c r="J72" s="13">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="K72" s="14">
-        <f t="shared" si="13"/>
-        <v>57652.657253985293</v>
+        <f>IF(G72=1,$B$6,IF(H72,0,I71*$B$13))</f>
+        <v>4917.6157002005075</v>
+      </c>
+      <c r="J72" s="9">
+        <f t="shared" si="13"/>
+        <v>284975.82982661936</v>
+      </c>
+      <c r="K72" s="12">
+        <f t="shared" si="14"/>
+        <v>142487.91491330968</v>
       </c>
     </row>
     <row r="73" spans="4:11" x14ac:dyDescent="0.25">
@@ -3126,23 +3312,23 @@
       </c>
       <c r="G73" s="5">
         <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="H73" s="9">
-        <f>IF(G73=$B$5+1,$B$6,IF(G73&gt;$B$5+1,H72*(1-$B$3),0))</f>
+        <v>8</v>
+      </c>
+      <c r="H73" s="5" t="b">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I73" s="9">
-        <f>IF(G73=1,H72,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J73" s="13">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="K73" s="14">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f>IF(G73=1,$B$6,IF(H73,0,I72*$B$13))</f>
+        <v>4904.0175650044002</v>
+      </c>
+      <c r="J73" s="9">
+        <f t="shared" si="13"/>
+        <v>284187.81789200503</v>
+      </c>
+      <c r="K73" s="12">
+        <f t="shared" si="14"/>
+        <v>142093.90894600251</v>
       </c>
     </row>
     <row r="74" spans="4:11" x14ac:dyDescent="0.25">
@@ -3159,23 +3345,23 @@
       </c>
       <c r="G74" s="5">
         <f t="shared" si="11"/>
-        <v>3</v>
-      </c>
-      <c r="H74" s="9">
-        <f>IF(G74=$B$5+1,$B$6,IF(G74&gt;$B$5+1,H73*(1-$B$3),0))</f>
-        <v>8000</v>
+        <v>9</v>
+      </c>
+      <c r="H74" s="5" t="b">
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="I74" s="9">
-        <f>IF(G74=1,H73,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J74" s="13">
-        <f t="shared" si="12"/>
-        <v>16000</v>
-      </c>
-      <c r="K74" s="14">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f>IF(G74=1,$B$6,IF(H74,0,I73*$B$13))</f>
+        <v>4890.4570312176111</v>
+      </c>
+      <c r="J74" s="9">
+        <f t="shared" si="13"/>
+        <v>283401.98495906056</v>
+      </c>
+      <c r="K74" s="12">
+        <f t="shared" si="14"/>
+        <v>141700.99247953028</v>
       </c>
     </row>
     <row r="75" spans="4:11" x14ac:dyDescent="0.25">
@@ -3192,23 +3378,23 @@
       </c>
       <c r="G75" s="5">
         <f t="shared" si="11"/>
-        <v>4</v>
-      </c>
-      <c r="H75" s="9">
-        <f>IF(G75=$B$5+1,$B$6,IF(G75&gt;$B$5+1,H74*(1-$B$3),0))</f>
-        <v>7840</v>
+        <v>10</v>
+      </c>
+      <c r="H75" s="5" t="b">
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="I75" s="9">
-        <f>IF(G75=1,H74,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J75" s="13">
-        <f t="shared" si="12"/>
-        <v>15680</v>
-      </c>
-      <c r="K75" s="14">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f>IF(G75=1,$B$6,IF(H75,0,I74*$B$13))</f>
+        <v>4876.9339948651486</v>
+      </c>
+      <c r="J75" s="9">
+        <f t="shared" si="13"/>
+        <v>282618.32500243536</v>
+      </c>
+      <c r="K75" s="12">
+        <f t="shared" si="14"/>
+        <v>141309.16250121768</v>
       </c>
     </row>
     <row r="76" spans="4:11" x14ac:dyDescent="0.25">
@@ -3225,23 +3411,23 @@
       </c>
       <c r="G76" s="5">
         <f t="shared" si="11"/>
-        <v>5</v>
-      </c>
-      <c r="H76" s="9">
-        <f>IF(G76=$B$5+1,$B$6,IF(G76&gt;$B$5+1,H75*(1-$B$3),0))</f>
-        <v>7683.2</v>
+        <v>11</v>
+      </c>
+      <c r="H76" s="5" t="b">
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="I76" s="9">
-        <f>IF(G76=1,H75,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J76" s="13">
-        <f t="shared" si="12"/>
-        <v>15366.4</v>
-      </c>
-      <c r="K76" s="14">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f>IF(G76=1,$B$6,IF(H76,0,I75*$B$13))</f>
+        <v>4863.4483522595328</v>
+      </c>
+      <c r="J76" s="9">
+        <f t="shared" si="13"/>
+        <v>281836.83201343991</v>
+      </c>
+      <c r="K76" s="12">
+        <f t="shared" si="14"/>
+        <v>140918.41600671996</v>
       </c>
     </row>
     <row r="77" spans="4:11" x14ac:dyDescent="0.25">
@@ -3258,23 +3444,23 @@
       </c>
       <c r="G77" s="5">
         <f t="shared" si="11"/>
-        <v>6</v>
-      </c>
-      <c r="H77" s="9">
-        <f>IF(G77=$B$5+1,$B$6,IF(G77&gt;$B$5+1,H76*(1-$B$3),0))</f>
-        <v>7529.5360000000001</v>
+        <v>12</v>
+      </c>
+      <c r="H77" s="5" t="b">
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="I77" s="9">
-        <f>IF(G77=1,H76,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J77" s="13">
-        <f t="shared" si="12"/>
-        <v>15059.072</v>
-      </c>
-      <c r="K77" s="14">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f>IF(G77=1,$B$6,IF(H77,0,I76*$B$13))</f>
+        <v>4849.9999999999991</v>
+      </c>
+      <c r="J77" s="9">
+        <f t="shared" si="13"/>
+        <v>281057.49999999994</v>
+      </c>
+      <c r="K77" s="12">
+        <f t="shared" si="14"/>
+        <v>140528.74999999997</v>
       </c>
     </row>
     <row r="78" spans="4:11" x14ac:dyDescent="0.25">
@@ -3291,23 +3477,23 @@
       </c>
       <c r="G78" s="5">
         <f t="shared" si="11"/>
-        <v>7</v>
-      </c>
-      <c r="H78" s="9">
-        <f>IF(G78=$B$5+1,$B$6,IF(G78&gt;$B$5+1,H77*(1-$B$3),0))</f>
-        <v>7378.9452799999999</v>
+        <v>13</v>
+      </c>
+      <c r="H78" s="5" t="b">
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="I78" s="9">
-        <f>IF(G78=1,H77,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J78" s="13">
-        <f t="shared" si="12"/>
-        <v>14757.89056</v>
-      </c>
-      <c r="K78" s="14">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f>IF(G78=1,$B$6,IF(H78,0,I77*$B$13))</f>
+        <v>4836.5888349717052</v>
+      </c>
+      <c r="J78" s="9">
+        <f t="shared" si="13"/>
+        <v>280280.32298661029</v>
+      </c>
+      <c r="K78" s="12">
+        <f t="shared" si="14"/>
+        <v>140140.16149330515</v>
       </c>
     </row>
     <row r="79" spans="4:11" x14ac:dyDescent="0.25">
@@ -3324,23 +3510,23 @@
       </c>
       <c r="G79" s="5">
         <f t="shared" si="11"/>
-        <v>8</v>
-      </c>
-      <c r="H79" s="9">
-        <f>IF(G79=$B$5+1,$B$6,IF(G79&gt;$B$5+1,H78*(1-$B$3),0))</f>
-        <v>7231.3663743999996</v>
+        <v>14</v>
+      </c>
+      <c r="H79" s="5" t="b">
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="I79" s="9">
-        <f>IF(G79=1,H78,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J79" s="13">
-        <f t="shared" si="12"/>
-        <v>14462.732748799999</v>
-      </c>
-      <c r="K79" s="14">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f>IF(G79=1,$B$6,IF(H79,0,I78*$B$13))</f>
+        <v>4823.21475434494</v>
+      </c>
+      <c r="J79" s="9">
+        <f t="shared" si="13"/>
+        <v>279505.29501428927</v>
+      </c>
+      <c r="K79" s="12">
+        <f t="shared" si="14"/>
+        <v>139752.64750714463</v>
       </c>
     </row>
     <row r="80" spans="4:11" x14ac:dyDescent="0.25">
@@ -3357,22 +3543,22 @@
       </c>
       <c r="G80" s="5">
         <f t="shared" si="11"/>
-        <v>9</v>
-      </c>
-      <c r="H80" s="9">
-        <f>IF(G80=$B$5+1,$B$6,IF(G80&gt;$B$5+1,H79*(1-$B$3),0))</f>
-        <v>7086.7390469119991</v>
+        <v>15</v>
+      </c>
+      <c r="H80" s="5" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
       </c>
       <c r="I80" s="9">
-        <f>IF(G80=1,H79,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J80" s="13">
-        <f t="shared" si="12"/>
-        <v>14173.478093823998</v>
-      </c>
-      <c r="K80" s="14">
-        <f t="shared" si="13"/>
+        <f>IF(G80=1,$B$6,IF(H80,0,I79*$B$13))</f>
+        <v>0</v>
+      </c>
+      <c r="J80" s="9">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K80" s="12">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -3390,22 +3576,22 @@
       </c>
       <c r="G81" s="5">
         <f t="shared" si="11"/>
-        <v>10</v>
-      </c>
-      <c r="H81" s="9">
-        <f>IF(G81=$B$5+1,$B$6,IF(G81&gt;$B$5+1,H80*(1-$B$3),0))</f>
-        <v>6945.0042659737592</v>
+        <v>16</v>
+      </c>
+      <c r="H81" s="5" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
       </c>
       <c r="I81" s="9">
-        <f>IF(G81=1,H80,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J81" s="13">
-        <f t="shared" si="12"/>
-        <v>13890.008531947518</v>
-      </c>
-      <c r="K81" s="14">
-        <f t="shared" si="13"/>
+        <f>IF(G81=1,$B$6,IF(H81,0,I80*$B$13))</f>
+        <v>0</v>
+      </c>
+      <c r="J81" s="9">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K81" s="12">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -3423,23 +3609,23 @@
       </c>
       <c r="G82" s="5">
         <f t="shared" si="11"/>
-        <v>11</v>
-      </c>
-      <c r="H82" s="9">
-        <f>IF(G82=$B$5+1,$B$6,IF(G82&gt;$B$5+1,H81*(1-$B$3),0))</f>
-        <v>6806.1041806542835</v>
+        <v>1</v>
+      </c>
+      <c r="H82" s="5" t="b">
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="I82" s="9">
-        <f>IF(G82=1,H81,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J82" s="13">
-        <f t="shared" si="12"/>
-        <v>13612.208361308567</v>
-      </c>
-      <c r="K82" s="14">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f>IF(G82=1,$B$6,IF(H82,0,I81*$B$13))</f>
+        <v>5000</v>
+      </c>
+      <c r="J82" s="9">
+        <f t="shared" si="13"/>
+        <v>289750</v>
+      </c>
+      <c r="K82" s="12">
+        <f t="shared" si="14"/>
+        <v>144875</v>
       </c>
     </row>
     <row r="83" spans="4:11" x14ac:dyDescent="0.25">
@@ -3456,23 +3642,23 @@
       </c>
       <c r="G83" s="5">
         <f t="shared" si="11"/>
-        <v>12</v>
-      </c>
-      <c r="H83" s="9">
-        <f>IF(G83=$B$5+1,$B$6,IF(G83&gt;$B$5+1,H82*(1-$B$3),0))</f>
-        <v>6669.9820970411974</v>
+        <v>2</v>
+      </c>
+      <c r="H83" s="5" t="b">
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="I83" s="9">
-        <f>IF(G83=1,H82,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J83" s="13">
-        <f t="shared" si="12"/>
-        <v>13339.964194082395</v>
-      </c>
-      <c r="K83" s="14">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f>IF(G83=1,$B$6,IF(H83,0,I82*$B$13))</f>
+        <v>4986.1740566718618</v>
+      </c>
+      <c r="J83" s="9">
+        <f t="shared" si="13"/>
+        <v>288948.78658413433</v>
+      </c>
+      <c r="K83" s="12">
+        <f t="shared" si="14"/>
+        <v>144474.39329206717</v>
       </c>
     </row>
     <row r="84" spans="4:11" x14ac:dyDescent="0.25">
@@ -3489,23 +3675,23 @@
       </c>
       <c r="G84" s="5">
         <f t="shared" si="11"/>
-        <v>13</v>
-      </c>
-      <c r="H84" s="9">
-        <f>IF(G84=$B$5+1,$B$6,IF(G84&gt;$B$5+1,H83*(1-$B$3),0))</f>
-        <v>6536.5824551003734</v>
+        <v>3</v>
+      </c>
+      <c r="H84" s="5" t="b">
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="I84" s="9">
-        <f>IF(G84=1,H83,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J84" s="13">
-        <f t="shared" si="12"/>
-        <v>13073.164910200747</v>
-      </c>
-      <c r="K84" s="14">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f>IF(G84=1,$B$6,IF(H84,0,I83*$B$13))</f>
+        <v>4972.3863446855057</v>
+      </c>
+      <c r="J84" s="9">
+        <f t="shared" si="13"/>
+        <v>288149.78867452504</v>
+      </c>
+      <c r="K84" s="12">
+        <f t="shared" si="14"/>
+        <v>144074.89433726252</v>
       </c>
     </row>
     <row r="85" spans="4:11" x14ac:dyDescent="0.25">
@@ -3522,23 +3708,23 @@
       </c>
       <c r="G85" s="5">
         <f t="shared" si="11"/>
-        <v>14</v>
-      </c>
-      <c r="H85" s="9">
-        <f>IF(G85=$B$5+1,$B$6,IF(G85&gt;$B$5+1,H84*(1-$B$3),0))</f>
-        <v>6405.850805998366</v>
+        <v>4</v>
+      </c>
+      <c r="H85" s="5" t="b">
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="I85" s="9">
-        <f>IF(G85=1,H84,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J85" s="13">
-        <f t="shared" si="12"/>
-        <v>12811.701611996732</v>
-      </c>
-      <c r="K85" s="14">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f>IF(G85=1,$B$6,IF(H85,0,I84*$B$13))</f>
+        <v>4958.6367583240599</v>
+      </c>
+      <c r="J85" s="9">
+        <f t="shared" si="13"/>
+        <v>287353.00014487922</v>
+      </c>
+      <c r="K85" s="12">
+        <f t="shared" si="14"/>
+        <v>143676.50007243961</v>
       </c>
     </row>
     <row r="86" spans="4:11" x14ac:dyDescent="0.25">
@@ -3555,23 +3741,23 @@
       </c>
       <c r="G86" s="5">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="H86" s="9">
-        <f>IF(G86=$B$5+1,$B$6,IF(G86&gt;$B$5+1,H85*(1-$B$3),0))</f>
+        <v>5</v>
+      </c>
+      <c r="H86" s="5" t="b">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I86" s="9">
-        <f>IF(G86=1,H85,0)</f>
-        <v>6405.850805998366</v>
-      </c>
-      <c r="J86" s="13">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="K86" s="14">
-        <f t="shared" si="13"/>
-        <v>57652.657253985293</v>
+        <f>IF(G86=1,$B$6,IF(H86,0,I85*$B$13))</f>
+        <v>4944.9251921629775</v>
+      </c>
+      <c r="J86" s="9">
+        <f t="shared" si="13"/>
+        <v>286558.41488584451</v>
+      </c>
+      <c r="K86" s="12">
+        <f t="shared" si="14"/>
+        <v>143279.20744292226</v>
       </c>
     </row>
     <row r="87" spans="4:11" x14ac:dyDescent="0.25">
@@ -3588,23 +3774,23 @@
       </c>
       <c r="G87" s="5">
         <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="H87" s="9">
-        <f>IF(G87=$B$5+1,$B$6,IF(G87&gt;$B$5+1,H86*(1-$B$3),0))</f>
+        <v>6</v>
+      </c>
+      <c r="H87" s="5" t="b">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I87" s="9">
-        <f>IF(G87=1,H86,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J87" s="13">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="K87" s="14">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f>IF(G87=1,$B$6,IF(H87,0,I86*$B$13))</f>
+        <v>4931.2515410692313</v>
+      </c>
+      <c r="J87" s="9">
+        <f t="shared" si="13"/>
+        <v>285766.02680496196</v>
+      </c>
+      <c r="K87" s="12">
+        <f t="shared" si="14"/>
+        <v>142883.01340248098</v>
       </c>
     </row>
     <row r="88" spans="4:11" x14ac:dyDescent="0.25">
@@ -3621,23 +3807,23 @@
       </c>
       <c r="G88" s="5">
         <f t="shared" si="11"/>
-        <v>3</v>
-      </c>
-      <c r="H88" s="9">
-        <f>IF(G88=$B$5+1,$B$6,IF(G88&gt;$B$5+1,H87*(1-$B$3),0))</f>
-        <v>8000</v>
+        <v>7</v>
+      </c>
+      <c r="H88" s="5" t="b">
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="I88" s="9">
-        <f>IF(G88=1,H87,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J88" s="13">
-        <f t="shared" si="12"/>
-        <v>16000</v>
-      </c>
-      <c r="K88" s="14">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f>IF(G88=1,$B$6,IF(H88,0,I87*$B$13))</f>
+        <v>4917.6157002005075</v>
+      </c>
+      <c r="J88" s="9">
+        <f t="shared" si="13"/>
+        <v>284975.82982661936</v>
+      </c>
+      <c r="K88" s="12">
+        <f t="shared" si="14"/>
+        <v>142487.91491330968</v>
       </c>
     </row>
     <row r="89" spans="4:11" x14ac:dyDescent="0.25">
@@ -3654,23 +3840,23 @@
       </c>
       <c r="G89" s="5">
         <f t="shared" si="11"/>
-        <v>4</v>
-      </c>
-      <c r="H89" s="9">
-        <f>IF(G89=$B$5+1,$B$6,IF(G89&gt;$B$5+1,H88*(1-$B$3),0))</f>
-        <v>7840</v>
+        <v>8</v>
+      </c>
+      <c r="H89" s="5" t="b">
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="I89" s="9">
-        <f>IF(G89=1,H88,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J89" s="13">
-        <f t="shared" si="12"/>
-        <v>15680</v>
-      </c>
-      <c r="K89" s="14">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f>IF(G89=1,$B$6,IF(H89,0,I88*$B$13))</f>
+        <v>4904.0175650044002</v>
+      </c>
+      <c r="J89" s="9">
+        <f t="shared" si="13"/>
+        <v>284187.81789200503</v>
+      </c>
+      <c r="K89" s="12">
+        <f t="shared" si="14"/>
+        <v>142093.90894600251</v>
       </c>
     </row>
     <row r="90" spans="4:11" x14ac:dyDescent="0.25">
@@ -3687,23 +3873,23 @@
       </c>
       <c r="G90" s="5">
         <f t="shared" si="11"/>
-        <v>5</v>
-      </c>
-      <c r="H90" s="9">
-        <f>IF(G90=$B$5+1,$B$6,IF(G90&gt;$B$5+1,H89*(1-$B$3),0))</f>
-        <v>7683.2</v>
+        <v>9</v>
+      </c>
+      <c r="H90" s="5" t="b">
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="I90" s="9">
-        <f>IF(G90=1,H89,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J90" s="13">
-        <f t="shared" si="12"/>
-        <v>15366.4</v>
-      </c>
-      <c r="K90" s="14">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f>IF(G90=1,$B$6,IF(H90,0,I89*$B$13))</f>
+        <v>4890.4570312176111</v>
+      </c>
+      <c r="J90" s="9">
+        <f t="shared" si="13"/>
+        <v>283401.98495906056</v>
+      </c>
+      <c r="K90" s="12">
+        <f t="shared" si="14"/>
+        <v>141700.99247953028</v>
       </c>
     </row>
     <row r="91" spans="4:11" x14ac:dyDescent="0.25">
@@ -3720,23 +3906,23 @@
       </c>
       <c r="G91" s="5">
         <f t="shared" si="11"/>
-        <v>6</v>
-      </c>
-      <c r="H91" s="9">
-        <f>IF(G91=$B$5+1,$B$6,IF(G91&gt;$B$5+1,H90*(1-$B$3),0))</f>
-        <v>7529.5360000000001</v>
+        <v>10</v>
+      </c>
+      <c r="H91" s="5" t="b">
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="I91" s="9">
-        <f>IF(G91=1,H90,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J91" s="13">
-        <f t="shared" si="12"/>
-        <v>15059.072</v>
-      </c>
-      <c r="K91" s="14">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f>IF(G91=1,$B$6,IF(H91,0,I90*$B$13))</f>
+        <v>4876.9339948651486</v>
+      </c>
+      <c r="J91" s="9">
+        <f t="shared" si="13"/>
+        <v>282618.32500243536</v>
+      </c>
+      <c r="K91" s="12">
+        <f t="shared" si="14"/>
+        <v>141309.16250121768</v>
       </c>
     </row>
     <row r="92" spans="4:11" x14ac:dyDescent="0.25">
@@ -3753,23 +3939,23 @@
       </c>
       <c r="G92" s="5">
         <f t="shared" si="11"/>
-        <v>7</v>
-      </c>
-      <c r="H92" s="9">
-        <f>IF(G92=$B$5+1,$B$6,IF(G92&gt;$B$5+1,H91*(1-$B$3),0))</f>
-        <v>7378.9452799999999</v>
+        <v>11</v>
+      </c>
+      <c r="H92" s="5" t="b">
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="I92" s="9">
-        <f>IF(G92=1,H91,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J92" s="13">
-        <f t="shared" si="12"/>
-        <v>14757.89056</v>
-      </c>
-      <c r="K92" s="14">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f>IF(G92=1,$B$6,IF(H92,0,I91*$B$13))</f>
+        <v>4863.4483522595328</v>
+      </c>
+      <c r="J92" s="9">
+        <f t="shared" si="13"/>
+        <v>281836.83201343991</v>
+      </c>
+      <c r="K92" s="12">
+        <f t="shared" si="14"/>
+        <v>140918.41600671996</v>
       </c>
     </row>
     <row r="93" spans="4:11" x14ac:dyDescent="0.25">
@@ -3786,23 +3972,23 @@
       </c>
       <c r="G93" s="5">
         <f t="shared" si="11"/>
-        <v>8</v>
-      </c>
-      <c r="H93" s="9">
-        <f>IF(G93=$B$5+1,$B$6,IF(G93&gt;$B$5+1,H92*(1-$B$3),0))</f>
-        <v>7231.3663743999996</v>
+        <v>12</v>
+      </c>
+      <c r="H93" s="5" t="b">
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="I93" s="9">
-        <f>IF(G93=1,H92,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J93" s="13">
-        <f t="shared" si="12"/>
-        <v>14462.732748799999</v>
-      </c>
-      <c r="K93" s="14">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f>IF(G93=1,$B$6,IF(H93,0,I92*$B$13))</f>
+        <v>4849.9999999999991</v>
+      </c>
+      <c r="J93" s="9">
+        <f t="shared" si="13"/>
+        <v>281057.49999999994</v>
+      </c>
+      <c r="K93" s="12">
+        <f t="shared" si="14"/>
+        <v>140528.74999999997</v>
       </c>
     </row>
     <row r="94" spans="4:11" x14ac:dyDescent="0.25">
@@ -3819,23 +4005,23 @@
       </c>
       <c r="G94" s="5">
         <f t="shared" si="11"/>
-        <v>9</v>
-      </c>
-      <c r="H94" s="9">
-        <f>IF(G94=$B$5+1,$B$6,IF(G94&gt;$B$5+1,H93*(1-$B$3),0))</f>
-        <v>7086.7390469119991</v>
+        <v>13</v>
+      </c>
+      <c r="H94" s="5" t="b">
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="I94" s="9">
-        <f>IF(G94=1,H93,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J94" s="13">
-        <f t="shared" si="12"/>
-        <v>14173.478093823998</v>
-      </c>
-      <c r="K94" s="14">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f>IF(G94=1,$B$6,IF(H94,0,I93*$B$13))</f>
+        <v>4836.5888349717052</v>
+      </c>
+      <c r="J94" s="9">
+        <f t="shared" si="13"/>
+        <v>280280.32298661029</v>
+      </c>
+      <c r="K94" s="12">
+        <f t="shared" si="14"/>
+        <v>140140.16149330515</v>
       </c>
     </row>
     <row r="95" spans="4:11" x14ac:dyDescent="0.25">
@@ -3852,23 +4038,23 @@
       </c>
       <c r="G95" s="5">
         <f t="shared" si="11"/>
-        <v>10</v>
-      </c>
-      <c r="H95" s="9">
-        <f>IF(G95=$B$5+1,$B$6,IF(G95&gt;$B$5+1,H94*(1-$B$3),0))</f>
-        <v>6945.0042659737592</v>
+        <v>14</v>
+      </c>
+      <c r="H95" s="5" t="b">
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="I95" s="9">
-        <f>IF(G95=1,H94,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J95" s="13">
-        <f t="shared" si="12"/>
-        <v>13890.008531947518</v>
-      </c>
-      <c r="K95" s="14">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f>IF(G95=1,$B$6,IF(H95,0,I94*$B$13))</f>
+        <v>4823.21475434494</v>
+      </c>
+      <c r="J95" s="9">
+        <f t="shared" si="13"/>
+        <v>279505.29501428927</v>
+      </c>
+      <c r="K95" s="12">
+        <f t="shared" si="14"/>
+        <v>139752.64750714463</v>
       </c>
     </row>
     <row r="96" spans="4:11" x14ac:dyDescent="0.25">
@@ -3885,22 +4071,22 @@
       </c>
       <c r="G96" s="5">
         <f t="shared" si="11"/>
-        <v>11</v>
-      </c>
-      <c r="H96" s="9">
-        <f>IF(G96=$B$5+1,$B$6,IF(G96&gt;$B$5+1,H95*(1-$B$3),0))</f>
-        <v>6806.1041806542835</v>
+        <v>15</v>
+      </c>
+      <c r="H96" s="5" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
       </c>
       <c r="I96" s="9">
-        <f>IF(G96=1,H95,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J96" s="13">
-        <f t="shared" si="12"/>
-        <v>13612.208361308567</v>
-      </c>
-      <c r="K96" s="14">
-        <f t="shared" si="13"/>
+        <f>IF(G96=1,$B$6,IF(H96,0,I95*$B$13))</f>
+        <v>0</v>
+      </c>
+      <c r="J96" s="9">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K96" s="12">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -3918,22 +4104,22 @@
       </c>
       <c r="G97" s="5">
         <f t="shared" si="11"/>
-        <v>12</v>
-      </c>
-      <c r="H97" s="9">
-        <f>IF(G97=$B$5+1,$B$6,IF(G97&gt;$B$5+1,H96*(1-$B$3),0))</f>
-        <v>6669.9820970411974</v>
+        <v>16</v>
+      </c>
+      <c r="H97" s="5" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
       </c>
       <c r="I97" s="9">
-        <f>IF(G97=1,H96,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J97" s="13">
-        <f t="shared" si="12"/>
-        <v>13339.964194082395</v>
-      </c>
-      <c r="K97" s="14">
-        <f t="shared" si="13"/>
+        <f>IF(G97=1,$B$6,IF(H97,0,I96*$B$13))</f>
+        <v>0</v>
+      </c>
+      <c r="J97" s="9">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K97" s="12">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -3951,23 +4137,23 @@
       </c>
       <c r="G98" s="5">
         <f t="shared" si="11"/>
-        <v>13</v>
-      </c>
-      <c r="H98" s="9">
-        <f>IF(G98=$B$5+1,$B$6,IF(G98&gt;$B$5+1,H97*(1-$B$3),0))</f>
-        <v>6536.5824551003734</v>
+        <v>1</v>
+      </c>
+      <c r="H98" s="5" t="b">
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="I98" s="9">
-        <f>IF(G98=1,H97,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J98" s="13">
-        <f t="shared" si="12"/>
-        <v>13073.164910200747</v>
-      </c>
-      <c r="K98" s="14">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f>IF(G98=1,$B$6,IF(H98,0,I97*$B$13))</f>
+        <v>5000</v>
+      </c>
+      <c r="J98" s="9">
+        <f t="shared" si="13"/>
+        <v>289750</v>
+      </c>
+      <c r="K98" s="12">
+        <f t="shared" si="14"/>
+        <v>144875</v>
       </c>
     </row>
     <row r="99" spans="4:11" x14ac:dyDescent="0.25">
@@ -3984,23 +4170,23 @@
       </c>
       <c r="G99" s="5">
         <f t="shared" si="11"/>
-        <v>14</v>
-      </c>
-      <c r="H99" s="9">
-        <f>IF(G99=$B$5+1,$B$6,IF(G99&gt;$B$5+1,H98*(1-$B$3),0))</f>
-        <v>6405.850805998366</v>
+        <v>2</v>
+      </c>
+      <c r="H99" s="5" t="b">
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="I99" s="9">
-        <f>IF(G99=1,H98,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J99" s="13">
-        <f t="shared" si="12"/>
-        <v>12811.701611996732</v>
-      </c>
-      <c r="K99" s="14">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f>IF(G99=1,$B$6,IF(H99,0,I98*$B$13))</f>
+        <v>4986.1740566718618</v>
+      </c>
+      <c r="J99" s="9">
+        <f t="shared" si="13"/>
+        <v>288948.78658413433</v>
+      </c>
+      <c r="K99" s="12">
+        <f t="shared" si="14"/>
+        <v>144474.39329206717</v>
       </c>
     </row>
     <row r="100" spans="4:11" x14ac:dyDescent="0.25">
@@ -4017,23 +4203,23 @@
       </c>
       <c r="G100" s="5">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="H100" s="9">
-        <f>IF(G100=$B$5+1,$B$6,IF(G100&gt;$B$5+1,H99*(1-$B$3),0))</f>
+        <v>3</v>
+      </c>
+      <c r="H100" s="5" t="b">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I100" s="9">
-        <f>IF(G100=1,H99,0)</f>
-        <v>6405.850805998366</v>
-      </c>
-      <c r="J100" s="13">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="K100" s="14">
-        <f t="shared" si="13"/>
-        <v>57652.657253985293</v>
+        <f>IF(G100=1,$B$6,IF(H100,0,I99*$B$13))</f>
+        <v>4972.3863446855057</v>
+      </c>
+      <c r="J100" s="9">
+        <f t="shared" si="13"/>
+        <v>288149.78867452504</v>
+      </c>
+      <c r="K100" s="12">
+        <f t="shared" si="14"/>
+        <v>144074.89433726252</v>
       </c>
     </row>
     <row r="101" spans="4:11" x14ac:dyDescent="0.25">
@@ -4050,23 +4236,23 @@
       </c>
       <c r="G101" s="5">
         <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="H101" s="9">
-        <f>IF(G101=$B$5+1,$B$6,IF(G101&gt;$B$5+1,H100*(1-$B$3),0))</f>
+        <v>4</v>
+      </c>
+      <c r="H101" s="5" t="b">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I101" s="9">
-        <f>IF(G101=1,H100,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J101" s="13">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="K101" s="14">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f>IF(G101=1,$B$6,IF(H101,0,I100*$B$13))</f>
+        <v>4958.6367583240599</v>
+      </c>
+      <c r="J101" s="9">
+        <f t="shared" si="13"/>
+        <v>287353.00014487922</v>
+      </c>
+      <c r="K101" s="12">
+        <f t="shared" si="14"/>
+        <v>143676.50007243961</v>
       </c>
     </row>
     <row r="102" spans="4:11" x14ac:dyDescent="0.25">
@@ -4083,23 +4269,23 @@
       </c>
       <c r="G102" s="5">
         <f t="shared" si="11"/>
-        <v>3</v>
-      </c>
-      <c r="H102" s="9">
-        <f>IF(G102=$B$5+1,$B$6,IF(G102&gt;$B$5+1,H101*(1-$B$3),0))</f>
-        <v>8000</v>
+        <v>5</v>
+      </c>
+      <c r="H102" s="5" t="b">
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="I102" s="9">
-        <f>IF(G102=1,H101,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J102" s="13">
-        <f t="shared" si="12"/>
-        <v>16000</v>
-      </c>
-      <c r="K102" s="14">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f>IF(G102=1,$B$6,IF(H102,0,I101*$B$13))</f>
+        <v>4944.9251921629775</v>
+      </c>
+      <c r="J102" s="9">
+        <f t="shared" si="13"/>
+        <v>286558.41488584451</v>
+      </c>
+      <c r="K102" s="12">
+        <f t="shared" si="14"/>
+        <v>143279.20744292226</v>
       </c>
     </row>
     <row r="103" spans="4:11" x14ac:dyDescent="0.25">
@@ -4116,23 +4302,23 @@
       </c>
       <c r="G103" s="5">
         <f t="shared" si="11"/>
-        <v>4</v>
-      </c>
-      <c r="H103" s="9">
-        <f>IF(G103=$B$5+1,$B$6,IF(G103&gt;$B$5+1,H102*(1-$B$3),0))</f>
-        <v>7840</v>
+        <v>6</v>
+      </c>
+      <c r="H103" s="5" t="b">
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="I103" s="9">
-        <f>IF(G103=1,H102,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J103" s="13">
-        <f t="shared" si="12"/>
-        <v>15680</v>
-      </c>
-      <c r="K103" s="14">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f>IF(G103=1,$B$6,IF(H103,0,I102*$B$13))</f>
+        <v>4931.2515410692313</v>
+      </c>
+      <c r="J103" s="9">
+        <f t="shared" si="13"/>
+        <v>285766.02680496196</v>
+      </c>
+      <c r="K103" s="12">
+        <f t="shared" si="14"/>
+        <v>142883.01340248098</v>
       </c>
     </row>
     <row r="104" spans="4:11" x14ac:dyDescent="0.25">
@@ -4149,23 +4335,23 @@
       </c>
       <c r="G104" s="5">
         <f t="shared" si="11"/>
-        <v>5</v>
-      </c>
-      <c r="H104" s="9">
-        <f>IF(G104=$B$5+1,$B$6,IF(G104&gt;$B$5+1,H103*(1-$B$3),0))</f>
-        <v>7683.2</v>
+        <v>7</v>
+      </c>
+      <c r="H104" s="5" t="b">
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="I104" s="9">
-        <f>IF(G104=1,H103,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J104" s="13">
-        <f t="shared" si="12"/>
-        <v>15366.4</v>
-      </c>
-      <c r="K104" s="14">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f>IF(G104=1,$B$6,IF(H104,0,I103*$B$13))</f>
+        <v>4917.6157002005075</v>
+      </c>
+      <c r="J104" s="9">
+        <f t="shared" si="13"/>
+        <v>284975.82982661936</v>
+      </c>
+      <c r="K104" s="12">
+        <f t="shared" si="14"/>
+        <v>142487.91491330968</v>
       </c>
     </row>
     <row r="105" spans="4:11" x14ac:dyDescent="0.25">
@@ -4182,23 +4368,23 @@
       </c>
       <c r="G105" s="5">
         <f t="shared" si="11"/>
-        <v>6</v>
-      </c>
-      <c r="H105" s="9">
-        <f>IF(G105=$B$5+1,$B$6,IF(G105&gt;$B$5+1,H104*(1-$B$3),0))</f>
-        <v>7529.5360000000001</v>
+        <v>8</v>
+      </c>
+      <c r="H105" s="5" t="b">
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="I105" s="9">
-        <f>IF(G105=1,H104,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J105" s="13">
-        <f t="shared" si="12"/>
-        <v>15059.072</v>
-      </c>
-      <c r="K105" s="14">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f>IF(G105=1,$B$6,IF(H105,0,I104*$B$13))</f>
+        <v>4904.0175650044002</v>
+      </c>
+      <c r="J105" s="9">
+        <f t="shared" si="13"/>
+        <v>284187.81789200503</v>
+      </c>
+      <c r="K105" s="12">
+        <f t="shared" si="14"/>
+        <v>142093.90894600251</v>
       </c>
     </row>
     <row r="106" spans="4:11" x14ac:dyDescent="0.25">
@@ -4215,23 +4401,23 @@
       </c>
       <c r="G106" s="5">
         <f t="shared" si="11"/>
-        <v>7</v>
-      </c>
-      <c r="H106" s="9">
-        <f>IF(G106=$B$5+1,$B$6,IF(G106&gt;$B$5+1,H105*(1-$B$3),0))</f>
-        <v>7378.9452799999999</v>
+        <v>9</v>
+      </c>
+      <c r="H106" s="5" t="b">
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="I106" s="9">
-        <f>IF(G106=1,H105,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J106" s="13">
-        <f t="shared" si="12"/>
-        <v>14757.89056</v>
-      </c>
-      <c r="K106" s="14">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f>IF(G106=1,$B$6,IF(H106,0,I105*$B$13))</f>
+        <v>4890.4570312176111</v>
+      </c>
+      <c r="J106" s="9">
+        <f t="shared" si="13"/>
+        <v>283401.98495906056</v>
+      </c>
+      <c r="K106" s="12">
+        <f t="shared" si="14"/>
+        <v>141700.99247953028</v>
       </c>
     </row>
     <row r="107" spans="4:11" x14ac:dyDescent="0.25">
@@ -4248,23 +4434,23 @@
       </c>
       <c r="G107" s="5">
         <f t="shared" si="11"/>
-        <v>8</v>
-      </c>
-      <c r="H107" s="9">
-        <f>IF(G107=$B$5+1,$B$6,IF(G107&gt;$B$5+1,H106*(1-$B$3),0))</f>
-        <v>7231.3663743999996</v>
+        <v>10</v>
+      </c>
+      <c r="H107" s="5" t="b">
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="I107" s="9">
-        <f>IF(G107=1,H106,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J107" s="13">
-        <f t="shared" si="12"/>
-        <v>14462.732748799999</v>
-      </c>
-      <c r="K107" s="14">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f>IF(G107=1,$B$6,IF(H107,0,I106*$B$13))</f>
+        <v>4876.9339948651486</v>
+      </c>
+      <c r="J107" s="9">
+        <f t="shared" si="13"/>
+        <v>282618.32500243536</v>
+      </c>
+      <c r="K107" s="12">
+        <f t="shared" si="14"/>
+        <v>141309.16250121768</v>
       </c>
     </row>
     <row r="108" spans="4:11" x14ac:dyDescent="0.25">
@@ -4281,23 +4467,23 @@
       </c>
       <c r="G108" s="5">
         <f t="shared" si="11"/>
-        <v>9</v>
-      </c>
-      <c r="H108" s="9">
-        <f>IF(G108=$B$5+1,$B$6,IF(G108&gt;$B$5+1,H107*(1-$B$3),0))</f>
-        <v>7086.7390469119991</v>
+        <v>11</v>
+      </c>
+      <c r="H108" s="5" t="b">
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="I108" s="9">
-        <f>IF(G108=1,H107,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J108" s="13">
-        <f t="shared" si="12"/>
-        <v>14173.478093823998</v>
-      </c>
-      <c r="K108" s="14">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f>IF(G108=1,$B$6,IF(H108,0,I107*$B$13))</f>
+        <v>4863.4483522595328</v>
+      </c>
+      <c r="J108" s="9">
+        <f t="shared" si="13"/>
+        <v>281836.83201343991</v>
+      </c>
+      <c r="K108" s="12">
+        <f t="shared" si="14"/>
+        <v>140918.41600671996</v>
       </c>
     </row>
     <row r="109" spans="4:11" x14ac:dyDescent="0.25">
@@ -4314,23 +4500,23 @@
       </c>
       <c r="G109" s="5">
         <f t="shared" si="11"/>
-        <v>10</v>
-      </c>
-      <c r="H109" s="9">
-        <f>IF(G109=$B$5+1,$B$6,IF(G109&gt;$B$5+1,H108*(1-$B$3),0))</f>
-        <v>6945.0042659737592</v>
+        <v>12</v>
+      </c>
+      <c r="H109" s="5" t="b">
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="I109" s="9">
-        <f>IF(G109=1,H108,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J109" s="13">
-        <f t="shared" si="12"/>
-        <v>13890.008531947518</v>
-      </c>
-      <c r="K109" s="14">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f>IF(G109=1,$B$6,IF(H109,0,I108*$B$13))</f>
+        <v>4849.9999999999991</v>
+      </c>
+      <c r="J109" s="9">
+        <f t="shared" si="13"/>
+        <v>281057.49999999994</v>
+      </c>
+      <c r="K109" s="12">
+        <f t="shared" si="14"/>
+        <v>140528.74999999997</v>
       </c>
     </row>
     <row r="110" spans="4:11" x14ac:dyDescent="0.25">
@@ -4347,23 +4533,23 @@
       </c>
       <c r="G110" s="5">
         <f t="shared" si="11"/>
-        <v>11</v>
-      </c>
-      <c r="H110" s="9">
-        <f>IF(G110=$B$5+1,$B$6,IF(G110&gt;$B$5+1,H109*(1-$B$3),0))</f>
-        <v>6806.1041806542835</v>
+        <v>13</v>
+      </c>
+      <c r="H110" s="5" t="b">
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="I110" s="9">
-        <f>IF(G110=1,H109,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J110" s="13">
-        <f t="shared" si="12"/>
-        <v>13612.208361308567</v>
-      </c>
-      <c r="K110" s="14">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f>IF(G110=1,$B$6,IF(H110,0,I109*$B$13))</f>
+        <v>4836.5888349717052</v>
+      </c>
+      <c r="J110" s="9">
+        <f t="shared" si="13"/>
+        <v>280280.32298661029</v>
+      </c>
+      <c r="K110" s="12">
+        <f t="shared" si="14"/>
+        <v>140140.16149330515</v>
       </c>
     </row>
     <row r="111" spans="4:11" x14ac:dyDescent="0.25">
@@ -4380,23 +4566,23 @@
       </c>
       <c r="G111" s="5">
         <f t="shared" si="11"/>
-        <v>12</v>
-      </c>
-      <c r="H111" s="9">
-        <f>IF(G111=$B$5+1,$B$6,IF(G111&gt;$B$5+1,H110*(1-$B$3),0))</f>
-        <v>6669.9820970411974</v>
+        <v>14</v>
+      </c>
+      <c r="H111" s="5" t="b">
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="I111" s="9">
-        <f>IF(G111=1,H110,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J111" s="13">
-        <f t="shared" si="12"/>
-        <v>13339.964194082395</v>
-      </c>
-      <c r="K111" s="14">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f>IF(G111=1,$B$6,IF(H111,0,I110*$B$13))</f>
+        <v>4823.21475434494</v>
+      </c>
+      <c r="J111" s="9">
+        <f t="shared" si="13"/>
+        <v>279505.29501428927</v>
+      </c>
+      <c r="K111" s="12">
+        <f t="shared" si="14"/>
+        <v>139752.64750714463</v>
       </c>
     </row>
     <row r="112" spans="4:11" x14ac:dyDescent="0.25">
@@ -4413,22 +4599,22 @@
       </c>
       <c r="G112" s="5">
         <f t="shared" si="11"/>
-        <v>13</v>
-      </c>
-      <c r="H112" s="9">
-        <f>IF(G112=$B$5+1,$B$6,IF(G112&gt;$B$5+1,H111*(1-$B$3),0))</f>
-        <v>6536.5824551003734</v>
+        <v>15</v>
+      </c>
+      <c r="H112" s="5" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
       </c>
       <c r="I112" s="9">
-        <f>IF(G112=1,H111,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J112" s="13">
-        <f t="shared" si="12"/>
-        <v>13073.164910200747</v>
-      </c>
-      <c r="K112" s="14">
-        <f t="shared" si="13"/>
+        <f>IF(G112=1,$B$6,IF(H112,0,I111*$B$13))</f>
+        <v>0</v>
+      </c>
+      <c r="J112" s="9">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K112" s="12">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -4446,22 +4632,22 @@
       </c>
       <c r="G113" s="5">
         <f t="shared" si="11"/>
-        <v>14</v>
-      </c>
-      <c r="H113" s="9">
-        <f>IF(G113=$B$5+1,$B$6,IF(G113&gt;$B$5+1,H112*(1-$B$3),0))</f>
-        <v>6405.850805998366</v>
+        <v>16</v>
+      </c>
+      <c r="H113" s="5" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
       </c>
       <c r="I113" s="9">
-        <f>IF(G113=1,H112,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J113" s="13">
-        <f t="shared" si="12"/>
-        <v>12811.701611996732</v>
-      </c>
-      <c r="K113" s="14">
-        <f t="shared" si="13"/>
+        <f>IF(G113=1,$B$6,IF(H113,0,I112*$B$13))</f>
+        <v>0</v>
+      </c>
+      <c r="J113" s="9">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K113" s="12">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -4481,21 +4667,21 @@
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="H114" s="9">
-        <f>IF(G114=$B$5+1,$B$6,IF(G114&gt;$B$5+1,H113*(1-$B$3),0))</f>
+      <c r="H114" s="5" t="b">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I114" s="9">
-        <f>IF(G114=1,H113,0)</f>
-        <v>6405.850805998366</v>
-      </c>
-      <c r="J114" s="13">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="K114" s="14">
-        <f t="shared" si="13"/>
-        <v>57652.657253985293</v>
+        <f>IF(G114=1,$B$6,IF(H114,0,I113*$B$13))</f>
+        <v>5000</v>
+      </c>
+      <c r="J114" s="9">
+        <f t="shared" si="13"/>
+        <v>289750</v>
+      </c>
+      <c r="K114" s="12">
+        <f t="shared" si="14"/>
+        <v>144875</v>
       </c>
     </row>
     <row r="115" spans="4:11" x14ac:dyDescent="0.25">
@@ -4514,21 +4700,21 @@
         <f t="shared" si="11"/>
         <v>2</v>
       </c>
-      <c r="H115" s="9">
-        <f>IF(G115=$B$5+1,$B$6,IF(G115&gt;$B$5+1,H114*(1-$B$3),0))</f>
+      <c r="H115" s="5" t="b">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I115" s="9">
-        <f>IF(G115=1,H114,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J115" s="13">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="K115" s="14">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f>IF(G115=1,$B$6,IF(H115,0,I114*$B$13))</f>
+        <v>4986.1740566718618</v>
+      </c>
+      <c r="J115" s="9">
+        <f t="shared" si="13"/>
+        <v>288948.78658413433</v>
+      </c>
+      <c r="K115" s="12">
+        <f t="shared" si="14"/>
+        <v>144474.39329206717</v>
       </c>
     </row>
     <row r="116" spans="4:11" x14ac:dyDescent="0.25">
@@ -4547,21 +4733,21 @@
         <f t="shared" si="11"/>
         <v>3</v>
       </c>
-      <c r="H116" s="9">
-        <f>IF(G116=$B$5+1,$B$6,IF(G116&gt;$B$5+1,H115*(1-$B$3),0))</f>
-        <v>8000</v>
+      <c r="H116" s="5" t="b">
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="I116" s="9">
-        <f>IF(G116=1,H115,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J116" s="13">
-        <f t="shared" si="12"/>
-        <v>16000</v>
-      </c>
-      <c r="K116" s="14">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f>IF(G116=1,$B$6,IF(H116,0,I115*$B$13))</f>
+        <v>4972.3863446855057</v>
+      </c>
+      <c r="J116" s="9">
+        <f t="shared" si="13"/>
+        <v>288149.78867452504</v>
+      </c>
+      <c r="K116" s="12">
+        <f t="shared" si="14"/>
+        <v>144074.89433726252</v>
       </c>
     </row>
     <row r="117" spans="4:11" x14ac:dyDescent="0.25">
@@ -4580,21 +4766,21 @@
         <f t="shared" si="11"/>
         <v>4</v>
       </c>
-      <c r="H117" s="9">
-        <f>IF(G117=$B$5+1,$B$6,IF(G117&gt;$B$5+1,H116*(1-$B$3),0))</f>
-        <v>7840</v>
+      <c r="H117" s="5" t="b">
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="I117" s="9">
-        <f>IF(G117=1,H116,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J117" s="13">
-        <f t="shared" si="12"/>
-        <v>15680</v>
-      </c>
-      <c r="K117" s="14">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f>IF(G117=1,$B$6,IF(H117,0,I116*$B$13))</f>
+        <v>4958.6367583240599</v>
+      </c>
+      <c r="J117" s="9">
+        <f t="shared" si="13"/>
+        <v>287353.00014487922</v>
+      </c>
+      <c r="K117" s="12">
+        <f t="shared" si="14"/>
+        <v>143676.50007243961</v>
       </c>
     </row>
     <row r="118" spans="4:11" x14ac:dyDescent="0.25">
@@ -4613,21 +4799,21 @@
         <f t="shared" si="11"/>
         <v>5</v>
       </c>
-      <c r="H118" s="9">
-        <f>IF(G118=$B$5+1,$B$6,IF(G118&gt;$B$5+1,H117*(1-$B$3),0))</f>
-        <v>7683.2</v>
+      <c r="H118" s="5" t="b">
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="I118" s="9">
-        <f>IF(G118=1,H117,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J118" s="13">
-        <f t="shared" si="12"/>
-        <v>15366.4</v>
-      </c>
-      <c r="K118" s="14">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f>IF(G118=1,$B$6,IF(H118,0,I117*$B$13))</f>
+        <v>4944.9251921629775</v>
+      </c>
+      <c r="J118" s="9">
+        <f t="shared" si="13"/>
+        <v>286558.41488584451</v>
+      </c>
+      <c r="K118" s="12">
+        <f t="shared" si="14"/>
+        <v>143279.20744292226</v>
       </c>
     </row>
     <row r="119" spans="4:11" x14ac:dyDescent="0.25">
@@ -4646,21 +4832,21 @@
         <f t="shared" si="11"/>
         <v>6</v>
       </c>
-      <c r="H119" s="9">
-        <f>IF(G119=$B$5+1,$B$6,IF(G119&gt;$B$5+1,H118*(1-$B$3),0))</f>
-        <v>7529.5360000000001</v>
+      <c r="H119" s="5" t="b">
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="I119" s="9">
-        <f>IF(G119=1,H118,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J119" s="13">
-        <f t="shared" si="12"/>
-        <v>15059.072</v>
-      </c>
-      <c r="K119" s="14">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f>IF(G119=1,$B$6,IF(H119,0,I118*$B$13))</f>
+        <v>4931.2515410692313</v>
+      </c>
+      <c r="J119" s="9">
+        <f t="shared" si="13"/>
+        <v>285766.02680496196</v>
+      </c>
+      <c r="K119" s="12">
+        <f t="shared" si="14"/>
+        <v>142883.01340248098</v>
       </c>
     </row>
     <row r="120" spans="4:11" x14ac:dyDescent="0.25">
@@ -4679,21 +4865,21 @@
         <f t="shared" si="11"/>
         <v>7</v>
       </c>
-      <c r="H120" s="9">
-        <f>IF(G120=$B$5+1,$B$6,IF(G120&gt;$B$5+1,H119*(1-$B$3),0))</f>
-        <v>7378.9452799999999</v>
+      <c r="H120" s="5" t="b">
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="I120" s="9">
-        <f>IF(G120=1,H119,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J120" s="13">
-        <f t="shared" si="12"/>
-        <v>14757.89056</v>
-      </c>
-      <c r="K120" s="14">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f>IF(G120=1,$B$6,IF(H120,0,I119*$B$13))</f>
+        <v>4917.6157002005075</v>
+      </c>
+      <c r="J120" s="9">
+        <f t="shared" si="13"/>
+        <v>284975.82982661936</v>
+      </c>
+      <c r="K120" s="12">
+        <f t="shared" si="14"/>
+        <v>142487.91491330968</v>
       </c>
     </row>
     <row r="121" spans="4:11" x14ac:dyDescent="0.25">
@@ -4712,21 +4898,21 @@
         <f t="shared" si="11"/>
         <v>8</v>
       </c>
-      <c r="H121" s="9">
-        <f>IF(G121=$B$5+1,$B$6,IF(G121&gt;$B$5+1,H120*(1-$B$3),0))</f>
-        <v>7231.3663743999996</v>
+      <c r="H121" s="5" t="b">
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="I121" s="9">
-        <f>IF(G121=1,H120,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J121" s="13">
-        <f t="shared" si="12"/>
-        <v>14462.732748799999</v>
-      </c>
-      <c r="K121" s="14">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f>IF(G121=1,$B$6,IF(H121,0,I120*$B$13))</f>
+        <v>4904.0175650044002</v>
+      </c>
+      <c r="J121" s="9">
+        <f t="shared" si="13"/>
+        <v>284187.81789200503</v>
+      </c>
+      <c r="K121" s="12">
+        <f t="shared" si="14"/>
+        <v>142093.90894600251</v>
       </c>
     </row>
     <row r="122" spans="4:11" x14ac:dyDescent="0.25">
@@ -4745,21 +4931,21 @@
         <f t="shared" si="11"/>
         <v>9</v>
       </c>
-      <c r="H122" s="9">
-        <f>IF(G122=$B$5+1,$B$6,IF(G122&gt;$B$5+1,H121*(1-$B$3),0))</f>
-        <v>7086.7390469119991</v>
+      <c r="H122" s="5" t="b">
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="I122" s="9">
-        <f>IF(G122=1,H121,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J122" s="13">
-        <f t="shared" si="12"/>
-        <v>14173.478093823998</v>
-      </c>
-      <c r="K122" s="14">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f>IF(G122=1,$B$6,IF(H122,0,I121*$B$13))</f>
+        <v>4890.4570312176111</v>
+      </c>
+      <c r="J122" s="9">
+        <f t="shared" si="13"/>
+        <v>283401.98495906056</v>
+      </c>
+      <c r="K122" s="12">
+        <f t="shared" si="14"/>
+        <v>141700.99247953028</v>
       </c>
     </row>
     <row r="123" spans="4:11" x14ac:dyDescent="0.25">
@@ -4778,21 +4964,21 @@
         <f t="shared" si="11"/>
         <v>10</v>
       </c>
-      <c r="H123" s="9">
-        <f>IF(G123=$B$5+1,$B$6,IF(G123&gt;$B$5+1,H122*(1-$B$3),0))</f>
-        <v>6945.0042659737592</v>
+      <c r="H123" s="5" t="b">
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="I123" s="9">
-        <f>IF(G123=1,H122,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J123" s="13">
-        <f t="shared" si="12"/>
-        <v>13890.008531947518</v>
-      </c>
-      <c r="K123" s="14">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f>IF(G123=1,$B$6,IF(H123,0,I122*$B$13))</f>
+        <v>4876.9339948651486</v>
+      </c>
+      <c r="J123" s="9">
+        <f t="shared" si="13"/>
+        <v>282618.32500243536</v>
+      </c>
+      <c r="K123" s="12">
+        <f t="shared" si="14"/>
+        <v>141309.16250121768</v>
       </c>
     </row>
     <row r="124" spans="4:11" x14ac:dyDescent="0.25">
@@ -4811,21 +4997,21 @@
         <f t="shared" si="11"/>
         <v>11</v>
       </c>
-      <c r="H124" s="9">
-        <f>IF(G124=$B$5+1,$B$6,IF(G124&gt;$B$5+1,H123*(1-$B$3),0))</f>
-        <v>6806.1041806542835</v>
+      <c r="H124" s="5" t="b">
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="I124" s="9">
-        <f>IF(G124=1,H123,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J124" s="13">
-        <f t="shared" si="12"/>
-        <v>13612.208361308567</v>
-      </c>
-      <c r="K124" s="14">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f>IF(G124=1,$B$6,IF(H124,0,I123*$B$13))</f>
+        <v>4863.4483522595328</v>
+      </c>
+      <c r="J124" s="9">
+        <f t="shared" si="13"/>
+        <v>281836.83201343991</v>
+      </c>
+      <c r="K124" s="12">
+        <f t="shared" si="14"/>
+        <v>140918.41600671996</v>
       </c>
     </row>
     <row r="125" spans="4:11" x14ac:dyDescent="0.25">
@@ -4844,21 +5030,21 @@
         <f t="shared" si="11"/>
         <v>12</v>
       </c>
-      <c r="H125" s="9">
-        <f>IF(G125=$B$5+1,$B$6,IF(G125&gt;$B$5+1,H124*(1-$B$3),0))</f>
-        <v>6669.9820970411974</v>
+      <c r="H125" s="5" t="b">
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="I125" s="9">
-        <f>IF(G125=1,H124,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J125" s="13">
-        <f t="shared" si="12"/>
-        <v>13339.964194082395</v>
-      </c>
-      <c r="K125" s="14">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f>IF(G125=1,$B$6,IF(H125,0,I124*$B$13))</f>
+        <v>4849.9999999999991</v>
+      </c>
+      <c r="J125" s="9">
+        <f t="shared" si="13"/>
+        <v>281057.49999999994</v>
+      </c>
+      <c r="K125" s="12">
+        <f t="shared" si="14"/>
+        <v>140528.74999999997</v>
       </c>
     </row>
     <row r="126" spans="4:11" x14ac:dyDescent="0.25">
@@ -4877,21 +5063,21 @@
         <f t="shared" si="11"/>
         <v>13</v>
       </c>
-      <c r="H126" s="9">
-        <f>IF(G126=$B$5+1,$B$6,IF(G126&gt;$B$5+1,H125*(1-$B$3),0))</f>
-        <v>6536.5824551003734</v>
+      <c r="H126" s="5" t="b">
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="I126" s="9">
-        <f>IF(G126=1,H125,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J126" s="13">
-        <f t="shared" si="12"/>
-        <v>13073.164910200747</v>
-      </c>
-      <c r="K126" s="14">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f>IF(G126=1,$B$6,IF(H126,0,I125*$B$13))</f>
+        <v>4836.5888349717052</v>
+      </c>
+      <c r="J126" s="9">
+        <f t="shared" si="13"/>
+        <v>280280.32298661029</v>
+      </c>
+      <c r="K126" s="12">
+        <f t="shared" si="14"/>
+        <v>140140.16149330515</v>
       </c>
     </row>
     <row r="127" spans="4:11" x14ac:dyDescent="0.25">
@@ -4910,21 +5096,21 @@
         <f t="shared" si="11"/>
         <v>14</v>
       </c>
-      <c r="H127" s="9">
-        <f>IF(G127=$B$5+1,$B$6,IF(G127&gt;$B$5+1,H126*(1-$B$3),0))</f>
-        <v>6405.850805998366</v>
+      <c r="H127" s="5" t="b">
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="I127" s="9">
-        <f>IF(G127=1,H126,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J127" s="13">
-        <f t="shared" si="12"/>
-        <v>12811.701611996732</v>
-      </c>
-      <c r="K127" s="14">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f>IF(G127=1,$B$6,IF(H127,0,I126*$B$13))</f>
+        <v>4823.21475434494</v>
+      </c>
+      <c r="J127" s="9">
+        <f t="shared" si="13"/>
+        <v>279505.29501428927</v>
+      </c>
+      <c r="K127" s="12">
+        <f t="shared" si="14"/>
+        <v>139752.64750714463</v>
       </c>
     </row>
     <row r="128" spans="4:11" x14ac:dyDescent="0.25">
@@ -4941,23 +5127,23 @@
       </c>
       <c r="G128" s="5">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="H128" s="9">
-        <f>IF(G128=$B$5+1,$B$6,IF(G128&gt;$B$5+1,H127*(1-$B$3),0))</f>
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="H128" s="5" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
       </c>
       <c r="I128" s="9">
-        <f>IF(G128=1,H127,0)</f>
-        <v>6405.850805998366</v>
-      </c>
-      <c r="J128" s="13">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="K128" s="14">
-        <f t="shared" si="13"/>
-        <v>57652.657253985293</v>
+        <f>IF(G128=1,$B$6,IF(H128,0,I127*$B$13))</f>
+        <v>0</v>
+      </c>
+      <c r="J128" s="9">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K128" s="12">
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="4:11" x14ac:dyDescent="0.25">
@@ -4974,22 +5160,22 @@
       </c>
       <c r="G129" s="5">
         <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="H129" s="9">
-        <f>IF(G129=$B$5+1,$B$6,IF(G129&gt;$B$5+1,H128*(1-$B$3),0))</f>
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="H129" s="5" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
       </c>
       <c r="I129" s="9">
-        <f>IF(G129=1,H128,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J129" s="13">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="K129" s="14">
-        <f t="shared" si="13"/>
+        <f>IF(G129=1,$B$6,IF(H129,0,I128*$B$13))</f>
+        <v>0</v>
+      </c>
+      <c r="J129" s="9">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K129" s="12">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -5007,23 +5193,23 @@
       </c>
       <c r="G130" s="5">
         <f t="shared" si="11"/>
-        <v>3</v>
-      </c>
-      <c r="H130" s="9">
-        <f>IF(G130=$B$5+1,$B$6,IF(G130&gt;$B$5+1,H129*(1-$B$3),0))</f>
-        <v>8000</v>
+        <v>1</v>
+      </c>
+      <c r="H130" s="5" t="b">
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="I130" s="9">
-        <f>IF(G130=1,H129,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J130" s="13">
-        <f t="shared" si="12"/>
-        <v>16000</v>
-      </c>
-      <c r="K130" s="14">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f>IF(G130=1,$B$6,IF(H130,0,I129*$B$13))</f>
+        <v>5000</v>
+      </c>
+      <c r="J130" s="9">
+        <f t="shared" si="13"/>
+        <v>289750</v>
+      </c>
+      <c r="K130" s="12">
+        <f t="shared" si="14"/>
+        <v>144875</v>
       </c>
     </row>
     <row r="131" spans="4:11" x14ac:dyDescent="0.25">
@@ -5031,32 +5217,32 @@
         <v>130</v>
       </c>
       <c r="E131" s="5">
-        <f t="shared" ref="E131:E133" si="14">_xlfn.CEILING.MATH(D131/12)</f>
+        <f t="shared" ref="E131:E133" si="15">_xlfn.CEILING.MATH(D131/12)</f>
         <v>11</v>
       </c>
       <c r="F131" s="5">
-        <f t="shared" ref="F131:F133" si="15">_xlfn.CEILING.MATH(D131/$B$4)</f>
+        <f t="shared" ref="F131:F133" si="16">_xlfn.CEILING.MATH(D131/$B$4)</f>
         <v>10</v>
       </c>
       <c r="G131" s="5">
-        <f t="shared" ref="G131:G133" si="16">MOD(D131-1,$B$4)+1</f>
-        <v>4</v>
-      </c>
-      <c r="H131" s="9">
-        <f>IF(G131=$B$5+1,$B$6,IF(G131&gt;$B$5+1,H130*(1-$B$3),0))</f>
-        <v>7840</v>
+        <f t="shared" ref="G131:G133" si="17">MOD(D131-1,$B$4+$B$5)+1</f>
+        <v>2</v>
+      </c>
+      <c r="H131" s="5" t="b">
+        <f t="shared" ref="H131:H133" si="18">G131&gt;$B$4</f>
+        <v>0</v>
       </c>
       <c r="I131" s="9">
-        <f>IF(G131=1,H130,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J131" s="13">
-        <f t="shared" ref="J131:J133" si="17">H131*$B$7*$B$8</f>
-        <v>15680</v>
-      </c>
-      <c r="K131" s="14">
-        <f t="shared" ref="K131:K133" si="18">I131*($B$9+$B$10)</f>
-        <v>0</v>
+        <f>IF(G131=1,$B$6,IF(H131,0,I130*$B$13))</f>
+        <v>4986.1740566718618</v>
+      </c>
+      <c r="J131" s="9">
+        <f t="shared" ref="J131:J133" si="19">I131*$B$7*30.5*(1-$B$11)</f>
+        <v>288948.78658413433</v>
+      </c>
+      <c r="K131" s="12">
+        <f t="shared" ref="K131:K133" si="20">J131*$B$8</f>
+        <v>144474.39329206717</v>
       </c>
     </row>
     <row r="132" spans="4:11" x14ac:dyDescent="0.25">
@@ -5064,32 +5250,32 @@
         <v>131</v>
       </c>
       <c r="E132" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>11</v>
       </c>
       <c r="F132" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="G132" s="5">
-        <f t="shared" si="16"/>
-        <v>5</v>
-      </c>
-      <c r="H132" s="9">
-        <f>IF(G132=$B$5+1,$B$6,IF(G132&gt;$B$5+1,H131*(1-$B$3),0))</f>
-        <v>7683.2</v>
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="H132" s="5" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
       </c>
       <c r="I132" s="9">
-        <f>IF(G132=1,H131,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J132" s="13">
-        <f t="shared" si="17"/>
-        <v>15366.4</v>
-      </c>
-      <c r="K132" s="14">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <f>IF(G132=1,$B$6,IF(H132,0,I131*$B$13))</f>
+        <v>4972.3863446855057</v>
+      </c>
+      <c r="J132" s="9">
+        <f t="shared" si="19"/>
+        <v>288149.78867452504</v>
+      </c>
+      <c r="K132" s="12">
+        <f t="shared" si="20"/>
+        <v>144074.89433726252</v>
       </c>
     </row>
     <row r="133" spans="4:11" x14ac:dyDescent="0.25">
@@ -5097,36 +5283,37 @@
         <v>132</v>
       </c>
       <c r="E133" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>11</v>
       </c>
       <c r="F133" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="G133" s="5">
-        <f t="shared" si="16"/>
-        <v>6</v>
-      </c>
-      <c r="H133" s="9">
-        <f>IF(G133=$B$5+1,$B$6,IF(G133&gt;$B$5+1,H132*(1-$B$3),0))</f>
-        <v>7529.5360000000001</v>
+        <f t="shared" si="17"/>
+        <v>4</v>
+      </c>
+      <c r="H133" s="5" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
       </c>
       <c r="I133" s="9">
-        <f>IF(G133=1,H132,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J133" s="13">
-        <f t="shared" si="17"/>
-        <v>15059.072</v>
-      </c>
-      <c r="K133" s="14">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <f>IF(G133=1,$B$6,IF(H133,0,I132*$B$13))</f>
+        <v>4958.6367583240599</v>
+      </c>
+      <c r="J133" s="9">
+        <f t="shared" si="19"/>
+        <v>287353.00014487922</v>
+      </c>
+      <c r="K133" s="12">
+        <f t="shared" si="20"/>
+        <v>143676.50007243961</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/docs/sample revenue calculations.xlsx
+++ b/docs/sample revenue calculations.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/64e43aabd8ba585a/Documents/GFP/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="310" documentId="8_{BEB41B1F-5E96-4CF4-9E33-48C8A22801C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1C5A6579-F885-4F72-B406-779F875AE8C5}"/>
+  <xr:revisionPtr revIDLastSave="312" documentId="8_{BEB41B1F-5E96-4CF4-9E33-48C8A22801C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{780A462C-A96B-45F4-96EF-A837459EB871}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F2DD8997-54F2-4B84-81BB-33A9A304589B}"/>
   </bookViews>
@@ -570,7 +570,7 @@
   <dimension ref="A1:Q133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -664,23 +664,23 @@
       </c>
       <c r="J2" s="8">
         <f>I2*$B$7*30.5*(1-$B$11)</f>
-        <v>579500</v>
+        <v>289750</v>
       </c>
       <c r="K2" s="11">
         <f>J2*$B$8</f>
-        <v>289750</v>
+        <v>144875</v>
       </c>
       <c r="L2" s="3"/>
       <c r="M2" s="4">
         <v>1</v>
       </c>
       <c r="N2" s="8">
-        <f>SUMIF($E:$E,$M2,J:J)</f>
-        <v>6849208.6135758115</v>
+        <f t="shared" ref="N2:N12" si="0">SUMIF($E:$E,$M2,J:J)</f>
+        <v>3432593.0768324593</v>
       </c>
       <c r="O2" s="12">
-        <f>SUMIF($E:$E,$M2,K:K)</f>
-        <v>3424604.3067879057</v>
+        <f t="shared" ref="O2:O12" si="1">SUMIF($E:$E,$M2,K:K)</f>
+        <v>1716296.5384162297</v>
       </c>
       <c r="P2" s="12">
         <f>B2*(1-$B$3)*($B$15)*(12/14)</f>
@@ -688,7 +688,7 @@
       </c>
       <c r="Q2" s="11">
         <f>P2+O2</f>
-        <v>3499432.8782164771</v>
+        <v>1791125.109844801</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -702,51 +702,51 @@
         <v>2</v>
       </c>
       <c r="E3" s="4">
-        <f t="shared" ref="E3:E66" si="0">_xlfn.CEILING.MATH(D3/12)</f>
+        <f t="shared" ref="E3:E66" si="2">_xlfn.CEILING.MATH(D3/12)</f>
         <v>1</v>
       </c>
       <c r="F3" s="4">
-        <f t="shared" ref="F3:F66" si="1">_xlfn.CEILING.MATH(D3/$B$4)</f>
+        <f t="shared" ref="F3:F66" si="3">_xlfn.CEILING.MATH(D3/$B$4)</f>
         <v>1</v>
       </c>
       <c r="G3" s="4">
-        <f t="shared" ref="G3:G66" si="2">MOD(D3-1,$B$4+$B$5)+1</f>
+        <f t="shared" ref="G3:G66" si="4">MOD(D3-1,$B$4+$B$5)+1</f>
         <v>2</v>
       </c>
       <c r="H3" s="4" t="b">
-        <f t="shared" ref="H3:H66" si="3">G3&gt;$B$4</f>
+        <f t="shared" ref="H3:H66" si="5">G3&gt;$B$4</f>
         <v>0</v>
       </c>
       <c r="I3" s="8">
-        <f>IF(G3=1,$B$6,IF(H3,0,I2*$B$14))</f>
-        <v>9972.3481133437235</v>
+        <f t="shared" ref="I3:I34" si="6">IF(G3=1,$B$6,IF(H3,0,I2*$B$14))</f>
+        <v>9976.5972675903649</v>
       </c>
       <c r="J3" s="8">
-        <f t="shared" ref="J3:J66" si="4">I3*$B$7*30.5*(1-$B$11)</f>
-        <v>577897.57316826866</v>
+        <f t="shared" ref="J3:J66" si="7">I3*$B$7*30.5*(1-$B$11)</f>
+        <v>289071.90582843084</v>
       </c>
       <c r="K3" s="11">
-        <f t="shared" ref="K3:K66" si="5">J3*$B$8</f>
-        <v>288948.78658413433</v>
+        <f t="shared" ref="K3:K66" si="8">J3*$B$8</f>
+        <v>144535.95291421542</v>
       </c>
       <c r="M3" s="4">
         <v>2</v>
       </c>
       <c r="N3" s="8">
-        <f>SUMIF($E:$E,$M3,J:J)</f>
-        <v>3415260.9008147693</v>
+        <f t="shared" si="0"/>
+        <v>1712325.2800499399</v>
       </c>
       <c r="O3" s="12">
-        <f>SUMIF($E:$E,$M3,K:K)</f>
-        <v>1707630.4504073847</v>
+        <f t="shared" si="1"/>
+        <v>856162.64002496994</v>
       </c>
       <c r="P3" s="12">
-        <f>$B$6*(1-$B$3)*($B$15)*(12/14)</f>
+        <f t="shared" ref="P3:P12" si="9">$B$6*(1-$B$3)*($B$15)*(12/14)</f>
         <v>37414.28571428571</v>
       </c>
       <c r="Q3" s="11">
-        <f t="shared" ref="Q3:Q12" si="6">P3+O3</f>
-        <v>1745044.7361216703</v>
+        <f t="shared" ref="Q3:Q12" si="10">P3+O3</f>
+        <v>893576.92573925562</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -760,51 +760,51 @@
         <v>3</v>
       </c>
       <c r="E4" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F4" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G4" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="H4" s="4" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I4" s="8">
-        <f>IF(G4=1,$B$6,IF(H4,0,I3*$B$14))</f>
-        <v>9944.7726893710114</v>
+        <f t="shared" si="6"/>
+        <v>9953.2493039691526</v>
       </c>
       <c r="J4" s="8">
-        <f t="shared" si="4"/>
-        <v>576299.57734905009</v>
+        <f t="shared" si="7"/>
+        <v>288395.39858250617</v>
       </c>
       <c r="K4" s="11">
-        <f t="shared" si="5"/>
-        <v>288149.78867452504</v>
+        <f t="shared" si="8"/>
+        <v>144197.69929125308</v>
       </c>
       <c r="M4" s="4">
         <v>3</v>
       </c>
       <c r="N4" s="8">
-        <f>SUMIF($E:$E,$M4,J:J)</f>
-        <v>2842901.8353793737</v>
+        <f t="shared" si="0"/>
+        <v>1425601.5892587102</v>
       </c>
       <c r="O4" s="12">
-        <f>SUMIF($E:$E,$M4,K:K)</f>
-        <v>1421450.9176896869</v>
+        <f t="shared" si="1"/>
+        <v>712800.79462935508</v>
       </c>
       <c r="P4" s="12">
-        <f>$B$6*(1-$B$3)*($B$15)*(12/14)</f>
+        <f t="shared" si="9"/>
         <v>37414.28571428571</v>
       </c>
       <c r="Q4" s="11">
-        <f t="shared" si="6"/>
-        <v>1458865.2034039726</v>
+        <f t="shared" si="10"/>
+        <v>750215.08034364076</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -818,51 +818,51 @@
         <v>4</v>
       </c>
       <c r="E5" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F5" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G5" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="H5" s="4" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I5" s="8">
-        <f>IF(G5=1,$B$6,IF(H5,0,I4*$B$14))</f>
-        <v>9917.2735166481198</v>
+        <f t="shared" si="6"/>
+        <v>9929.9559809624352</v>
       </c>
       <c r="J5" s="8">
-        <f t="shared" si="4"/>
-        <v>574706.00028975843</v>
+        <f t="shared" si="7"/>
+        <v>287720.47454838653</v>
       </c>
       <c r="K5" s="11">
-        <f t="shared" si="5"/>
-        <v>287353.00014487922</v>
+        <f t="shared" si="8"/>
+        <v>143860.23727419326</v>
       </c>
       <c r="M5" s="4">
         <v>4</v>
       </c>
       <c r="N5" s="8">
-        <f>SUMIF($E:$E,$M5,J:J)</f>
-        <v>2830188.3493852662</v>
+        <f t="shared" si="0"/>
+        <v>1420214.7960741543</v>
       </c>
       <c r="O5" s="12">
-        <f>SUMIF($E:$E,$M5,K:K)</f>
-        <v>1415094.1746926331</v>
+        <f t="shared" si="1"/>
+        <v>710107.39803707716</v>
       </c>
       <c r="P5" s="12">
-        <f>$B$6*(1-$B$3)*($B$15)*(12/14)</f>
+        <f t="shared" si="9"/>
         <v>37414.28571428571</v>
       </c>
       <c r="Q5" s="11">
-        <f t="shared" si="6"/>
-        <v>1452508.4604069188</v>
+        <f t="shared" si="10"/>
+        <v>747521.68375136284</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -876,51 +876,51 @@
         <v>5</v>
       </c>
       <c r="E6" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F6" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G6" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="H6" s="4" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I6" s="8">
-        <f>IF(G6=1,$B$6,IF(H6,0,I5*$B$14))</f>
-        <v>9889.850384325955</v>
+        <f t="shared" si="6"/>
+        <v>9906.7171706962436</v>
       </c>
       <c r="J6" s="8">
-        <f t="shared" si="4"/>
-        <v>573116.82977168902</v>
+        <f t="shared" si="7"/>
+        <v>287047.13002092362</v>
       </c>
       <c r="K6" s="11">
-        <f t="shared" si="5"/>
-        <v>286558.41488584451</v>
+        <f t="shared" si="8"/>
+        <v>143523.56501046181</v>
       </c>
       <c r="M6" s="4">
         <v>5</v>
       </c>
       <c r="N6" s="8">
-        <f>SUMIF($E:$E,$M6,J:J)</f>
-        <v>3424604.3067879057</v>
+        <f t="shared" si="0"/>
+        <v>1716296.5384162297</v>
       </c>
       <c r="O6" s="12">
-        <f>SUMIF($E:$E,$M6,K:K)</f>
-        <v>1712302.1533939529</v>
+        <f t="shared" si="1"/>
+        <v>858148.26920811483</v>
       </c>
       <c r="P6" s="12">
-        <f>$B$6*(1-$B$3)*($B$15)*(12/14)</f>
+        <f t="shared" si="9"/>
         <v>37414.28571428571</v>
       </c>
       <c r="Q6" s="11">
-        <f t="shared" si="6"/>
-        <v>1749716.4391082386</v>
+        <f t="shared" si="10"/>
+        <v>895562.55492240051</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -928,57 +928,57 @@
         <v>7</v>
       </c>
       <c r="B7" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" s="4">
         <v>6</v>
       </c>
       <c r="E7" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F7" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G7" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="H7" s="4" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I7" s="8">
-        <f>IF(G7=1,$B$6,IF(H7,0,I6*$B$14))</f>
-        <v>9862.5030821384626</v>
+        <f t="shared" si="6"/>
+        <v>9883.5327455958686</v>
       </c>
       <c r="J7" s="8">
-        <f t="shared" si="4"/>
-        <v>571532.05360992393</v>
+        <f t="shared" si="7"/>
+        <v>286375.3613036403</v>
       </c>
       <c r="K7" s="11">
-        <f t="shared" si="5"/>
-        <v>285766.02680496196</v>
+        <f t="shared" si="8"/>
+        <v>143187.68065182015</v>
       </c>
       <c r="M7" s="4">
         <v>6</v>
       </c>
       <c r="N7" s="8">
-        <f>SUMIF($E:$E,$M7,J:J)</f>
-        <v>2855475.282813869</v>
+        <f t="shared" si="0"/>
+        <v>1430938.1329123538</v>
       </c>
       <c r="O7" s="12">
-        <f>SUMIF($E:$E,$M7,K:K)</f>
-        <v>1427737.6414069345</v>
+        <f t="shared" si="1"/>
+        <v>715469.06645617692</v>
       </c>
       <c r="P7" s="12">
-        <f>$B$6*(1-$B$3)*($B$15)*(12/14)</f>
+        <f t="shared" si="9"/>
         <v>37414.28571428571</v>
       </c>
       <c r="Q7" s="11">
-        <f t="shared" si="6"/>
-        <v>1465151.9271212202</v>
+        <f t="shared" si="10"/>
+        <v>752883.3521704626</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -992,51 +992,51 @@
         <v>7</v>
       </c>
       <c r="E8" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F8" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G8" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="H8" s="4" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I8" s="8">
-        <f>IF(G8=1,$B$6,IF(H8,0,I7*$B$14))</f>
-        <v>9835.231400401015</v>
+        <f t="shared" si="6"/>
+        <v>9860.402578385163</v>
       </c>
       <c r="J8" s="8">
-        <f t="shared" si="4"/>
-        <v>569951.65965323872</v>
+        <f t="shared" si="7"/>
+        <v>285705.1647087101</v>
       </c>
       <c r="K8" s="11">
-        <f t="shared" si="5"/>
-        <v>284975.82982661936</v>
+        <f t="shared" si="8"/>
+        <v>142852.58235435505</v>
       </c>
       <c r="M8" s="4">
         <v>7</v>
       </c>
       <c r="N8" s="8">
-        <f>SUMIF($E:$E,$M8,J:J)</f>
-        <v>2842901.8353793737</v>
+        <f t="shared" si="0"/>
+        <v>1425601.5892587102</v>
       </c>
       <c r="O8" s="12">
-        <f>SUMIF($E:$E,$M8,K:K)</f>
-        <v>1421450.9176896869</v>
+        <f t="shared" si="1"/>
+        <v>712800.79462935508</v>
       </c>
       <c r="P8" s="12">
-        <f>$B$6*(1-$B$3)*($B$15)*(12/14)</f>
+        <f t="shared" si="9"/>
         <v>37414.28571428571</v>
       </c>
       <c r="Q8" s="11">
-        <f t="shared" si="6"/>
-        <v>1458865.2034039726</v>
+        <f t="shared" si="10"/>
+        <v>750215.08034364076</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -1050,51 +1050,51 @@
         <v>8</v>
       </c>
       <c r="E9" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F9" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G9" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="H9" s="4" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I9" s="8">
-        <f>IF(G9=1,$B$6,IF(H9,0,I8*$B$14))</f>
-        <v>9808.0351300088005</v>
+        <f t="shared" si="6"/>
+        <v>9837.3265420858406</v>
       </c>
       <c r="J9" s="8">
-        <f t="shared" si="4"/>
-        <v>568375.63578401005</v>
+        <f t="shared" si="7"/>
+        <v>285036.53655693721</v>
       </c>
       <c r="K9" s="11">
-        <f t="shared" si="5"/>
-        <v>284187.81789200503</v>
+        <f t="shared" si="8"/>
+        <v>142518.2682784686</v>
       </c>
       <c r="M9" s="4">
         <v>8</v>
       </c>
       <c r="N9" s="8">
-        <f>SUMIF($E:$E,$M9,J:J)</f>
-        <v>2830188.3493852662</v>
+        <f t="shared" si="0"/>
+        <v>1420214.7960741543</v>
       </c>
       <c r="O9" s="12">
-        <f>SUMIF($E:$E,$M9,K:K)</f>
-        <v>1415094.1746926331</v>
+        <f t="shared" si="1"/>
+        <v>710107.39803707716</v>
       </c>
       <c r="P9" s="12">
-        <f>$B$6*(1-$B$3)*($B$15)*(12/14)</f>
+        <f t="shared" si="9"/>
         <v>37414.28571428571</v>
       </c>
       <c r="Q9" s="11">
-        <f t="shared" si="6"/>
-        <v>1452508.4604069188</v>
+        <f t="shared" si="10"/>
+        <v>747521.68375136284</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -1108,51 +1108,51 @@
         <v>9</v>
       </c>
       <c r="E10" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F10" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G10" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="H10" s="4" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I10" s="8">
-        <f>IF(G10=1,$B$6,IF(H10,0,I9*$B$14))</f>
-        <v>9780.9140624352221</v>
+        <f t="shared" si="6"/>
+        <v>9814.3045100167765</v>
       </c>
       <c r="J10" s="8">
-        <f t="shared" si="4"/>
-        <v>566803.96991812112</v>
+        <f t="shared" si="7"/>
+        <v>284369.4731777361</v>
       </c>
       <c r="K10" s="11">
-        <f t="shared" si="5"/>
-        <v>283401.98495906056</v>
+        <f t="shared" si="8"/>
+        <v>142184.73658886805</v>
       </c>
       <c r="M10" s="4">
         <v>9</v>
       </c>
       <c r="N10" s="8">
-        <f>SUMIF($E:$E,$M10,J:J)</f>
-        <v>3424604.3067879057</v>
+        <f t="shared" si="0"/>
+        <v>1716296.5384162297</v>
       </c>
       <c r="O10" s="12">
-        <f>SUMIF($E:$E,$M10,K:K)</f>
-        <v>1712302.1533939529</v>
+        <f t="shared" si="1"/>
+        <v>858148.26920811483</v>
       </c>
       <c r="P10" s="12">
-        <f>$B$6*(1-$B$3)*($B$15)*(12/14)</f>
+        <f t="shared" si="9"/>
         <v>37414.28571428571</v>
       </c>
       <c r="Q10" s="11">
-        <f t="shared" si="6"/>
-        <v>1749716.4391082386</v>
+        <f t="shared" si="10"/>
+        <v>895562.55492240051</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -1166,51 +1166,51 @@
         <v>10</v>
       </c>
       <c r="E11" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F11" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G11" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="H11" s="4" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I11" s="8">
-        <f>IF(G11=1,$B$6,IF(H11,0,I10*$B$14))</f>
-        <v>9753.8679897302973</v>
+        <f t="shared" si="6"/>
+        <v>9791.3363557933171</v>
       </c>
       <c r="J11" s="8">
-        <f t="shared" si="4"/>
-        <v>565236.65000487072</v>
+        <f t="shared" si="7"/>
+        <v>283703.97090911132</v>
       </c>
       <c r="K11" s="11">
-        <f t="shared" si="5"/>
-        <v>282618.32500243536</v>
+        <f t="shared" si="8"/>
+        <v>141851.98545455566</v>
       </c>
       <c r="M11" s="4">
         <v>10</v>
       </c>
       <c r="N11" s="8">
-        <f>SUMIF($E:$E,$M11,J:J)</f>
-        <v>2855475.282813869</v>
+        <f t="shared" si="0"/>
+        <v>1430938.1329123538</v>
       </c>
       <c r="O11" s="12">
-        <f>SUMIF($E:$E,$M11,K:K)</f>
-        <v>1427737.6414069345</v>
+        <f t="shared" si="1"/>
+        <v>715469.06645617692</v>
       </c>
       <c r="P11" s="12">
-        <f>$B$6*(1-$B$3)*($B$15)*(12/14)</f>
+        <f t="shared" si="9"/>
         <v>37414.28571428571</v>
       </c>
       <c r="Q11" s="11">
-        <f t="shared" si="6"/>
-        <v>1465151.9271212202</v>
+        <f t="shared" si="10"/>
+        <v>752883.3521704626</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -1218,51 +1218,51 @@
         <v>11</v>
       </c>
       <c r="E12" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F12" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G12" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="H12" s="4" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I12" s="8">
-        <f>IF(G12=1,$B$6,IF(H12,0,I11*$B$14))</f>
-        <v>9726.8967045190657</v>
+        <f t="shared" si="6"/>
+        <v>9768.4219533265805</v>
       </c>
       <c r="J12" s="8">
-        <f t="shared" si="4"/>
-        <v>563673.66402687982</v>
+        <f t="shared" si="7"/>
+        <v>283040.02609763766</v>
       </c>
       <c r="K12" s="11">
-        <f t="shared" si="5"/>
-        <v>281836.83201343991</v>
+        <f t="shared" si="8"/>
+        <v>141520.01304881883</v>
       </c>
       <c r="M12" s="4">
         <v>11</v>
       </c>
       <c r="N12" s="8">
-        <f>SUMIF($E:$E,$M12,J:J)</f>
-        <v>2842901.8353793737</v>
+        <f t="shared" si="0"/>
+        <v>1425601.5892587102</v>
       </c>
       <c r="O12" s="12">
-        <f>SUMIF($E:$E,$M12,K:K)</f>
-        <v>1421450.9176896869</v>
+        <f t="shared" si="1"/>
+        <v>712800.79462935508</v>
       </c>
       <c r="P12" s="12">
-        <f>$B$6*(1-$B$3)*($B$15)*(12/14)</f>
+        <f t="shared" si="9"/>
         <v>37414.28571428571</v>
       </c>
       <c r="Q12" s="11">
-        <f t="shared" si="6"/>
-        <v>1458865.2034039726</v>
+        <f t="shared" si="10"/>
+        <v>750215.08034364076</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -1273,32 +1273,32 @@
         <v>12</v>
       </c>
       <c r="E13" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F13" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G13" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="H13" s="4" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I13" s="8">
-        <f>IF(G13=1,$B$6,IF(H13,0,I12*$B$14))</f>
-        <v>9699.9999999999982</v>
+        <f t="shared" si="6"/>
+        <v>9745.56117682277</v>
       </c>
       <c r="J13" s="8">
-        <f t="shared" si="4"/>
-        <v>562114.99999999988</v>
+        <f t="shared" si="7"/>
+        <v>282377.63509843976</v>
       </c>
       <c r="K13" s="11">
-        <f t="shared" si="5"/>
-        <v>281057.49999999994</v>
+        <f t="shared" si="8"/>
+        <v>141188.81754921988</v>
       </c>
       <c r="Q13" s="10" t="b">
         <f>SUM(Q2:Q12)=SUM(K:K)+SUM(P:P)</f>
@@ -1310,39 +1310,39 @@
         <v>14</v>
       </c>
       <c r="B14" s="13">
-        <f>(1-$B$3)^(1/11)</f>
-        <v>0.99723481133437231</v>
+        <f>(1-$B$3)^(1/($B$4-1))</f>
+        <v>0.99765972675903647</v>
       </c>
       <c r="D14" s="4">
         <v>13</v>
       </c>
       <c r="E14" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="F14" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G14" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="H14" s="4" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I14" s="8">
-        <f>IF(G14=1,$B$6,IF(H14,0,I13*$B$14))</f>
-        <v>9673.1776699434104</v>
+        <f t="shared" si="6"/>
+        <v>9722.753900782478</v>
       </c>
       <c r="J14" s="8">
-        <f t="shared" si="4"/>
-        <v>560560.64597322058</v>
+        <f t="shared" si="7"/>
+        <v>281716.79427517229</v>
       </c>
       <c r="K14" s="11">
-        <f t="shared" si="5"/>
-        <v>280280.32298661029</v>
+        <f t="shared" si="8"/>
+        <v>140858.39713758614</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -1357,32 +1357,32 @@
         <v>14</v>
       </c>
       <c r="E15" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="F15" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G15" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="H15" s="4" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I15" s="8">
-        <f>IF(G15=1,$B$6,IF(H15,0,I14*$B$14))</f>
-        <v>9646.4295086898801</v>
+        <f t="shared" si="6"/>
+        <v>9700.0000000000036</v>
       </c>
       <c r="J15" s="8">
-        <f t="shared" si="4"/>
-        <v>559010.59002857853</v>
+        <f t="shared" si="7"/>
+        <v>281057.50000000012</v>
       </c>
       <c r="K15" s="11">
-        <f t="shared" si="5"/>
-        <v>279505.29501428927</v>
+        <f t="shared" si="8"/>
+        <v>140528.75000000006</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -1390,31 +1390,31 @@
         <v>15</v>
       </c>
       <c r="E16" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="F16" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="G16" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="H16" s="4" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="I16" s="8">
-        <f>IF(G16=1,$B$6,IF(H16,0,I15*$B$14))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J16" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K16" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -1423,31 +1423,31 @@
         <v>16</v>
       </c>
       <c r="E17" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="F17" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="G17" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="H17" s="4" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="I17" s="8">
-        <f>IF(G17=1,$B$6,IF(H17,0,I16*$B$14))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J17" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K17" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -1456,32 +1456,32 @@
         <v>17</v>
       </c>
       <c r="E18" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="F18" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="G18" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H18" s="4" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I18" s="8">
-        <f>IF(G18=1,$B$6,IF(H18,0,I17*$B$14))</f>
+        <f t="shared" si="6"/>
         <v>5000</v>
       </c>
       <c r="J18" s="8">
-        <f t="shared" si="4"/>
-        <v>289750</v>
+        <f t="shared" si="7"/>
+        <v>144875</v>
       </c>
       <c r="K18" s="11">
-        <f t="shared" si="5"/>
-        <v>144875</v>
+        <f t="shared" si="8"/>
+        <v>72437.5</v>
       </c>
     </row>
     <row r="19" spans="4:11" x14ac:dyDescent="0.25">
@@ -1489,32 +1489,32 @@
         <v>18</v>
       </c>
       <c r="E19" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="F19" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="G19" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="H19" s="4" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I19" s="8">
-        <f>IF(G19=1,$B$6,IF(H19,0,I18*$B$14))</f>
-        <v>4986.1740566718618</v>
+        <f t="shared" si="6"/>
+        <v>4988.2986337951825</v>
       </c>
       <c r="J19" s="8">
-        <f t="shared" si="4"/>
-        <v>288948.78658413433</v>
+        <f t="shared" si="7"/>
+        <v>144535.95291421542</v>
       </c>
       <c r="K19" s="11">
-        <f t="shared" si="5"/>
-        <v>144474.39329206717</v>
+        <f t="shared" si="8"/>
+        <v>72267.97645710771</v>
       </c>
     </row>
     <row r="20" spans="4:11" x14ac:dyDescent="0.25">
@@ -1522,32 +1522,32 @@
         <v>19</v>
       </c>
       <c r="E20" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="F20" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="G20" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="H20" s="4" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I20" s="8">
-        <f>IF(G20=1,$B$6,IF(H20,0,I19*$B$14))</f>
-        <v>4972.3863446855057</v>
+        <f t="shared" si="6"/>
+        <v>4976.6246519845763</v>
       </c>
       <c r="J20" s="8">
-        <f t="shared" si="4"/>
-        <v>288149.78867452504</v>
+        <f t="shared" si="7"/>
+        <v>144197.69929125308</v>
       </c>
       <c r="K20" s="11">
-        <f t="shared" si="5"/>
-        <v>144074.89433726252</v>
+        <f t="shared" si="8"/>
+        <v>72098.849645626542</v>
       </c>
     </row>
     <row r="21" spans="4:11" x14ac:dyDescent="0.25">
@@ -1555,32 +1555,32 @@
         <v>20</v>
       </c>
       <c r="E21" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="F21" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="G21" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="H21" s="4" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I21" s="8">
-        <f>IF(G21=1,$B$6,IF(H21,0,I20*$B$14))</f>
-        <v>4958.6367583240599</v>
+        <f t="shared" si="6"/>
+        <v>4964.9779904812176</v>
       </c>
       <c r="J21" s="8">
-        <f t="shared" si="4"/>
-        <v>287353.00014487922</v>
+        <f t="shared" si="7"/>
+        <v>143860.23727419326</v>
       </c>
       <c r="K21" s="11">
-        <f t="shared" si="5"/>
-        <v>143676.50007243961</v>
+        <f t="shared" si="8"/>
+        <v>71930.118637096632</v>
       </c>
     </row>
     <row r="22" spans="4:11" x14ac:dyDescent="0.25">
@@ -1588,32 +1588,32 @@
         <v>21</v>
       </c>
       <c r="E22" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="F22" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="G22" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="H22" s="4" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I22" s="8">
-        <f>IF(G22=1,$B$6,IF(H22,0,I21*$B$14))</f>
-        <v>4944.9251921629775</v>
+        <f t="shared" si="6"/>
+        <v>4953.3585853481218</v>
       </c>
       <c r="J22" s="8">
-        <f t="shared" si="4"/>
-        <v>286558.41488584451</v>
+        <f t="shared" si="7"/>
+        <v>143523.56501046181</v>
       </c>
       <c r="K22" s="11">
-        <f t="shared" si="5"/>
-        <v>143279.20744292226</v>
+        <f t="shared" si="8"/>
+        <v>71761.782505230905</v>
       </c>
     </row>
     <row r="23" spans="4:11" x14ac:dyDescent="0.25">
@@ -1621,32 +1621,32 @@
         <v>22</v>
       </c>
       <c r="E23" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="F23" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="G23" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="H23" s="4" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I23" s="8">
-        <f>IF(G23=1,$B$6,IF(H23,0,I22*$B$14))</f>
-        <v>4931.2515410692313</v>
+        <f t="shared" si="6"/>
+        <v>4941.7663727979343</v>
       </c>
       <c r="J23" s="8">
-        <f t="shared" si="4"/>
-        <v>285766.02680496196</v>
+        <f t="shared" si="7"/>
+        <v>143187.68065182015</v>
       </c>
       <c r="K23" s="11">
-        <f t="shared" si="5"/>
-        <v>142883.01340248098</v>
+        <f t="shared" si="8"/>
+        <v>71593.840325910074</v>
       </c>
     </row>
     <row r="24" spans="4:11" x14ac:dyDescent="0.25">
@@ -1654,32 +1654,32 @@
         <v>23</v>
       </c>
       <c r="E24" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="F24" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="G24" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="H24" s="4" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I24" s="8">
-        <f>IF(G24=1,$B$6,IF(H24,0,I23*$B$14))</f>
-        <v>4917.6157002005075</v>
+        <f t="shared" si="6"/>
+        <v>4930.2012891925815</v>
       </c>
       <c r="J24" s="8">
-        <f t="shared" si="4"/>
-        <v>284975.82982661936</v>
+        <f t="shared" si="7"/>
+        <v>142852.58235435505</v>
       </c>
       <c r="K24" s="11">
-        <f t="shared" si="5"/>
-        <v>142487.91491330968</v>
+        <f t="shared" si="8"/>
+        <v>71426.291177177525</v>
       </c>
     </row>
     <row r="25" spans="4:11" x14ac:dyDescent="0.25">
@@ -1687,32 +1687,32 @@
         <v>24</v>
       </c>
       <c r="E25" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="F25" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="G25" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="H25" s="4" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I25" s="8">
-        <f>IF(G25=1,$B$6,IF(H25,0,I24*$B$14))</f>
-        <v>4904.0175650044002</v>
+        <f t="shared" si="6"/>
+        <v>4918.6632710429203</v>
       </c>
       <c r="J25" s="8">
-        <f t="shared" si="4"/>
-        <v>284187.81789200503</v>
+        <f t="shared" si="7"/>
+        <v>142518.2682784686</v>
       </c>
       <c r="K25" s="11">
-        <f t="shared" si="5"/>
-        <v>142093.90894600251</v>
+        <f t="shared" si="8"/>
+        <v>71259.134139234302</v>
       </c>
     </row>
     <row r="26" spans="4:11" x14ac:dyDescent="0.25">
@@ -1720,32 +1720,32 @@
         <v>25</v>
       </c>
       <c r="E26" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="F26" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="G26" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="H26" s="4" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I26" s="8">
-        <f>IF(G26=1,$B$6,IF(H26,0,I25*$B$14))</f>
-        <v>4890.4570312176111</v>
+        <f t="shared" si="6"/>
+        <v>4907.1522550083882</v>
       </c>
       <c r="J26" s="8">
-        <f t="shared" si="4"/>
-        <v>283401.98495906056</v>
+        <f t="shared" si="7"/>
+        <v>142184.73658886805</v>
       </c>
       <c r="K26" s="11">
-        <f t="shared" si="5"/>
-        <v>141700.99247953028</v>
+        <f t="shared" si="8"/>
+        <v>71092.368294434025</v>
       </c>
     </row>
     <row r="27" spans="4:11" x14ac:dyDescent="0.25">
@@ -1753,32 +1753,32 @@
         <v>26</v>
       </c>
       <c r="E27" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="F27" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="G27" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="H27" s="4" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I27" s="8">
-        <f>IF(G27=1,$B$6,IF(H27,0,I26*$B$14))</f>
-        <v>4876.9339948651486</v>
+        <f t="shared" si="6"/>
+        <v>4895.6681778966586</v>
       </c>
       <c r="J27" s="8">
-        <f t="shared" si="4"/>
-        <v>282618.32500243536</v>
+        <f t="shared" si="7"/>
+        <v>141851.98545455566</v>
       </c>
       <c r="K27" s="11">
-        <f t="shared" si="5"/>
-        <v>141309.16250121768</v>
+        <f t="shared" si="8"/>
+        <v>70925.99272727783</v>
       </c>
     </row>
     <row r="28" spans="4:11" x14ac:dyDescent="0.25">
@@ -1786,32 +1786,32 @@
         <v>27</v>
       </c>
       <c r="E28" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="F28" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="G28" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="H28" s="4" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I28" s="8">
-        <f>IF(G28=1,$B$6,IF(H28,0,I27*$B$14))</f>
-        <v>4863.4483522595328</v>
+        <f t="shared" si="6"/>
+        <v>4884.2109766632902</v>
       </c>
       <c r="J28" s="8">
-        <f t="shared" si="4"/>
-        <v>281836.83201343991</v>
+        <f t="shared" si="7"/>
+        <v>141520.01304881883</v>
       </c>
       <c r="K28" s="11">
-        <f t="shared" si="5"/>
-        <v>140918.41600671996</v>
+        <f t="shared" si="8"/>
+        <v>70760.006524409415</v>
       </c>
     </row>
     <row r="29" spans="4:11" x14ac:dyDescent="0.25">
@@ -1819,32 +1819,32 @@
         <v>28</v>
       </c>
       <c r="E29" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="F29" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="G29" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="H29" s="4" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I29" s="8">
-        <f>IF(G29=1,$B$6,IF(H29,0,I28*$B$14))</f>
-        <v>4849.9999999999991</v>
+        <f t="shared" si="6"/>
+        <v>4872.780588411385</v>
       </c>
       <c r="J29" s="8">
-        <f t="shared" si="4"/>
-        <v>281057.49999999994</v>
+        <f t="shared" si="7"/>
+        <v>141188.81754921988</v>
       </c>
       <c r="K29" s="11">
-        <f t="shared" si="5"/>
-        <v>140528.74999999997</v>
+        <f t="shared" si="8"/>
+        <v>70594.408774609939</v>
       </c>
     </row>
     <row r="30" spans="4:11" x14ac:dyDescent="0.25">
@@ -1852,32 +1852,32 @@
         <v>29</v>
       </c>
       <c r="E30" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="F30" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="G30" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="H30" s="4" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I30" s="8">
-        <f>IF(G30=1,$B$6,IF(H30,0,I29*$B$14))</f>
-        <v>4836.5888349717052</v>
+        <f t="shared" si="6"/>
+        <v>4861.376950391239</v>
       </c>
       <c r="J30" s="8">
-        <f t="shared" si="4"/>
-        <v>280280.32298661029</v>
+        <f t="shared" si="7"/>
+        <v>140858.39713758614</v>
       </c>
       <c r="K30" s="11">
-        <f t="shared" si="5"/>
-        <v>140140.16149330515</v>
+        <f t="shared" si="8"/>
+        <v>70429.198568793072</v>
       </c>
     </row>
     <row r="31" spans="4:11" x14ac:dyDescent="0.25">
@@ -1885,32 +1885,32 @@
         <v>30</v>
       </c>
       <c r="E31" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="F31" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="G31" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="H31" s="4" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I31" s="8">
-        <f>IF(G31=1,$B$6,IF(H31,0,I30*$B$14))</f>
-        <v>4823.21475434494</v>
+        <f t="shared" si="6"/>
+        <v>4850.0000000000018</v>
       </c>
       <c r="J31" s="8">
-        <f t="shared" si="4"/>
-        <v>279505.29501428927</v>
+        <f t="shared" si="7"/>
+        <v>140528.75000000006</v>
       </c>
       <c r="K31" s="11">
-        <f t="shared" si="5"/>
-        <v>139752.64750714463</v>
+        <f t="shared" si="8"/>
+        <v>70264.375000000029</v>
       </c>
     </row>
     <row r="32" spans="4:11" x14ac:dyDescent="0.25">
@@ -1918,31 +1918,31 @@
         <v>31</v>
       </c>
       <c r="E32" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="F32" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="G32" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="H32" s="4" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="I32" s="8">
-        <f>IF(G32=1,$B$6,IF(H32,0,I31*$B$14))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J32" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K32" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -1951,31 +1951,31 @@
         <v>32</v>
       </c>
       <c r="E33" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="F33" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="G33" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="H33" s="4" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="I33" s="8">
-        <f>IF(G33=1,$B$6,IF(H33,0,I32*$B$14))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J33" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K33" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -1984,32 +1984,32 @@
         <v>33</v>
       </c>
       <c r="E34" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="F34" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="G34" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H34" s="4" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I34" s="8">
-        <f>IF(G34=1,$B$6,IF(H34,0,I33*$B$14))</f>
+        <f t="shared" si="6"/>
         <v>5000</v>
       </c>
       <c r="J34" s="8">
-        <f t="shared" si="4"/>
-        <v>289750</v>
+        <f t="shared" si="7"/>
+        <v>144875</v>
       </c>
       <c r="K34" s="11">
-        <f t="shared" si="5"/>
-        <v>144875</v>
+        <f t="shared" si="8"/>
+        <v>72437.5</v>
       </c>
     </row>
     <row r="35" spans="4:11" x14ac:dyDescent="0.25">
@@ -2017,32 +2017,32 @@
         <v>34</v>
       </c>
       <c r="E35" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="F35" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="G35" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="H35" s="4" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I35" s="8">
-        <f>IF(G35=1,$B$6,IF(H35,0,I34*$B$14))</f>
-        <v>4986.1740566718618</v>
+        <f t="shared" ref="I35:I66" si="11">IF(G35=1,$B$6,IF(H35,0,I34*$B$14))</f>
+        <v>4988.2986337951825</v>
       </c>
       <c r="J35" s="8">
-        <f t="shared" si="4"/>
-        <v>288948.78658413433</v>
+        <f t="shared" si="7"/>
+        <v>144535.95291421542</v>
       </c>
       <c r="K35" s="11">
-        <f t="shared" si="5"/>
-        <v>144474.39329206717</v>
+        <f t="shared" si="8"/>
+        <v>72267.97645710771</v>
       </c>
     </row>
     <row r="36" spans="4:11" x14ac:dyDescent="0.25">
@@ -2050,32 +2050,32 @@
         <v>35</v>
       </c>
       <c r="E36" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="F36" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="G36" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="H36" s="4" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I36" s="8">
-        <f>IF(G36=1,$B$6,IF(H36,0,I35*$B$14))</f>
-        <v>4972.3863446855057</v>
+        <f t="shared" si="11"/>
+        <v>4976.6246519845763</v>
       </c>
       <c r="J36" s="8">
-        <f t="shared" si="4"/>
-        <v>288149.78867452504</v>
+        <f t="shared" si="7"/>
+        <v>144197.69929125308</v>
       </c>
       <c r="K36" s="11">
-        <f t="shared" si="5"/>
-        <v>144074.89433726252</v>
+        <f t="shared" si="8"/>
+        <v>72098.849645626542</v>
       </c>
     </row>
     <row r="37" spans="4:11" x14ac:dyDescent="0.25">
@@ -2083,32 +2083,32 @@
         <v>36</v>
       </c>
       <c r="E37" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="F37" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="G37" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="H37" s="4" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I37" s="8">
-        <f>IF(G37=1,$B$6,IF(H37,0,I36*$B$14))</f>
-        <v>4958.6367583240599</v>
+        <f t="shared" si="11"/>
+        <v>4964.9779904812176</v>
       </c>
       <c r="J37" s="8">
-        <f t="shared" si="4"/>
-        <v>287353.00014487922</v>
+        <f t="shared" si="7"/>
+        <v>143860.23727419326</v>
       </c>
       <c r="K37" s="11">
-        <f t="shared" si="5"/>
-        <v>143676.50007243961</v>
+        <f t="shared" si="8"/>
+        <v>71930.118637096632</v>
       </c>
     </row>
     <row r="38" spans="4:11" x14ac:dyDescent="0.25">
@@ -2116,32 +2116,32 @@
         <v>37</v>
       </c>
       <c r="E38" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="F38" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="G38" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="H38" s="4" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I38" s="8">
-        <f>IF(G38=1,$B$6,IF(H38,0,I37*$B$14))</f>
-        <v>4944.9251921629775</v>
+        <f t="shared" si="11"/>
+        <v>4953.3585853481218</v>
       </c>
       <c r="J38" s="8">
-        <f t="shared" si="4"/>
-        <v>286558.41488584451</v>
+        <f t="shared" si="7"/>
+        <v>143523.56501046181</v>
       </c>
       <c r="K38" s="11">
-        <f t="shared" si="5"/>
-        <v>143279.20744292226</v>
+        <f t="shared" si="8"/>
+        <v>71761.782505230905</v>
       </c>
     </row>
     <row r="39" spans="4:11" x14ac:dyDescent="0.25">
@@ -2149,32 +2149,32 @@
         <v>38</v>
       </c>
       <c r="E39" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="F39" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="G39" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="H39" s="4" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I39" s="8">
-        <f>IF(G39=1,$B$6,IF(H39,0,I38*$B$14))</f>
-        <v>4931.2515410692313</v>
+        <f t="shared" si="11"/>
+        <v>4941.7663727979343</v>
       </c>
       <c r="J39" s="8">
-        <f t="shared" si="4"/>
-        <v>285766.02680496196</v>
+        <f t="shared" si="7"/>
+        <v>143187.68065182015</v>
       </c>
       <c r="K39" s="11">
-        <f t="shared" si="5"/>
-        <v>142883.01340248098</v>
+        <f t="shared" si="8"/>
+        <v>71593.840325910074</v>
       </c>
     </row>
     <row r="40" spans="4:11" x14ac:dyDescent="0.25">
@@ -2182,32 +2182,32 @@
         <v>39</v>
       </c>
       <c r="E40" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="F40" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="G40" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="H40" s="4" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I40" s="8">
-        <f>IF(G40=1,$B$6,IF(H40,0,I39*$B$14))</f>
-        <v>4917.6157002005075</v>
+        <f t="shared" si="11"/>
+        <v>4930.2012891925815</v>
       </c>
       <c r="J40" s="8">
-        <f t="shared" si="4"/>
-        <v>284975.82982661936</v>
+        <f t="shared" si="7"/>
+        <v>142852.58235435505</v>
       </c>
       <c r="K40" s="11">
-        <f t="shared" si="5"/>
-        <v>142487.91491330968</v>
+        <f t="shared" si="8"/>
+        <v>71426.291177177525</v>
       </c>
     </row>
     <row r="41" spans="4:11" x14ac:dyDescent="0.25">
@@ -2215,32 +2215,32 @@
         <v>40</v>
       </c>
       <c r="E41" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="F41" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="G41" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="H41" s="4" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I41" s="8">
-        <f>IF(G41=1,$B$6,IF(H41,0,I40*$B$14))</f>
-        <v>4904.0175650044002</v>
+        <f t="shared" si="11"/>
+        <v>4918.6632710429203</v>
       </c>
       <c r="J41" s="8">
-        <f t="shared" si="4"/>
-        <v>284187.81789200503</v>
+        <f t="shared" si="7"/>
+        <v>142518.2682784686</v>
       </c>
       <c r="K41" s="11">
-        <f t="shared" si="5"/>
-        <v>142093.90894600251</v>
+        <f t="shared" si="8"/>
+        <v>71259.134139234302</v>
       </c>
     </row>
     <row r="42" spans="4:11" x14ac:dyDescent="0.25">
@@ -2248,32 +2248,32 @@
         <v>41</v>
       </c>
       <c r="E42" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="F42" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="G42" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="H42" s="4" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I42" s="8">
-        <f>IF(G42=1,$B$6,IF(H42,0,I41*$B$14))</f>
-        <v>4890.4570312176111</v>
+        <f t="shared" si="11"/>
+        <v>4907.1522550083882</v>
       </c>
       <c r="J42" s="8">
-        <f t="shared" si="4"/>
-        <v>283401.98495906056</v>
+        <f t="shared" si="7"/>
+        <v>142184.73658886805</v>
       </c>
       <c r="K42" s="11">
-        <f t="shared" si="5"/>
-        <v>141700.99247953028</v>
+        <f t="shared" si="8"/>
+        <v>71092.368294434025</v>
       </c>
     </row>
     <row r="43" spans="4:11" x14ac:dyDescent="0.25">
@@ -2281,32 +2281,32 @@
         <v>42</v>
       </c>
       <c r="E43" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="F43" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="G43" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="H43" s="4" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I43" s="8">
-        <f>IF(G43=1,$B$6,IF(H43,0,I42*$B$14))</f>
-        <v>4876.9339948651486</v>
+        <f t="shared" si="11"/>
+        <v>4895.6681778966586</v>
       </c>
       <c r="J43" s="8">
-        <f t="shared" si="4"/>
-        <v>282618.32500243536</v>
+        <f t="shared" si="7"/>
+        <v>141851.98545455566</v>
       </c>
       <c r="K43" s="11">
-        <f t="shared" si="5"/>
-        <v>141309.16250121768</v>
+        <f t="shared" si="8"/>
+        <v>70925.99272727783</v>
       </c>
     </row>
     <row r="44" spans="4:11" x14ac:dyDescent="0.25">
@@ -2314,32 +2314,32 @@
         <v>43</v>
       </c>
       <c r="E44" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="F44" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="G44" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="H44" s="4" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I44" s="8">
-        <f>IF(G44=1,$B$6,IF(H44,0,I43*$B$14))</f>
-        <v>4863.4483522595328</v>
+        <f t="shared" si="11"/>
+        <v>4884.2109766632902</v>
       </c>
       <c r="J44" s="8">
-        <f t="shared" si="4"/>
-        <v>281836.83201343991</v>
+        <f t="shared" si="7"/>
+        <v>141520.01304881883</v>
       </c>
       <c r="K44" s="11">
-        <f t="shared" si="5"/>
-        <v>140918.41600671996</v>
+        <f t="shared" si="8"/>
+        <v>70760.006524409415</v>
       </c>
     </row>
     <row r="45" spans="4:11" x14ac:dyDescent="0.25">
@@ -2347,32 +2347,32 @@
         <v>44</v>
       </c>
       <c r="E45" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="F45" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="G45" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="H45" s="4" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I45" s="8">
-        <f>IF(G45=1,$B$6,IF(H45,0,I44*$B$14))</f>
-        <v>4849.9999999999991</v>
+        <f t="shared" si="11"/>
+        <v>4872.780588411385</v>
       </c>
       <c r="J45" s="8">
-        <f t="shared" si="4"/>
-        <v>281057.49999999994</v>
+        <f t="shared" si="7"/>
+        <v>141188.81754921988</v>
       </c>
       <c r="K45" s="11">
-        <f t="shared" si="5"/>
-        <v>140528.74999999997</v>
+        <f t="shared" si="8"/>
+        <v>70594.408774609939</v>
       </c>
     </row>
     <row r="46" spans="4:11" x14ac:dyDescent="0.25">
@@ -2380,32 +2380,32 @@
         <v>45</v>
       </c>
       <c r="E46" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="F46" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="G46" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="H46" s="4" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I46" s="8">
-        <f>IF(G46=1,$B$6,IF(H46,0,I45*$B$14))</f>
-        <v>4836.5888349717052</v>
+        <f t="shared" si="11"/>
+        <v>4861.376950391239</v>
       </c>
       <c r="J46" s="8">
-        <f t="shared" si="4"/>
-        <v>280280.32298661029</v>
+        <f t="shared" si="7"/>
+        <v>140858.39713758614</v>
       </c>
       <c r="K46" s="11">
-        <f t="shared" si="5"/>
-        <v>140140.16149330515</v>
+        <f t="shared" si="8"/>
+        <v>70429.198568793072</v>
       </c>
     </row>
     <row r="47" spans="4:11" x14ac:dyDescent="0.25">
@@ -2413,32 +2413,32 @@
         <v>46</v>
       </c>
       <c r="E47" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="F47" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="G47" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="H47" s="4" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I47" s="8">
-        <f>IF(G47=1,$B$6,IF(H47,0,I46*$B$14))</f>
-        <v>4823.21475434494</v>
+        <f t="shared" si="11"/>
+        <v>4850.0000000000018</v>
       </c>
       <c r="J47" s="8">
-        <f t="shared" si="4"/>
-        <v>279505.29501428927</v>
+        <f t="shared" si="7"/>
+        <v>140528.75000000006</v>
       </c>
       <c r="K47" s="11">
-        <f t="shared" si="5"/>
-        <v>139752.64750714463</v>
+        <f t="shared" si="8"/>
+        <v>70264.375000000029</v>
       </c>
     </row>
     <row r="48" spans="4:11" x14ac:dyDescent="0.25">
@@ -2446,31 +2446,31 @@
         <v>47</v>
       </c>
       <c r="E48" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="F48" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="G48" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="H48" s="4" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="I48" s="8">
-        <f>IF(G48=1,$B$6,IF(H48,0,I47*$B$14))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J48" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K48" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -2479,31 +2479,31 @@
         <v>48</v>
       </c>
       <c r="E49" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="F49" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="G49" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="H49" s="4" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="I49" s="8">
-        <f>IF(G49=1,$B$6,IF(H49,0,I48*$B$14))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J49" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K49" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -2512,32 +2512,32 @@
         <v>49</v>
       </c>
       <c r="E50" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="F50" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="G50" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H50" s="4" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I50" s="8">
-        <f>IF(G50=1,$B$6,IF(H50,0,I49*$B$14))</f>
+        <f t="shared" si="11"/>
         <v>5000</v>
       </c>
       <c r="J50" s="8">
-        <f t="shared" si="4"/>
-        <v>289750</v>
+        <f t="shared" si="7"/>
+        <v>144875</v>
       </c>
       <c r="K50" s="11">
-        <f t="shared" si="5"/>
-        <v>144875</v>
+        <f t="shared" si="8"/>
+        <v>72437.5</v>
       </c>
     </row>
     <row r="51" spans="4:11" x14ac:dyDescent="0.25">
@@ -2545,32 +2545,32 @@
         <v>50</v>
       </c>
       <c r="E51" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="F51" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="G51" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="H51" s="4" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I51" s="8">
-        <f>IF(G51=1,$B$6,IF(H51,0,I50*$B$14))</f>
-        <v>4986.1740566718618</v>
+        <f t="shared" si="11"/>
+        <v>4988.2986337951825</v>
       </c>
       <c r="J51" s="8">
-        <f t="shared" si="4"/>
-        <v>288948.78658413433</v>
+        <f t="shared" si="7"/>
+        <v>144535.95291421542</v>
       </c>
       <c r="K51" s="11">
-        <f t="shared" si="5"/>
-        <v>144474.39329206717</v>
+        <f t="shared" si="8"/>
+        <v>72267.97645710771</v>
       </c>
     </row>
     <row r="52" spans="4:11" x14ac:dyDescent="0.25">
@@ -2578,32 +2578,32 @@
         <v>51</v>
       </c>
       <c r="E52" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="F52" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="G52" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="H52" s="4" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I52" s="8">
-        <f>IF(G52=1,$B$6,IF(H52,0,I51*$B$14))</f>
-        <v>4972.3863446855057</v>
+        <f t="shared" si="11"/>
+        <v>4976.6246519845763</v>
       </c>
       <c r="J52" s="8">
-        <f t="shared" si="4"/>
-        <v>288149.78867452504</v>
+        <f t="shared" si="7"/>
+        <v>144197.69929125308</v>
       </c>
       <c r="K52" s="11">
-        <f t="shared" si="5"/>
-        <v>144074.89433726252</v>
+        <f t="shared" si="8"/>
+        <v>72098.849645626542</v>
       </c>
     </row>
     <row r="53" spans="4:11" x14ac:dyDescent="0.25">
@@ -2611,32 +2611,32 @@
         <v>52</v>
       </c>
       <c r="E53" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="F53" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="G53" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="H53" s="4" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I53" s="8">
-        <f>IF(G53=1,$B$6,IF(H53,0,I52*$B$14))</f>
-        <v>4958.6367583240599</v>
+        <f t="shared" si="11"/>
+        <v>4964.9779904812176</v>
       </c>
       <c r="J53" s="8">
-        <f t="shared" si="4"/>
-        <v>287353.00014487922</v>
+        <f t="shared" si="7"/>
+        <v>143860.23727419326</v>
       </c>
       <c r="K53" s="11">
-        <f t="shared" si="5"/>
-        <v>143676.50007243961</v>
+        <f t="shared" si="8"/>
+        <v>71930.118637096632</v>
       </c>
     </row>
     <row r="54" spans="4:11" x14ac:dyDescent="0.25">
@@ -2644,32 +2644,32 @@
         <v>53</v>
       </c>
       <c r="E54" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="F54" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="G54" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="H54" s="4" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I54" s="8">
-        <f>IF(G54=1,$B$6,IF(H54,0,I53*$B$14))</f>
-        <v>4944.9251921629775</v>
+        <f t="shared" si="11"/>
+        <v>4953.3585853481218</v>
       </c>
       <c r="J54" s="8">
-        <f t="shared" si="4"/>
-        <v>286558.41488584451</v>
+        <f t="shared" si="7"/>
+        <v>143523.56501046181</v>
       </c>
       <c r="K54" s="11">
-        <f t="shared" si="5"/>
-        <v>143279.20744292226</v>
+        <f t="shared" si="8"/>
+        <v>71761.782505230905</v>
       </c>
     </row>
     <row r="55" spans="4:11" x14ac:dyDescent="0.25">
@@ -2677,32 +2677,32 @@
         <v>54</v>
       </c>
       <c r="E55" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="F55" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="G55" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="H55" s="4" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I55" s="8">
-        <f>IF(G55=1,$B$6,IF(H55,0,I54*$B$14))</f>
-        <v>4931.2515410692313</v>
+        <f t="shared" si="11"/>
+        <v>4941.7663727979343</v>
       </c>
       <c r="J55" s="8">
-        <f t="shared" si="4"/>
-        <v>285766.02680496196</v>
+        <f t="shared" si="7"/>
+        <v>143187.68065182015</v>
       </c>
       <c r="K55" s="11">
-        <f t="shared" si="5"/>
-        <v>142883.01340248098</v>
+        <f t="shared" si="8"/>
+        <v>71593.840325910074</v>
       </c>
     </row>
     <row r="56" spans="4:11" x14ac:dyDescent="0.25">
@@ -2710,32 +2710,32 @@
         <v>55</v>
       </c>
       <c r="E56" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="F56" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="G56" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="H56" s="4" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I56" s="8">
-        <f>IF(G56=1,$B$6,IF(H56,0,I55*$B$14))</f>
-        <v>4917.6157002005075</v>
+        <f t="shared" si="11"/>
+        <v>4930.2012891925815</v>
       </c>
       <c r="J56" s="8">
-        <f t="shared" si="4"/>
-        <v>284975.82982661936</v>
+        <f t="shared" si="7"/>
+        <v>142852.58235435505</v>
       </c>
       <c r="K56" s="11">
-        <f t="shared" si="5"/>
-        <v>142487.91491330968</v>
+        <f t="shared" si="8"/>
+        <v>71426.291177177525</v>
       </c>
     </row>
     <row r="57" spans="4:11" x14ac:dyDescent="0.25">
@@ -2743,32 +2743,32 @@
         <v>56</v>
       </c>
       <c r="E57" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="F57" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="G57" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="H57" s="4" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I57" s="8">
-        <f>IF(G57=1,$B$6,IF(H57,0,I56*$B$14))</f>
-        <v>4904.0175650044002</v>
+        <f t="shared" si="11"/>
+        <v>4918.6632710429203</v>
       </c>
       <c r="J57" s="8">
-        <f t="shared" si="4"/>
-        <v>284187.81789200503</v>
+        <f t="shared" si="7"/>
+        <v>142518.2682784686</v>
       </c>
       <c r="K57" s="11">
-        <f t="shared" si="5"/>
-        <v>142093.90894600251</v>
+        <f t="shared" si="8"/>
+        <v>71259.134139234302</v>
       </c>
     </row>
     <row r="58" spans="4:11" x14ac:dyDescent="0.25">
@@ -2776,32 +2776,32 @@
         <v>57</v>
       </c>
       <c r="E58" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="F58" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="G58" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="H58" s="4" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I58" s="8">
-        <f>IF(G58=1,$B$6,IF(H58,0,I57*$B$14))</f>
-        <v>4890.4570312176111</v>
+        <f t="shared" si="11"/>
+        <v>4907.1522550083882</v>
       </c>
       <c r="J58" s="8">
-        <f t="shared" si="4"/>
-        <v>283401.98495906056</v>
+        <f t="shared" si="7"/>
+        <v>142184.73658886805</v>
       </c>
       <c r="K58" s="11">
-        <f t="shared" si="5"/>
-        <v>141700.99247953028</v>
+        <f t="shared" si="8"/>
+        <v>71092.368294434025</v>
       </c>
     </row>
     <row r="59" spans="4:11" x14ac:dyDescent="0.25">
@@ -2809,32 +2809,32 @@
         <v>58</v>
       </c>
       <c r="E59" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="F59" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="G59" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="H59" s="4" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I59" s="8">
-        <f>IF(G59=1,$B$6,IF(H59,0,I58*$B$14))</f>
-        <v>4876.9339948651486</v>
+        <f t="shared" si="11"/>
+        <v>4895.6681778966586</v>
       </c>
       <c r="J59" s="8">
-        <f t="shared" si="4"/>
-        <v>282618.32500243536</v>
+        <f t="shared" si="7"/>
+        <v>141851.98545455566</v>
       </c>
       <c r="K59" s="11">
-        <f t="shared" si="5"/>
-        <v>141309.16250121768</v>
+        <f t="shared" si="8"/>
+        <v>70925.99272727783</v>
       </c>
     </row>
     <row r="60" spans="4:11" x14ac:dyDescent="0.25">
@@ -2842,32 +2842,32 @@
         <v>59</v>
       </c>
       <c r="E60" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="F60" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="G60" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="H60" s="4" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I60" s="8">
-        <f>IF(G60=1,$B$6,IF(H60,0,I59*$B$14))</f>
-        <v>4863.4483522595328</v>
+        <f t="shared" si="11"/>
+        <v>4884.2109766632902</v>
       </c>
       <c r="J60" s="8">
-        <f t="shared" si="4"/>
-        <v>281836.83201343991</v>
+        <f t="shared" si="7"/>
+        <v>141520.01304881883</v>
       </c>
       <c r="K60" s="11">
-        <f t="shared" si="5"/>
-        <v>140918.41600671996</v>
+        <f t="shared" si="8"/>
+        <v>70760.006524409415</v>
       </c>
     </row>
     <row r="61" spans="4:11" x14ac:dyDescent="0.25">
@@ -2875,32 +2875,32 @@
         <v>60</v>
       </c>
       <c r="E61" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="F61" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="G61" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="H61" s="4" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I61" s="8">
-        <f>IF(G61=1,$B$6,IF(H61,0,I60*$B$14))</f>
-        <v>4849.9999999999991</v>
+        <f t="shared" si="11"/>
+        <v>4872.780588411385</v>
       </c>
       <c r="J61" s="8">
-        <f t="shared" si="4"/>
-        <v>281057.49999999994</v>
+        <f t="shared" si="7"/>
+        <v>141188.81754921988</v>
       </c>
       <c r="K61" s="11">
-        <f t="shared" si="5"/>
-        <v>140528.74999999997</v>
+        <f t="shared" si="8"/>
+        <v>70594.408774609939</v>
       </c>
     </row>
     <row r="62" spans="4:11" x14ac:dyDescent="0.25">
@@ -2908,32 +2908,32 @@
         <v>61</v>
       </c>
       <c r="E62" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="F62" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="G62" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="H62" s="4" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I62" s="8">
-        <f>IF(G62=1,$B$6,IF(H62,0,I61*$B$14))</f>
-        <v>4836.5888349717052</v>
+        <f t="shared" si="11"/>
+        <v>4861.376950391239</v>
       </c>
       <c r="J62" s="8">
-        <f t="shared" si="4"/>
-        <v>280280.32298661029</v>
+        <f t="shared" si="7"/>
+        <v>140858.39713758614</v>
       </c>
       <c r="K62" s="11">
-        <f t="shared" si="5"/>
-        <v>140140.16149330515</v>
+        <f t="shared" si="8"/>
+        <v>70429.198568793072</v>
       </c>
     </row>
     <row r="63" spans="4:11" x14ac:dyDescent="0.25">
@@ -2941,32 +2941,32 @@
         <v>62</v>
       </c>
       <c r="E63" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="F63" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="G63" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="H63" s="4" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I63" s="8">
-        <f>IF(G63=1,$B$6,IF(H63,0,I62*$B$14))</f>
-        <v>4823.21475434494</v>
+        <f t="shared" si="11"/>
+        <v>4850.0000000000018</v>
       </c>
       <c r="J63" s="8">
-        <f t="shared" si="4"/>
-        <v>279505.29501428927</v>
+        <f t="shared" si="7"/>
+        <v>140528.75000000006</v>
       </c>
       <c r="K63" s="11">
-        <f t="shared" si="5"/>
-        <v>139752.64750714463</v>
+        <f t="shared" si="8"/>
+        <v>70264.375000000029</v>
       </c>
     </row>
     <row r="64" spans="4:11" x14ac:dyDescent="0.25">
@@ -2974,31 +2974,31 @@
         <v>63</v>
       </c>
       <c r="E64" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="F64" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="G64" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="H64" s="4" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="I64" s="8">
-        <f>IF(G64=1,$B$6,IF(H64,0,I63*$B$14))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J64" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K64" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -3007,31 +3007,31 @@
         <v>64</v>
       </c>
       <c r="E65" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="F65" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="G65" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="H65" s="4" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="I65" s="8">
-        <f>IF(G65=1,$B$6,IF(H65,0,I64*$B$14))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J65" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K65" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -3040,32 +3040,32 @@
         <v>65</v>
       </c>
       <c r="E66" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="F66" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="G66" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H66" s="4" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I66" s="8">
-        <f>IF(G66=1,$B$6,IF(H66,0,I65*$B$14))</f>
+        <f t="shared" si="11"/>
         <v>5000</v>
       </c>
       <c r="J66" s="8">
-        <f t="shared" si="4"/>
-        <v>289750</v>
+        <f t="shared" si="7"/>
+        <v>144875</v>
       </c>
       <c r="K66" s="11">
-        <f t="shared" si="5"/>
-        <v>144875</v>
+        <f t="shared" si="8"/>
+        <v>72437.5</v>
       </c>
     </row>
     <row r="67" spans="4:11" x14ac:dyDescent="0.25">
@@ -3073,32 +3073,32 @@
         <v>66</v>
       </c>
       <c r="E67" s="4">
-        <f t="shared" ref="E67:E130" si="7">_xlfn.CEILING.MATH(D67/12)</f>
+        <f t="shared" ref="E67:E130" si="12">_xlfn.CEILING.MATH(D67/12)</f>
         <v>6</v>
       </c>
       <c r="F67" s="4">
-        <f t="shared" ref="F67:F130" si="8">_xlfn.CEILING.MATH(D67/$B$4)</f>
+        <f t="shared" ref="F67:F130" si="13">_xlfn.CEILING.MATH(D67/$B$4)</f>
         <v>5</v>
       </c>
       <c r="G67" s="4">
-        <f t="shared" ref="G67:G130" si="9">MOD(D67-1,$B$4+$B$5)+1</f>
+        <f t="shared" ref="G67:G130" si="14">MOD(D67-1,$B$4+$B$5)+1</f>
         <v>2</v>
       </c>
       <c r="H67" s="4" t="b">
-        <f t="shared" ref="H67:H130" si="10">G67&gt;$B$4</f>
+        <f t="shared" ref="H67:H130" si="15">G67&gt;$B$4</f>
         <v>0</v>
       </c>
       <c r="I67" s="8">
-        <f>IF(G67=1,$B$6,IF(H67,0,I66*$B$14))</f>
-        <v>4986.1740566718618</v>
+        <f t="shared" ref="I67:I98" si="16">IF(G67=1,$B$6,IF(H67,0,I66*$B$14))</f>
+        <v>4988.2986337951825</v>
       </c>
       <c r="J67" s="8">
-        <f t="shared" ref="J67:J130" si="11">I67*$B$7*30.5*(1-$B$11)</f>
-        <v>288948.78658413433</v>
+        <f t="shared" ref="J67:J130" si="17">I67*$B$7*30.5*(1-$B$11)</f>
+        <v>144535.95291421542</v>
       </c>
       <c r="K67" s="11">
-        <f t="shared" ref="K67:K130" si="12">J67*$B$8</f>
-        <v>144474.39329206717</v>
+        <f t="shared" ref="K67:K130" si="18">J67*$B$8</f>
+        <v>72267.97645710771</v>
       </c>
     </row>
     <row r="68" spans="4:11" x14ac:dyDescent="0.25">
@@ -3106,32 +3106,32 @@
         <v>67</v>
       </c>
       <c r="E68" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="F68" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="G68" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="H68" s="4" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I68" s="8">
-        <f>IF(G68=1,$B$6,IF(H68,0,I67*$B$14))</f>
-        <v>4972.3863446855057</v>
+        <f t="shared" si="16"/>
+        <v>4976.6246519845763</v>
       </c>
       <c r="J68" s="8">
-        <f t="shared" si="11"/>
-        <v>288149.78867452504</v>
+        <f t="shared" si="17"/>
+        <v>144197.69929125308</v>
       </c>
       <c r="K68" s="11">
-        <f t="shared" si="12"/>
-        <v>144074.89433726252</v>
+        <f t="shared" si="18"/>
+        <v>72098.849645626542</v>
       </c>
     </row>
     <row r="69" spans="4:11" x14ac:dyDescent="0.25">
@@ -3139,32 +3139,32 @@
         <v>68</v>
       </c>
       <c r="E69" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="F69" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="G69" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="H69" s="4" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I69" s="8">
-        <f>IF(G69=1,$B$6,IF(H69,0,I68*$B$14))</f>
-        <v>4958.6367583240599</v>
+        <f t="shared" si="16"/>
+        <v>4964.9779904812176</v>
       </c>
       <c r="J69" s="8">
-        <f t="shared" si="11"/>
-        <v>287353.00014487922</v>
+        <f t="shared" si="17"/>
+        <v>143860.23727419326</v>
       </c>
       <c r="K69" s="11">
-        <f t="shared" si="12"/>
-        <v>143676.50007243961</v>
+        <f t="shared" si="18"/>
+        <v>71930.118637096632</v>
       </c>
     </row>
     <row r="70" spans="4:11" x14ac:dyDescent="0.25">
@@ -3172,32 +3172,32 @@
         <v>69</v>
       </c>
       <c r="E70" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="F70" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="G70" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="H70" s="4" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I70" s="8">
-        <f>IF(G70=1,$B$6,IF(H70,0,I69*$B$14))</f>
-        <v>4944.9251921629775</v>
+        <f t="shared" si="16"/>
+        <v>4953.3585853481218</v>
       </c>
       <c r="J70" s="8">
-        <f t="shared" si="11"/>
-        <v>286558.41488584451</v>
+        <f t="shared" si="17"/>
+        <v>143523.56501046181</v>
       </c>
       <c r="K70" s="11">
-        <f t="shared" si="12"/>
-        <v>143279.20744292226</v>
+        <f t="shared" si="18"/>
+        <v>71761.782505230905</v>
       </c>
     </row>
     <row r="71" spans="4:11" x14ac:dyDescent="0.25">
@@ -3205,32 +3205,32 @@
         <v>70</v>
       </c>
       <c r="E71" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="F71" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="G71" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
       <c r="H71" s="4" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I71" s="8">
-        <f>IF(G71=1,$B$6,IF(H71,0,I70*$B$14))</f>
-        <v>4931.2515410692313</v>
+        <f t="shared" si="16"/>
+        <v>4941.7663727979343</v>
       </c>
       <c r="J71" s="8">
-        <f t="shared" si="11"/>
-        <v>285766.02680496196</v>
+        <f t="shared" si="17"/>
+        <v>143187.68065182015</v>
       </c>
       <c r="K71" s="11">
-        <f t="shared" si="12"/>
-        <v>142883.01340248098</v>
+        <f t="shared" si="18"/>
+        <v>71593.840325910074</v>
       </c>
     </row>
     <row r="72" spans="4:11" x14ac:dyDescent="0.25">
@@ -3238,32 +3238,32 @@
         <v>71</v>
       </c>
       <c r="E72" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="F72" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="G72" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="H72" s="4" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I72" s="8">
-        <f>IF(G72=1,$B$6,IF(H72,0,I71*$B$14))</f>
-        <v>4917.6157002005075</v>
+        <f t="shared" si="16"/>
+        <v>4930.2012891925815</v>
       </c>
       <c r="J72" s="8">
-        <f t="shared" si="11"/>
-        <v>284975.82982661936</v>
+        <f t="shared" si="17"/>
+        <v>142852.58235435505</v>
       </c>
       <c r="K72" s="11">
-        <f t="shared" si="12"/>
-        <v>142487.91491330968</v>
+        <f t="shared" si="18"/>
+        <v>71426.291177177525</v>
       </c>
     </row>
     <row r="73" spans="4:11" x14ac:dyDescent="0.25">
@@ -3271,32 +3271,32 @@
         <v>72</v>
       </c>
       <c r="E73" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="F73" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="G73" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
       <c r="H73" s="4" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I73" s="8">
-        <f>IF(G73=1,$B$6,IF(H73,0,I72*$B$14))</f>
-        <v>4904.0175650044002</v>
+        <f t="shared" si="16"/>
+        <v>4918.6632710429203</v>
       </c>
       <c r="J73" s="8">
-        <f t="shared" si="11"/>
-        <v>284187.81789200503</v>
+        <f t="shared" si="17"/>
+        <v>142518.2682784686</v>
       </c>
       <c r="K73" s="11">
-        <f t="shared" si="12"/>
-        <v>142093.90894600251</v>
+        <f t="shared" si="18"/>
+        <v>71259.134139234302</v>
       </c>
     </row>
     <row r="74" spans="4:11" x14ac:dyDescent="0.25">
@@ -3304,32 +3304,32 @@
         <v>73</v>
       </c>
       <c r="E74" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="F74" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="G74" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="H74" s="4" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I74" s="8">
-        <f>IF(G74=1,$B$6,IF(H74,0,I73*$B$14))</f>
-        <v>4890.4570312176111</v>
+        <f t="shared" si="16"/>
+        <v>4907.1522550083882</v>
       </c>
       <c r="J74" s="8">
-        <f t="shared" si="11"/>
-        <v>283401.98495906056</v>
+        <f t="shared" si="17"/>
+        <v>142184.73658886805</v>
       </c>
       <c r="K74" s="11">
-        <f t="shared" si="12"/>
-        <v>141700.99247953028</v>
+        <f t="shared" si="18"/>
+        <v>71092.368294434025</v>
       </c>
     </row>
     <row r="75" spans="4:11" x14ac:dyDescent="0.25">
@@ -3337,32 +3337,32 @@
         <v>74</v>
       </c>
       <c r="E75" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="F75" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="G75" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="H75" s="4" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I75" s="8">
-        <f>IF(G75=1,$B$6,IF(H75,0,I74*$B$14))</f>
-        <v>4876.9339948651486</v>
+        <f t="shared" si="16"/>
+        <v>4895.6681778966586</v>
       </c>
       <c r="J75" s="8">
-        <f t="shared" si="11"/>
-        <v>282618.32500243536</v>
+        <f t="shared" si="17"/>
+        <v>141851.98545455566</v>
       </c>
       <c r="K75" s="11">
-        <f t="shared" si="12"/>
-        <v>141309.16250121768</v>
+        <f t="shared" si="18"/>
+        <v>70925.99272727783</v>
       </c>
     </row>
     <row r="76" spans="4:11" x14ac:dyDescent="0.25">
@@ -3370,32 +3370,32 @@
         <v>75</v>
       </c>
       <c r="E76" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="F76" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="G76" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>11</v>
       </c>
       <c r="H76" s="4" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I76" s="8">
-        <f>IF(G76=1,$B$6,IF(H76,0,I75*$B$14))</f>
-        <v>4863.4483522595328</v>
+        <f t="shared" si="16"/>
+        <v>4884.2109766632902</v>
       </c>
       <c r="J76" s="8">
-        <f t="shared" si="11"/>
-        <v>281836.83201343991</v>
+        <f t="shared" si="17"/>
+        <v>141520.01304881883</v>
       </c>
       <c r="K76" s="11">
-        <f t="shared" si="12"/>
-        <v>140918.41600671996</v>
+        <f t="shared" si="18"/>
+        <v>70760.006524409415</v>
       </c>
     </row>
     <row r="77" spans="4:11" x14ac:dyDescent="0.25">
@@ -3403,32 +3403,32 @@
         <v>76</v>
       </c>
       <c r="E77" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="F77" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="G77" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>12</v>
       </c>
       <c r="H77" s="4" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I77" s="8">
-        <f>IF(G77=1,$B$6,IF(H77,0,I76*$B$14))</f>
-        <v>4849.9999999999991</v>
+        <f t="shared" si="16"/>
+        <v>4872.780588411385</v>
       </c>
       <c r="J77" s="8">
-        <f t="shared" si="11"/>
-        <v>281057.49999999994</v>
+        <f t="shared" si="17"/>
+        <v>141188.81754921988</v>
       </c>
       <c r="K77" s="11">
-        <f t="shared" si="12"/>
-        <v>140528.74999999997</v>
+        <f t="shared" si="18"/>
+        <v>70594.408774609939</v>
       </c>
     </row>
     <row r="78" spans="4:11" x14ac:dyDescent="0.25">
@@ -3436,32 +3436,32 @@
         <v>77</v>
       </c>
       <c r="E78" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="F78" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="G78" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>13</v>
       </c>
       <c r="H78" s="4" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I78" s="8">
-        <f>IF(G78=1,$B$6,IF(H78,0,I77*$B$14))</f>
-        <v>4836.5888349717052</v>
+        <f t="shared" si="16"/>
+        <v>4861.376950391239</v>
       </c>
       <c r="J78" s="8">
-        <f t="shared" si="11"/>
-        <v>280280.32298661029</v>
+        <f t="shared" si="17"/>
+        <v>140858.39713758614</v>
       </c>
       <c r="K78" s="11">
-        <f t="shared" si="12"/>
-        <v>140140.16149330515</v>
+        <f t="shared" si="18"/>
+        <v>70429.198568793072</v>
       </c>
     </row>
     <row r="79" spans="4:11" x14ac:dyDescent="0.25">
@@ -3469,32 +3469,32 @@
         <v>78</v>
       </c>
       <c r="E79" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="F79" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="G79" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>14</v>
       </c>
       <c r="H79" s="4" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I79" s="8">
-        <f>IF(G79=1,$B$6,IF(H79,0,I78*$B$14))</f>
-        <v>4823.21475434494</v>
+        <f t="shared" si="16"/>
+        <v>4850.0000000000018</v>
       </c>
       <c r="J79" s="8">
-        <f t="shared" si="11"/>
-        <v>279505.29501428927</v>
+        <f t="shared" si="17"/>
+        <v>140528.75000000006</v>
       </c>
       <c r="K79" s="11">
-        <f t="shared" si="12"/>
-        <v>139752.64750714463</v>
+        <f t="shared" si="18"/>
+        <v>70264.375000000029</v>
       </c>
     </row>
     <row r="80" spans="4:11" x14ac:dyDescent="0.25">
@@ -3502,31 +3502,31 @@
         <v>79</v>
       </c>
       <c r="E80" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="F80" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="G80" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>15</v>
       </c>
       <c r="H80" s="4" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="I80" s="8">
-        <f>IF(G80=1,$B$6,IF(H80,0,I79*$B$14))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J80" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K80" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -3535,31 +3535,31 @@
         <v>80</v>
       </c>
       <c r="E81" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="F81" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="G81" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="H81" s="4" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="I81" s="8">
-        <f>IF(G81=1,$B$6,IF(H81,0,I80*$B$14))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J81" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K81" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -3568,32 +3568,32 @@
         <v>81</v>
       </c>
       <c r="E82" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="F82" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="G82" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="H82" s="4" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I82" s="8">
-        <f>IF(G82=1,$B$6,IF(H82,0,I81*$B$14))</f>
+        <f t="shared" si="16"/>
         <v>5000</v>
       </c>
       <c r="J82" s="8">
-        <f t="shared" si="11"/>
-        <v>289750</v>
+        <f t="shared" si="17"/>
+        <v>144875</v>
       </c>
       <c r="K82" s="11">
-        <f t="shared" si="12"/>
-        <v>144875</v>
+        <f t="shared" si="18"/>
+        <v>72437.5</v>
       </c>
     </row>
     <row r="83" spans="4:11" x14ac:dyDescent="0.25">
@@ -3601,32 +3601,32 @@
         <v>82</v>
       </c>
       <c r="E83" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="F83" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="G83" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="H83" s="4" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I83" s="8">
-        <f>IF(G83=1,$B$6,IF(H83,0,I82*$B$14))</f>
-        <v>4986.1740566718618</v>
+        <f t="shared" si="16"/>
+        <v>4988.2986337951825</v>
       </c>
       <c r="J83" s="8">
-        <f t="shared" si="11"/>
-        <v>288948.78658413433</v>
+        <f t="shared" si="17"/>
+        <v>144535.95291421542</v>
       </c>
       <c r="K83" s="11">
-        <f t="shared" si="12"/>
-        <v>144474.39329206717</v>
+        <f t="shared" si="18"/>
+        <v>72267.97645710771</v>
       </c>
     </row>
     <row r="84" spans="4:11" x14ac:dyDescent="0.25">
@@ -3634,32 +3634,32 @@
         <v>83</v>
       </c>
       <c r="E84" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="F84" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="G84" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="H84" s="4" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I84" s="8">
-        <f>IF(G84=1,$B$6,IF(H84,0,I83*$B$14))</f>
-        <v>4972.3863446855057</v>
+        <f t="shared" si="16"/>
+        <v>4976.6246519845763</v>
       </c>
       <c r="J84" s="8">
-        <f t="shared" si="11"/>
-        <v>288149.78867452504</v>
+        <f t="shared" si="17"/>
+        <v>144197.69929125308</v>
       </c>
       <c r="K84" s="11">
-        <f t="shared" si="12"/>
-        <v>144074.89433726252</v>
+        <f t="shared" si="18"/>
+        <v>72098.849645626542</v>
       </c>
     </row>
     <row r="85" spans="4:11" x14ac:dyDescent="0.25">
@@ -3667,32 +3667,32 @@
         <v>84</v>
       </c>
       <c r="E85" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="F85" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="G85" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="H85" s="4" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I85" s="8">
-        <f>IF(G85=1,$B$6,IF(H85,0,I84*$B$14))</f>
-        <v>4958.6367583240599</v>
+        <f t="shared" si="16"/>
+        <v>4964.9779904812176</v>
       </c>
       <c r="J85" s="8">
-        <f t="shared" si="11"/>
-        <v>287353.00014487922</v>
+        <f t="shared" si="17"/>
+        <v>143860.23727419326</v>
       </c>
       <c r="K85" s="11">
-        <f t="shared" si="12"/>
-        <v>143676.50007243961</v>
+        <f t="shared" si="18"/>
+        <v>71930.118637096632</v>
       </c>
     </row>
     <row r="86" spans="4:11" x14ac:dyDescent="0.25">
@@ -3700,32 +3700,32 @@
         <v>85</v>
       </c>
       <c r="E86" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="F86" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="G86" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="H86" s="4" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I86" s="8">
-        <f>IF(G86=1,$B$6,IF(H86,0,I85*$B$14))</f>
-        <v>4944.9251921629775</v>
+        <f t="shared" si="16"/>
+        <v>4953.3585853481218</v>
       </c>
       <c r="J86" s="8">
-        <f t="shared" si="11"/>
-        <v>286558.41488584451</v>
+        <f t="shared" si="17"/>
+        <v>143523.56501046181</v>
       </c>
       <c r="K86" s="11">
-        <f t="shared" si="12"/>
-        <v>143279.20744292226</v>
+        <f t="shared" si="18"/>
+        <v>71761.782505230905</v>
       </c>
     </row>
     <row r="87" spans="4:11" x14ac:dyDescent="0.25">
@@ -3733,32 +3733,32 @@
         <v>86</v>
       </c>
       <c r="E87" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="F87" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="G87" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
       <c r="H87" s="4" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I87" s="8">
-        <f>IF(G87=1,$B$6,IF(H87,0,I86*$B$14))</f>
-        <v>4931.2515410692313</v>
+        <f t="shared" si="16"/>
+        <v>4941.7663727979343</v>
       </c>
       <c r="J87" s="8">
-        <f t="shared" si="11"/>
-        <v>285766.02680496196</v>
+        <f t="shared" si="17"/>
+        <v>143187.68065182015</v>
       </c>
       <c r="K87" s="11">
-        <f t="shared" si="12"/>
-        <v>142883.01340248098</v>
+        <f t="shared" si="18"/>
+        <v>71593.840325910074</v>
       </c>
     </row>
     <row r="88" spans="4:11" x14ac:dyDescent="0.25">
@@ -3766,32 +3766,32 @@
         <v>87</v>
       </c>
       <c r="E88" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="F88" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="G88" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="H88" s="4" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I88" s="8">
-        <f>IF(G88=1,$B$6,IF(H88,0,I87*$B$14))</f>
-        <v>4917.6157002005075</v>
+        <f t="shared" si="16"/>
+        <v>4930.2012891925815</v>
       </c>
       <c r="J88" s="8">
-        <f t="shared" si="11"/>
-        <v>284975.82982661936</v>
+        <f t="shared" si="17"/>
+        <v>142852.58235435505</v>
       </c>
       <c r="K88" s="11">
-        <f t="shared" si="12"/>
-        <v>142487.91491330968</v>
+        <f t="shared" si="18"/>
+        <v>71426.291177177525</v>
       </c>
     </row>
     <row r="89" spans="4:11" x14ac:dyDescent="0.25">
@@ -3799,32 +3799,32 @@
         <v>88</v>
       </c>
       <c r="E89" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="F89" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="G89" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
       <c r="H89" s="4" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I89" s="8">
-        <f>IF(G89=1,$B$6,IF(H89,0,I88*$B$14))</f>
-        <v>4904.0175650044002</v>
+        <f t="shared" si="16"/>
+        <v>4918.6632710429203</v>
       </c>
       <c r="J89" s="8">
-        <f t="shared" si="11"/>
-        <v>284187.81789200503</v>
+        <f t="shared" si="17"/>
+        <v>142518.2682784686</v>
       </c>
       <c r="K89" s="11">
-        <f t="shared" si="12"/>
-        <v>142093.90894600251</v>
+        <f t="shared" si="18"/>
+        <v>71259.134139234302</v>
       </c>
     </row>
     <row r="90" spans="4:11" x14ac:dyDescent="0.25">
@@ -3832,32 +3832,32 @@
         <v>89</v>
       </c>
       <c r="E90" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="F90" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="G90" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="H90" s="4" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I90" s="8">
-        <f>IF(G90=1,$B$6,IF(H90,0,I89*$B$14))</f>
-        <v>4890.4570312176111</v>
+        <f t="shared" si="16"/>
+        <v>4907.1522550083882</v>
       </c>
       <c r="J90" s="8">
-        <f t="shared" si="11"/>
-        <v>283401.98495906056</v>
+        <f t="shared" si="17"/>
+        <v>142184.73658886805</v>
       </c>
       <c r="K90" s="11">
-        <f t="shared" si="12"/>
-        <v>141700.99247953028</v>
+        <f t="shared" si="18"/>
+        <v>71092.368294434025</v>
       </c>
     </row>
     <row r="91" spans="4:11" x14ac:dyDescent="0.25">
@@ -3865,32 +3865,32 @@
         <v>90</v>
       </c>
       <c r="E91" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="F91" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="G91" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="H91" s="4" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I91" s="8">
-        <f>IF(G91=1,$B$6,IF(H91,0,I90*$B$14))</f>
-        <v>4876.9339948651486</v>
+        <f t="shared" si="16"/>
+        <v>4895.6681778966586</v>
       </c>
       <c r="J91" s="8">
-        <f t="shared" si="11"/>
-        <v>282618.32500243536</v>
+        <f t="shared" si="17"/>
+        <v>141851.98545455566</v>
       </c>
       <c r="K91" s="11">
-        <f t="shared" si="12"/>
-        <v>141309.16250121768</v>
+        <f t="shared" si="18"/>
+        <v>70925.99272727783</v>
       </c>
     </row>
     <row r="92" spans="4:11" x14ac:dyDescent="0.25">
@@ -3898,32 +3898,32 @@
         <v>91</v>
       </c>
       <c r="E92" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="F92" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="G92" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>11</v>
       </c>
       <c r="H92" s="4" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I92" s="8">
-        <f>IF(G92=1,$B$6,IF(H92,0,I91*$B$14))</f>
-        <v>4863.4483522595328</v>
+        <f t="shared" si="16"/>
+        <v>4884.2109766632902</v>
       </c>
       <c r="J92" s="8">
-        <f t="shared" si="11"/>
-        <v>281836.83201343991</v>
+        <f t="shared" si="17"/>
+        <v>141520.01304881883</v>
       </c>
       <c r="K92" s="11">
-        <f t="shared" si="12"/>
-        <v>140918.41600671996</v>
+        <f t="shared" si="18"/>
+        <v>70760.006524409415</v>
       </c>
     </row>
     <row r="93" spans="4:11" x14ac:dyDescent="0.25">
@@ -3931,32 +3931,32 @@
         <v>92</v>
       </c>
       <c r="E93" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="F93" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="G93" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>12</v>
       </c>
       <c r="H93" s="4" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I93" s="8">
-        <f>IF(G93=1,$B$6,IF(H93,0,I92*$B$14))</f>
-        <v>4849.9999999999991</v>
+        <f t="shared" si="16"/>
+        <v>4872.780588411385</v>
       </c>
       <c r="J93" s="8">
-        <f t="shared" si="11"/>
-        <v>281057.49999999994</v>
+        <f t="shared" si="17"/>
+        <v>141188.81754921988</v>
       </c>
       <c r="K93" s="11">
-        <f t="shared" si="12"/>
-        <v>140528.74999999997</v>
+        <f t="shared" si="18"/>
+        <v>70594.408774609939</v>
       </c>
     </row>
     <row r="94" spans="4:11" x14ac:dyDescent="0.25">
@@ -3964,32 +3964,32 @@
         <v>93</v>
       </c>
       <c r="E94" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="F94" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="G94" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>13</v>
       </c>
       <c r="H94" s="4" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I94" s="8">
-        <f>IF(G94=1,$B$6,IF(H94,0,I93*$B$14))</f>
-        <v>4836.5888349717052</v>
+        <f t="shared" si="16"/>
+        <v>4861.376950391239</v>
       </c>
       <c r="J94" s="8">
-        <f t="shared" si="11"/>
-        <v>280280.32298661029</v>
+        <f t="shared" si="17"/>
+        <v>140858.39713758614</v>
       </c>
       <c r="K94" s="11">
-        <f t="shared" si="12"/>
-        <v>140140.16149330515</v>
+        <f t="shared" si="18"/>
+        <v>70429.198568793072</v>
       </c>
     </row>
     <row r="95" spans="4:11" x14ac:dyDescent="0.25">
@@ -3997,32 +3997,32 @@
         <v>94</v>
       </c>
       <c r="E95" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="F95" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="G95" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>14</v>
       </c>
       <c r="H95" s="4" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I95" s="8">
-        <f>IF(G95=1,$B$6,IF(H95,0,I94*$B$14))</f>
-        <v>4823.21475434494</v>
+        <f t="shared" si="16"/>
+        <v>4850.0000000000018</v>
       </c>
       <c r="J95" s="8">
-        <f t="shared" si="11"/>
-        <v>279505.29501428927</v>
+        <f t="shared" si="17"/>
+        <v>140528.75000000006</v>
       </c>
       <c r="K95" s="11">
-        <f t="shared" si="12"/>
-        <v>139752.64750714463</v>
+        <f t="shared" si="18"/>
+        <v>70264.375000000029</v>
       </c>
     </row>
     <row r="96" spans="4:11" x14ac:dyDescent="0.25">
@@ -4030,31 +4030,31 @@
         <v>95</v>
       </c>
       <c r="E96" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="F96" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="G96" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>15</v>
       </c>
       <c r="H96" s="4" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="I96" s="8">
-        <f>IF(G96=1,$B$6,IF(H96,0,I95*$B$14))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J96" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K96" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -4063,31 +4063,31 @@
         <v>96</v>
       </c>
       <c r="E97" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="F97" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="G97" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="H97" s="4" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="I97" s="8">
-        <f>IF(G97=1,$B$6,IF(H97,0,I96*$B$14))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J97" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K97" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -4096,32 +4096,32 @@
         <v>97</v>
       </c>
       <c r="E98" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>9</v>
       </c>
       <c r="F98" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="G98" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="H98" s="4" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I98" s="8">
-        <f>IF(G98=1,$B$6,IF(H98,0,I97*$B$14))</f>
+        <f t="shared" si="16"/>
         <v>5000</v>
       </c>
       <c r="J98" s="8">
-        <f t="shared" si="11"/>
-        <v>289750</v>
+        <f t="shared" si="17"/>
+        <v>144875</v>
       </c>
       <c r="K98" s="11">
-        <f t="shared" si="12"/>
-        <v>144875</v>
+        <f t="shared" si="18"/>
+        <v>72437.5</v>
       </c>
     </row>
     <row r="99" spans="4:11" x14ac:dyDescent="0.25">
@@ -4129,32 +4129,32 @@
         <v>98</v>
       </c>
       <c r="E99" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>9</v>
       </c>
       <c r="F99" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="G99" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="H99" s="4" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I99" s="8">
-        <f>IF(G99=1,$B$6,IF(H99,0,I98*$B$14))</f>
-        <v>4986.1740566718618</v>
+        <f t="shared" ref="I99:I130" si="19">IF(G99=1,$B$6,IF(H99,0,I98*$B$14))</f>
+        <v>4988.2986337951825</v>
       </c>
       <c r="J99" s="8">
-        <f t="shared" si="11"/>
-        <v>288948.78658413433</v>
+        <f t="shared" si="17"/>
+        <v>144535.95291421542</v>
       </c>
       <c r="K99" s="11">
-        <f t="shared" si="12"/>
-        <v>144474.39329206717</v>
+        <f t="shared" si="18"/>
+        <v>72267.97645710771</v>
       </c>
     </row>
     <row r="100" spans="4:11" x14ac:dyDescent="0.25">
@@ -4162,32 +4162,32 @@
         <v>99</v>
       </c>
       <c r="E100" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>9</v>
       </c>
       <c r="F100" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="G100" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="H100" s="4" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I100" s="8">
-        <f>IF(G100=1,$B$6,IF(H100,0,I99*$B$14))</f>
-        <v>4972.3863446855057</v>
+        <f t="shared" si="19"/>
+        <v>4976.6246519845763</v>
       </c>
       <c r="J100" s="8">
-        <f t="shared" si="11"/>
-        <v>288149.78867452504</v>
+        <f t="shared" si="17"/>
+        <v>144197.69929125308</v>
       </c>
       <c r="K100" s="11">
-        <f t="shared" si="12"/>
-        <v>144074.89433726252</v>
+        <f t="shared" si="18"/>
+        <v>72098.849645626542</v>
       </c>
     </row>
     <row r="101" spans="4:11" x14ac:dyDescent="0.25">
@@ -4195,32 +4195,32 @@
         <v>100</v>
       </c>
       <c r="E101" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>9</v>
       </c>
       <c r="F101" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="G101" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="H101" s="4" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I101" s="8">
-        <f>IF(G101=1,$B$6,IF(H101,0,I100*$B$14))</f>
-        <v>4958.6367583240599</v>
+        <f t="shared" si="19"/>
+        <v>4964.9779904812176</v>
       </c>
       <c r="J101" s="8">
-        <f t="shared" si="11"/>
-        <v>287353.00014487922</v>
+        <f t="shared" si="17"/>
+        <v>143860.23727419326</v>
       </c>
       <c r="K101" s="11">
-        <f t="shared" si="12"/>
-        <v>143676.50007243961</v>
+        <f t="shared" si="18"/>
+        <v>71930.118637096632</v>
       </c>
     </row>
     <row r="102" spans="4:11" x14ac:dyDescent="0.25">
@@ -4228,32 +4228,32 @@
         <v>101</v>
       </c>
       <c r="E102" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>9</v>
       </c>
       <c r="F102" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="G102" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="H102" s="4" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I102" s="8">
-        <f>IF(G102=1,$B$6,IF(H102,0,I101*$B$14))</f>
-        <v>4944.9251921629775</v>
+        <f t="shared" si="19"/>
+        <v>4953.3585853481218</v>
       </c>
       <c r="J102" s="8">
-        <f t="shared" si="11"/>
-        <v>286558.41488584451</v>
+        <f t="shared" si="17"/>
+        <v>143523.56501046181</v>
       </c>
       <c r="K102" s="11">
-        <f t="shared" si="12"/>
-        <v>143279.20744292226</v>
+        <f t="shared" si="18"/>
+        <v>71761.782505230905</v>
       </c>
     </row>
     <row r="103" spans="4:11" x14ac:dyDescent="0.25">
@@ -4261,32 +4261,32 @@
         <v>102</v>
       </c>
       <c r="E103" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>9</v>
       </c>
       <c r="F103" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="G103" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
       <c r="H103" s="4" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I103" s="8">
-        <f>IF(G103=1,$B$6,IF(H103,0,I102*$B$14))</f>
-        <v>4931.2515410692313</v>
+        <f t="shared" si="19"/>
+        <v>4941.7663727979343</v>
       </c>
       <c r="J103" s="8">
-        <f t="shared" si="11"/>
-        <v>285766.02680496196</v>
+        <f t="shared" si="17"/>
+        <v>143187.68065182015</v>
       </c>
       <c r="K103" s="11">
-        <f t="shared" si="12"/>
-        <v>142883.01340248098</v>
+        <f t="shared" si="18"/>
+        <v>71593.840325910074</v>
       </c>
     </row>
     <row r="104" spans="4:11" x14ac:dyDescent="0.25">
@@ -4294,32 +4294,32 @@
         <v>103</v>
       </c>
       <c r="E104" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>9</v>
       </c>
       <c r="F104" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="G104" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="H104" s="4" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I104" s="8">
-        <f>IF(G104=1,$B$6,IF(H104,0,I103*$B$14))</f>
-        <v>4917.6157002005075</v>
+        <f t="shared" si="19"/>
+        <v>4930.2012891925815</v>
       </c>
       <c r="J104" s="8">
-        <f t="shared" si="11"/>
-        <v>284975.82982661936</v>
+        <f t="shared" si="17"/>
+        <v>142852.58235435505</v>
       </c>
       <c r="K104" s="11">
-        <f t="shared" si="12"/>
-        <v>142487.91491330968</v>
+        <f t="shared" si="18"/>
+        <v>71426.291177177525</v>
       </c>
     </row>
     <row r="105" spans="4:11" x14ac:dyDescent="0.25">
@@ -4327,32 +4327,32 @@
         <v>104</v>
       </c>
       <c r="E105" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>9</v>
       </c>
       <c r="F105" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="G105" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
       <c r="H105" s="4" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I105" s="8">
-        <f>IF(G105=1,$B$6,IF(H105,0,I104*$B$14))</f>
-        <v>4904.0175650044002</v>
+        <f t="shared" si="19"/>
+        <v>4918.6632710429203</v>
       </c>
       <c r="J105" s="8">
-        <f t="shared" si="11"/>
-        <v>284187.81789200503</v>
+        <f t="shared" si="17"/>
+        <v>142518.2682784686</v>
       </c>
       <c r="K105" s="11">
-        <f t="shared" si="12"/>
-        <v>142093.90894600251</v>
+        <f t="shared" si="18"/>
+        <v>71259.134139234302</v>
       </c>
     </row>
     <row r="106" spans="4:11" x14ac:dyDescent="0.25">
@@ -4360,32 +4360,32 @@
         <v>105</v>
       </c>
       <c r="E106" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>9</v>
       </c>
       <c r="F106" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="G106" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="H106" s="4" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I106" s="8">
-        <f>IF(G106=1,$B$6,IF(H106,0,I105*$B$14))</f>
-        <v>4890.4570312176111</v>
+        <f t="shared" si="19"/>
+        <v>4907.1522550083882</v>
       </c>
       <c r="J106" s="8">
-        <f t="shared" si="11"/>
-        <v>283401.98495906056</v>
+        <f t="shared" si="17"/>
+        <v>142184.73658886805</v>
       </c>
       <c r="K106" s="11">
-        <f t="shared" si="12"/>
-        <v>141700.99247953028</v>
+        <f t="shared" si="18"/>
+        <v>71092.368294434025</v>
       </c>
     </row>
     <row r="107" spans="4:11" x14ac:dyDescent="0.25">
@@ -4393,32 +4393,32 @@
         <v>106</v>
       </c>
       <c r="E107" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>9</v>
       </c>
       <c r="F107" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="G107" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="H107" s="4" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I107" s="8">
-        <f>IF(G107=1,$B$6,IF(H107,0,I106*$B$14))</f>
-        <v>4876.9339948651486</v>
+        <f t="shared" si="19"/>
+        <v>4895.6681778966586</v>
       </c>
       <c r="J107" s="8">
-        <f t="shared" si="11"/>
-        <v>282618.32500243536</v>
+        <f t="shared" si="17"/>
+        <v>141851.98545455566</v>
       </c>
       <c r="K107" s="11">
-        <f t="shared" si="12"/>
-        <v>141309.16250121768</v>
+        <f t="shared" si="18"/>
+        <v>70925.99272727783</v>
       </c>
     </row>
     <row r="108" spans="4:11" x14ac:dyDescent="0.25">
@@ -4426,32 +4426,32 @@
         <v>107</v>
       </c>
       <c r="E108" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>9</v>
       </c>
       <c r="F108" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="G108" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>11</v>
       </c>
       <c r="H108" s="4" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I108" s="8">
-        <f>IF(G108=1,$B$6,IF(H108,0,I107*$B$14))</f>
-        <v>4863.4483522595328</v>
+        <f t="shared" si="19"/>
+        <v>4884.2109766632902</v>
       </c>
       <c r="J108" s="8">
-        <f t="shared" si="11"/>
-        <v>281836.83201343991</v>
+        <f t="shared" si="17"/>
+        <v>141520.01304881883</v>
       </c>
       <c r="K108" s="11">
-        <f t="shared" si="12"/>
-        <v>140918.41600671996</v>
+        <f t="shared" si="18"/>
+        <v>70760.006524409415</v>
       </c>
     </row>
     <row r="109" spans="4:11" x14ac:dyDescent="0.25">
@@ -4459,32 +4459,32 @@
         <v>108</v>
       </c>
       <c r="E109" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>9</v>
       </c>
       <c r="F109" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="G109" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>12</v>
       </c>
       <c r="H109" s="4" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I109" s="8">
-        <f>IF(G109=1,$B$6,IF(H109,0,I108*$B$14))</f>
-        <v>4849.9999999999991</v>
+        <f t="shared" si="19"/>
+        <v>4872.780588411385</v>
       </c>
       <c r="J109" s="8">
-        <f t="shared" si="11"/>
-        <v>281057.49999999994</v>
+        <f t="shared" si="17"/>
+        <v>141188.81754921988</v>
       </c>
       <c r="K109" s="11">
-        <f t="shared" si="12"/>
-        <v>140528.74999999997</v>
+        <f t="shared" si="18"/>
+        <v>70594.408774609939</v>
       </c>
     </row>
     <row r="110" spans="4:11" x14ac:dyDescent="0.25">
@@ -4492,32 +4492,32 @@
         <v>109</v>
       </c>
       <c r="E110" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="F110" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="G110" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>13</v>
       </c>
       <c r="H110" s="4" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I110" s="8">
-        <f>IF(G110=1,$B$6,IF(H110,0,I109*$B$14))</f>
-        <v>4836.5888349717052</v>
+        <f t="shared" si="19"/>
+        <v>4861.376950391239</v>
       </c>
       <c r="J110" s="8">
-        <f t="shared" si="11"/>
-        <v>280280.32298661029</v>
+        <f t="shared" si="17"/>
+        <v>140858.39713758614</v>
       </c>
       <c r="K110" s="11">
-        <f t="shared" si="12"/>
-        <v>140140.16149330515</v>
+        <f t="shared" si="18"/>
+        <v>70429.198568793072</v>
       </c>
     </row>
     <row r="111" spans="4:11" x14ac:dyDescent="0.25">
@@ -4525,32 +4525,32 @@
         <v>110</v>
       </c>
       <c r="E111" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="F111" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="G111" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>14</v>
       </c>
       <c r="H111" s="4" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I111" s="8">
-        <f>IF(G111=1,$B$6,IF(H111,0,I110*$B$14))</f>
-        <v>4823.21475434494</v>
+        <f t="shared" si="19"/>
+        <v>4850.0000000000018</v>
       </c>
       <c r="J111" s="8">
-        <f t="shared" si="11"/>
-        <v>279505.29501428927</v>
+        <f t="shared" si="17"/>
+        <v>140528.75000000006</v>
       </c>
       <c r="K111" s="11">
-        <f t="shared" si="12"/>
-        <v>139752.64750714463</v>
+        <f t="shared" si="18"/>
+        <v>70264.375000000029</v>
       </c>
     </row>
     <row r="112" spans="4:11" x14ac:dyDescent="0.25">
@@ -4558,31 +4558,31 @@
         <v>111</v>
       </c>
       <c r="E112" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="F112" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="G112" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>15</v>
       </c>
       <c r="H112" s="4" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="I112" s="8">
-        <f>IF(G112=1,$B$6,IF(H112,0,I111*$B$14))</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J112" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K112" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -4591,31 +4591,31 @@
         <v>112</v>
       </c>
       <c r="E113" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="F113" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="G113" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="H113" s="4" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="I113" s="8">
-        <f>IF(G113=1,$B$6,IF(H113,0,I112*$B$14))</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J113" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K113" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -4624,32 +4624,32 @@
         <v>113</v>
       </c>
       <c r="E114" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="F114" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>9</v>
       </c>
       <c r="G114" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="H114" s="4" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I114" s="8">
-        <f>IF(G114=1,$B$6,IF(H114,0,I113*$B$14))</f>
+        <f t="shared" si="19"/>
         <v>5000</v>
       </c>
       <c r="J114" s="8">
-        <f t="shared" si="11"/>
-        <v>289750</v>
+        <f t="shared" si="17"/>
+        <v>144875</v>
       </c>
       <c r="K114" s="11">
-        <f t="shared" si="12"/>
-        <v>144875</v>
+        <f t="shared" si="18"/>
+        <v>72437.5</v>
       </c>
     </row>
     <row r="115" spans="4:11" x14ac:dyDescent="0.25">
@@ -4657,32 +4657,32 @@
         <v>114</v>
       </c>
       <c r="E115" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="F115" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>9</v>
       </c>
       <c r="G115" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="H115" s="4" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I115" s="8">
-        <f>IF(G115=1,$B$6,IF(H115,0,I114*$B$14))</f>
-        <v>4986.1740566718618</v>
+        <f t="shared" si="19"/>
+        <v>4988.2986337951825</v>
       </c>
       <c r="J115" s="8">
-        <f t="shared" si="11"/>
-        <v>288948.78658413433</v>
+        <f t="shared" si="17"/>
+        <v>144535.95291421542</v>
       </c>
       <c r="K115" s="11">
-        <f t="shared" si="12"/>
-        <v>144474.39329206717</v>
+        <f t="shared" si="18"/>
+        <v>72267.97645710771</v>
       </c>
     </row>
     <row r="116" spans="4:11" x14ac:dyDescent="0.25">
@@ -4690,32 +4690,32 @@
         <v>115</v>
       </c>
       <c r="E116" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="F116" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>9</v>
       </c>
       <c r="G116" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="H116" s="4" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I116" s="8">
-        <f>IF(G116=1,$B$6,IF(H116,0,I115*$B$14))</f>
-        <v>4972.3863446855057</v>
+        <f t="shared" si="19"/>
+        <v>4976.6246519845763</v>
       </c>
       <c r="J116" s="8">
-        <f t="shared" si="11"/>
-        <v>288149.78867452504</v>
+        <f t="shared" si="17"/>
+        <v>144197.69929125308</v>
       </c>
       <c r="K116" s="11">
-        <f t="shared" si="12"/>
-        <v>144074.89433726252</v>
+        <f t="shared" si="18"/>
+        <v>72098.849645626542</v>
       </c>
     </row>
     <row r="117" spans="4:11" x14ac:dyDescent="0.25">
@@ -4723,32 +4723,32 @@
         <v>116</v>
       </c>
       <c r="E117" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="F117" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>9</v>
       </c>
       <c r="G117" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="H117" s="4" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I117" s="8">
-        <f>IF(G117=1,$B$6,IF(H117,0,I116*$B$14))</f>
-        <v>4958.6367583240599</v>
+        <f t="shared" si="19"/>
+        <v>4964.9779904812176</v>
       </c>
       <c r="J117" s="8">
-        <f t="shared" si="11"/>
-        <v>287353.00014487922</v>
+        <f t="shared" si="17"/>
+        <v>143860.23727419326</v>
       </c>
       <c r="K117" s="11">
-        <f t="shared" si="12"/>
-        <v>143676.50007243961</v>
+        <f t="shared" si="18"/>
+        <v>71930.118637096632</v>
       </c>
     </row>
     <row r="118" spans="4:11" x14ac:dyDescent="0.25">
@@ -4756,32 +4756,32 @@
         <v>117</v>
       </c>
       <c r="E118" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="F118" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>9</v>
       </c>
       <c r="G118" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="H118" s="4" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I118" s="8">
-        <f>IF(G118=1,$B$6,IF(H118,0,I117*$B$14))</f>
-        <v>4944.9251921629775</v>
+        <f t="shared" si="19"/>
+        <v>4953.3585853481218</v>
       </c>
       <c r="J118" s="8">
-        <f t="shared" si="11"/>
-        <v>286558.41488584451</v>
+        <f t="shared" si="17"/>
+        <v>143523.56501046181</v>
       </c>
       <c r="K118" s="11">
-        <f t="shared" si="12"/>
-        <v>143279.20744292226</v>
+        <f t="shared" si="18"/>
+        <v>71761.782505230905</v>
       </c>
     </row>
     <row r="119" spans="4:11" x14ac:dyDescent="0.25">
@@ -4789,32 +4789,32 @@
         <v>118</v>
       </c>
       <c r="E119" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="F119" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>9</v>
       </c>
       <c r="G119" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
       <c r="H119" s="4" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I119" s="8">
-        <f>IF(G119=1,$B$6,IF(H119,0,I118*$B$14))</f>
-        <v>4931.2515410692313</v>
+        <f t="shared" si="19"/>
+        <v>4941.7663727979343</v>
       </c>
       <c r="J119" s="8">
-        <f t="shared" si="11"/>
-        <v>285766.02680496196</v>
+        <f t="shared" si="17"/>
+        <v>143187.68065182015</v>
       </c>
       <c r="K119" s="11">
-        <f t="shared" si="12"/>
-        <v>142883.01340248098</v>
+        <f t="shared" si="18"/>
+        <v>71593.840325910074</v>
       </c>
     </row>
     <row r="120" spans="4:11" x14ac:dyDescent="0.25">
@@ -4822,32 +4822,32 @@
         <v>119</v>
       </c>
       <c r="E120" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="F120" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>9</v>
       </c>
       <c r="G120" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="H120" s="4" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I120" s="8">
-        <f>IF(G120=1,$B$6,IF(H120,0,I119*$B$14))</f>
-        <v>4917.6157002005075</v>
+        <f t="shared" si="19"/>
+        <v>4930.2012891925815</v>
       </c>
       <c r="J120" s="8">
-        <f t="shared" si="11"/>
-        <v>284975.82982661936</v>
+        <f t="shared" si="17"/>
+        <v>142852.58235435505</v>
       </c>
       <c r="K120" s="11">
-        <f t="shared" si="12"/>
-        <v>142487.91491330968</v>
+        <f t="shared" si="18"/>
+        <v>71426.291177177525</v>
       </c>
     </row>
     <row r="121" spans="4:11" x14ac:dyDescent="0.25">
@@ -4855,32 +4855,32 @@
         <v>120</v>
       </c>
       <c r="E121" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="F121" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>9</v>
       </c>
       <c r="G121" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
       <c r="H121" s="4" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I121" s="8">
-        <f>IF(G121=1,$B$6,IF(H121,0,I120*$B$14))</f>
-        <v>4904.0175650044002</v>
+        <f t="shared" si="19"/>
+        <v>4918.6632710429203</v>
       </c>
       <c r="J121" s="8">
-        <f t="shared" si="11"/>
-        <v>284187.81789200503</v>
+        <f t="shared" si="17"/>
+        <v>142518.2682784686</v>
       </c>
       <c r="K121" s="11">
-        <f t="shared" si="12"/>
-        <v>142093.90894600251</v>
+        <f t="shared" si="18"/>
+        <v>71259.134139234302</v>
       </c>
     </row>
     <row r="122" spans="4:11" x14ac:dyDescent="0.25">
@@ -4888,32 +4888,32 @@
         <v>121</v>
       </c>
       <c r="E122" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>11</v>
       </c>
       <c r="F122" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>9</v>
       </c>
       <c r="G122" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="H122" s="4" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I122" s="8">
-        <f>IF(G122=1,$B$6,IF(H122,0,I121*$B$14))</f>
-        <v>4890.4570312176111</v>
+        <f t="shared" si="19"/>
+        <v>4907.1522550083882</v>
       </c>
       <c r="J122" s="8">
-        <f t="shared" si="11"/>
-        <v>283401.98495906056</v>
+        <f t="shared" si="17"/>
+        <v>142184.73658886805</v>
       </c>
       <c r="K122" s="11">
-        <f t="shared" si="12"/>
-        <v>141700.99247953028</v>
+        <f t="shared" si="18"/>
+        <v>71092.368294434025</v>
       </c>
     </row>
     <row r="123" spans="4:11" x14ac:dyDescent="0.25">
@@ -4921,32 +4921,32 @@
         <v>122</v>
       </c>
       <c r="E123" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>11</v>
       </c>
       <c r="F123" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>9</v>
       </c>
       <c r="G123" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="H123" s="4" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I123" s="8">
-        <f>IF(G123=1,$B$6,IF(H123,0,I122*$B$14))</f>
-        <v>4876.9339948651486</v>
+        <f t="shared" si="19"/>
+        <v>4895.6681778966586</v>
       </c>
       <c r="J123" s="8">
-        <f t="shared" si="11"/>
-        <v>282618.32500243536</v>
+        <f t="shared" si="17"/>
+        <v>141851.98545455566</v>
       </c>
       <c r="K123" s="11">
-        <f t="shared" si="12"/>
-        <v>141309.16250121768</v>
+        <f t="shared" si="18"/>
+        <v>70925.99272727783</v>
       </c>
     </row>
     <row r="124" spans="4:11" x14ac:dyDescent="0.25">
@@ -4954,32 +4954,32 @@
         <v>123</v>
       </c>
       <c r="E124" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>11</v>
       </c>
       <c r="F124" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>9</v>
       </c>
       <c r="G124" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>11</v>
       </c>
       <c r="H124" s="4" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I124" s="8">
-        <f>IF(G124=1,$B$6,IF(H124,0,I123*$B$14))</f>
-        <v>4863.4483522595328</v>
+        <f t="shared" si="19"/>
+        <v>4884.2109766632902</v>
       </c>
       <c r="J124" s="8">
-        <f t="shared" si="11"/>
-        <v>281836.83201343991</v>
+        <f t="shared" si="17"/>
+        <v>141520.01304881883</v>
       </c>
       <c r="K124" s="11">
-        <f t="shared" si="12"/>
-        <v>140918.41600671996</v>
+        <f t="shared" si="18"/>
+        <v>70760.006524409415</v>
       </c>
     </row>
     <row r="125" spans="4:11" x14ac:dyDescent="0.25">
@@ -4987,32 +4987,32 @@
         <v>124</v>
       </c>
       <c r="E125" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>11</v>
       </c>
       <c r="F125" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>9</v>
       </c>
       <c r="G125" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>12</v>
       </c>
       <c r="H125" s="4" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I125" s="8">
-        <f>IF(G125=1,$B$6,IF(H125,0,I124*$B$14))</f>
-        <v>4849.9999999999991</v>
+        <f t="shared" si="19"/>
+        <v>4872.780588411385</v>
       </c>
       <c r="J125" s="8">
-        <f t="shared" si="11"/>
-        <v>281057.49999999994</v>
+        <f t="shared" si="17"/>
+        <v>141188.81754921988</v>
       </c>
       <c r="K125" s="11">
-        <f t="shared" si="12"/>
-        <v>140528.74999999997</v>
+        <f t="shared" si="18"/>
+        <v>70594.408774609939</v>
       </c>
     </row>
     <row r="126" spans="4:11" x14ac:dyDescent="0.25">
@@ -5020,32 +5020,32 @@
         <v>125</v>
       </c>
       <c r="E126" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>11</v>
       </c>
       <c r="F126" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>9</v>
       </c>
       <c r="G126" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>13</v>
       </c>
       <c r="H126" s="4" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I126" s="8">
-        <f>IF(G126=1,$B$6,IF(H126,0,I125*$B$14))</f>
-        <v>4836.5888349717052</v>
+        <f t="shared" si="19"/>
+        <v>4861.376950391239</v>
       </c>
       <c r="J126" s="8">
-        <f t="shared" si="11"/>
-        <v>280280.32298661029</v>
+        <f t="shared" si="17"/>
+        <v>140858.39713758614</v>
       </c>
       <c r="K126" s="11">
-        <f t="shared" si="12"/>
-        <v>140140.16149330515</v>
+        <f t="shared" si="18"/>
+        <v>70429.198568793072</v>
       </c>
     </row>
     <row r="127" spans="4:11" x14ac:dyDescent="0.25">
@@ -5053,32 +5053,32 @@
         <v>126</v>
       </c>
       <c r="E127" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>11</v>
       </c>
       <c r="F127" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>9</v>
       </c>
       <c r="G127" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>14</v>
       </c>
       <c r="H127" s="4" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I127" s="8">
-        <f>IF(G127=1,$B$6,IF(H127,0,I126*$B$14))</f>
-        <v>4823.21475434494</v>
+        <f t="shared" si="19"/>
+        <v>4850.0000000000018</v>
       </c>
       <c r="J127" s="8">
-        <f t="shared" si="11"/>
-        <v>279505.29501428927</v>
+        <f t="shared" si="17"/>
+        <v>140528.75000000006</v>
       </c>
       <c r="K127" s="11">
-        <f t="shared" si="12"/>
-        <v>139752.64750714463</v>
+        <f t="shared" si="18"/>
+        <v>70264.375000000029</v>
       </c>
     </row>
     <row r="128" spans="4:11" x14ac:dyDescent="0.25">
@@ -5086,31 +5086,31 @@
         <v>127</v>
       </c>
       <c r="E128" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>11</v>
       </c>
       <c r="F128" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="G128" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>15</v>
       </c>
       <c r="H128" s="4" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="I128" s="8">
-        <f>IF(G128=1,$B$6,IF(H128,0,I127*$B$14))</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J128" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K128" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -5119,31 +5119,31 @@
         <v>128</v>
       </c>
       <c r="E129" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>11</v>
       </c>
       <c r="F129" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="G129" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="H129" s="4" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="I129" s="8">
-        <f>IF(G129=1,$B$6,IF(H129,0,I128*$B$14))</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J129" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K129" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -5152,32 +5152,32 @@
         <v>129</v>
       </c>
       <c r="E130" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>11</v>
       </c>
       <c r="F130" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="G130" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="H130" s="4" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I130" s="8">
-        <f>IF(G130=1,$B$6,IF(H130,0,I129*$B$14))</f>
+        <f t="shared" si="19"/>
         <v>5000</v>
       </c>
       <c r="J130" s="8">
-        <f t="shared" si="11"/>
-        <v>289750</v>
+        <f t="shared" si="17"/>
+        <v>144875</v>
       </c>
       <c r="K130" s="11">
-        <f t="shared" si="12"/>
-        <v>144875</v>
+        <f t="shared" si="18"/>
+        <v>72437.5</v>
       </c>
     </row>
     <row r="131" spans="4:11" x14ac:dyDescent="0.25">
@@ -5185,32 +5185,32 @@
         <v>130</v>
       </c>
       <c r="E131" s="4">
-        <f t="shared" ref="E131:E133" si="13">_xlfn.CEILING.MATH(D131/12)</f>
+        <f t="shared" ref="E131:E133" si="20">_xlfn.CEILING.MATH(D131/12)</f>
         <v>11</v>
       </c>
       <c r="F131" s="4">
-        <f t="shared" ref="F131:F133" si="14">_xlfn.CEILING.MATH(D131/$B$4)</f>
+        <f t="shared" ref="F131:F133" si="21">_xlfn.CEILING.MATH(D131/$B$4)</f>
         <v>10</v>
       </c>
       <c r="G131" s="4">
-        <f t="shared" ref="G131:G133" si="15">MOD(D131-1,$B$4+$B$5)+1</f>
+        <f t="shared" ref="G131:G133" si="22">MOD(D131-1,$B$4+$B$5)+1</f>
         <v>2</v>
       </c>
       <c r="H131" s="4" t="b">
-        <f t="shared" ref="H131:H133" si="16">G131&gt;$B$4</f>
+        <f t="shared" ref="H131:H133" si="23">G131&gt;$B$4</f>
         <v>0</v>
       </c>
       <c r="I131" s="8">
-        <f>IF(G131=1,$B$6,IF(H131,0,I130*$B$14))</f>
-        <v>4986.1740566718618</v>
+        <f t="shared" ref="I131:I162" si="24">IF(G131=1,$B$6,IF(H131,0,I130*$B$14))</f>
+        <v>4988.2986337951825</v>
       </c>
       <c r="J131" s="8">
-        <f t="shared" ref="J131:J133" si="17">I131*$B$7*30.5*(1-$B$11)</f>
-        <v>288948.78658413433</v>
+        <f t="shared" ref="J131:J133" si="25">I131*$B$7*30.5*(1-$B$11)</f>
+        <v>144535.95291421542</v>
       </c>
       <c r="K131" s="11">
-        <f t="shared" ref="K131:K133" si="18">J131*$B$8</f>
-        <v>144474.39329206717</v>
+        <f t="shared" ref="K131:K133" si="26">J131*$B$8</f>
+        <v>72267.97645710771</v>
       </c>
     </row>
     <row r="132" spans="4:11" x14ac:dyDescent="0.25">
@@ -5218,32 +5218,32 @@
         <v>131</v>
       </c>
       <c r="E132" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>11</v>
       </c>
       <c r="F132" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>10</v>
       </c>
       <c r="G132" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>3</v>
       </c>
       <c r="H132" s="4" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="I132" s="8">
-        <f>IF(G132=1,$B$6,IF(H132,0,I131*$B$14))</f>
-        <v>4972.3863446855057</v>
+        <f t="shared" si="24"/>
+        <v>4976.6246519845763</v>
       </c>
       <c r="J132" s="8">
-        <f t="shared" si="17"/>
-        <v>288149.78867452504</v>
+        <f t="shared" si="25"/>
+        <v>144197.69929125308</v>
       </c>
       <c r="K132" s="11">
-        <f t="shared" si="18"/>
-        <v>144074.89433726252</v>
+        <f t="shared" si="26"/>
+        <v>72098.849645626542</v>
       </c>
     </row>
     <row r="133" spans="4:11" x14ac:dyDescent="0.25">
@@ -5251,32 +5251,32 @@
         <v>132</v>
       </c>
       <c r="E133" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>11</v>
       </c>
       <c r="F133" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>10</v>
       </c>
       <c r="G133" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>4</v>
       </c>
       <c r="H133" s="4" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="I133" s="8">
-        <f>IF(G133=1,$B$6,IF(H133,0,I132*$B$14))</f>
-        <v>4958.6367583240599</v>
+        <f t="shared" si="24"/>
+        <v>4964.9779904812176</v>
       </c>
       <c r="J133" s="8">
-        <f t="shared" si="17"/>
-        <v>287353.00014487922</v>
+        <f t="shared" si="25"/>
+        <v>143860.23727419326</v>
       </c>
       <c r="K133" s="11">
-        <f t="shared" si="18"/>
-        <v>143676.50007243961</v>
+        <f t="shared" si="26"/>
+        <v>71930.118637096632</v>
       </c>
     </row>
   </sheetData>
